--- a/模型统计(总).xlsx
+++ b/模型统计(总).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465"/>
+    <workbookView windowWidth="28245" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1297" uniqueCount="888">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1315" uniqueCount="897">
   <si>
     <t>dt431</t>
   </si>
@@ -2678,6 +2678,33 @@
   </si>
   <si>
     <t>dt1424-联通-手机游戏-20190418-通用(浙江,江苏,安徽,四川,湖北,湖南,山西,陕西,河北,山东,天津,重庆,辽宁)-1天-限量每天10000</t>
+  </si>
+  <si>
+    <t>dt1430-配资-20190419-全国</t>
+  </si>
+  <si>
+    <t>dt1432-股票-20190419-湖南</t>
+  </si>
+  <si>
+    <t>dt1433-手机游戏-20190419-V1-全国</t>
+  </si>
+  <si>
+    <t>dt1434-游戏-20190419-全国</t>
+  </si>
+  <si>
+    <t>dt1435-行业汇总-20190419-优化(全国)-1天</t>
+  </si>
+  <si>
+    <t>dt1436-POS-20190419-通用(全国)-7天</t>
+  </si>
+  <si>
+    <t>dt1437-餐饮培训-20190419-吴总(湖南)-1天</t>
+  </si>
+  <si>
+    <t>dt1438-成人教育-20190418-武总(江西、湖南、湖北、安徽)-1天</t>
+  </si>
+  <si>
+    <t>dt1439-汽车贸易-20190419-邢总(陕西省、青海省)-1天</t>
   </si>
 </sst>
 </file>
@@ -2685,10 +2712,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -2700,21 +2727,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -2722,24 +2734,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2748,36 +2745,6 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2790,7 +2757,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2805,7 +2772,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2820,14 +2787,6 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -2837,7 +2796,75 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2858,13 +2885,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2882,13 +2915,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2906,97 +2975,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3014,31 +2999,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3049,6 +3076,56 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -3099,56 +3176,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3157,10 +3184,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3169,133 +3196,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3646,10 +3673,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D459"/>
+  <dimension ref="A1:D468"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A432" workbookViewId="0">
-      <selection activeCell="E442" sqref="E442"/>
+      <selection activeCell="D432" sqref="D$1:D$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -8414,11 +8441,11 @@
     </row>
     <row r="445" s="1" customFormat="1" spans="1:4">
       <c r="A445" s="1" t="str">
-        <f t="shared" ref="A445:A450" si="0">LEFT(D445,FIND("-",D445)-1)</f>
+        <f t="shared" ref="A445:A451" si="0">LEFT(D445,FIND("-",D445)-1)</f>
         <v>dt1394</v>
       </c>
       <c r="B445" s="1" t="str">
-        <f t="shared" ref="B445:B450" si="1">RIGHT(D445,LEN(D445)-FIND("-",D445))</f>
+        <f t="shared" ref="B445:B451" si="1">RIGHT(D445,LEN(D445)-FIND("-",D445))</f>
         <v>保险-20190416-V1-全国</v>
       </c>
       <c r="C445" s="1" t="s">
@@ -8510,11 +8537,11 @@
     </row>
     <row r="451" spans="1:4">
       <c r="A451" s="1" t="str">
-        <f>LEFT(D451,FIND("-",D451)-1)</f>
+        <f t="shared" si="0"/>
         <v>dt1416</v>
       </c>
       <c r="B451" s="1" t="str">
-        <f>RIGHT(D451,LEN(D451)-FIND("-",D451))</f>
+        <f t="shared" si="1"/>
         <v>电信-比亚迪a-20190418-全国</v>
       </c>
       <c r="C451" s="1" t="s">
@@ -8650,6 +8677,150 @@
       </c>
       <c r="D459" t="s">
         <v>887</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4">
+      <c r="A460" s="1" t="str">
+        <f t="shared" ref="A460:A467" si="4">LEFT(D460,FIND("-",D460)-1)</f>
+        <v>dt1430</v>
+      </c>
+      <c r="B460" s="1" t="str">
+        <f t="shared" ref="B460:B467" si="5">RIGHT(D460,LEN(D460)-FIND("-",D460))</f>
+        <v>配资-20190419-全国</v>
+      </c>
+      <c r="C460" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="D460" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4">
+      <c r="A461" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>dt1432</v>
+      </c>
+      <c r="B461" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>股票-20190419-湖南</v>
+      </c>
+      <c r="C461" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="D461" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4">
+      <c r="A462" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>dt1433</v>
+      </c>
+      <c r="B462" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>手机游戏-20190419-V1-全国</v>
+      </c>
+      <c r="C462" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="D462" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4">
+      <c r="A463" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>dt1434</v>
+      </c>
+      <c r="B463" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>游戏-20190419-全国</v>
+      </c>
+      <c r="C463" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="D463" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4">
+      <c r="A464" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>dt1435</v>
+      </c>
+      <c r="B464" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>行业汇总-20190419-优化(全国)-1天</v>
+      </c>
+      <c r="C464" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D464" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4">
+      <c r="A465" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>dt1436</v>
+      </c>
+      <c r="B465" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>POS-20190419-通用(全国)-7天</v>
+      </c>
+      <c r="C465" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D465" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4">
+      <c r="A466" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>dt1437</v>
+      </c>
+      <c r="B466" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>餐饮培训-20190419-吴总(湖南)-1天</v>
+      </c>
+      <c r="C466" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D466" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4">
+      <c r="A467" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>dt1438</v>
+      </c>
+      <c r="B467" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>成人教育-20190418-武总(江西、湖南、湖北、安徽)-1天</v>
+      </c>
+      <c r="C467" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D467" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="468" spans="1:4">
+      <c r="A468" s="1" t="str">
+        <f>LEFT(D468,FIND("-",D468)-1)</f>
+        <v>dt1439</v>
+      </c>
+      <c r="B468" s="1" t="str">
+        <f>RIGHT(D468,LEN(D468)-FIND("-",D468))</f>
+        <v>汽车贸易-20190419-邢总(陕西省、青海省)-1天</v>
+      </c>
+      <c r="C468" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D468" t="s">
+        <v>896</v>
       </c>
     </row>
   </sheetData>

--- a/模型统计(总).xlsx
+++ b/模型统计(总).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28245" windowHeight="12465"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1315" uniqueCount="897">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1323" uniqueCount="900">
   <si>
     <t>dt431</t>
   </si>
@@ -2530,9 +2530,6 @@
     <t>dt1346</t>
   </si>
   <si>
-    <t>手机游戏A-20190410-全国</t>
-  </si>
-  <si>
     <t>dt1347</t>
   </si>
   <si>
@@ -2705,6 +2702,18 @@
   </si>
   <si>
     <t>dt1439-汽车贸易-20190419-邢总(陕西省、青海省)-1天</t>
+  </si>
+  <si>
+    <t>dt1458-股票配资-20190422-全国</t>
+  </si>
+  <si>
+    <t>dt1459-成人教育-20190422-王总优化(湖南)-5天</t>
+  </si>
+  <si>
+    <t>dt1460-现金贷-20190422-晟总(全国)-1天</t>
+  </si>
+  <si>
+    <t>dt1461-装修-20190422-邢总(四川、甘肃、黑龙江)-1天</t>
   </si>
 </sst>
 </file>
@@ -2714,8 +2723,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -2727,113 +2736,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2855,6 +2765,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -2864,7 +2805,75 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2885,13 +2894,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2903,13 +2918,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2921,7 +2972,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2933,25 +3008,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2963,19 +3020,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2993,19 +3056,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3017,55 +3068,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3076,6 +3085,60 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -3096,6 +3159,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -3108,71 +3180,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3184,10 +3193,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3196,133 +3205,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3673,15 +3682,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D468"/>
+  <dimension ref="A1:D472"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A432" workbookViewId="0">
-      <selection activeCell="D432" sqref="D$1:D$1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A436" workbookViewId="0">
+      <selection activeCell="B427" sqref="B427"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
-    <col min="2" max="2" width="189.75" customWidth="1"/>
+    <col min="2" max="2" width="23.75" customWidth="1"/>
     <col min="4" max="4" width="9" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8246,7 +8255,7 @@
         <v>837</v>
       </c>
       <c r="B427" s="1" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="C427" s="1" t="s">
         <v>396</v>
@@ -8254,10 +8263,10 @@
     </row>
     <row r="428" s="1" customFormat="1" spans="1:3">
       <c r="A428" s="1" t="s">
+        <v>838</v>
+      </c>
+      <c r="B428" s="1" t="s">
         <v>839</v>
-      </c>
-      <c r="B428" s="1" t="s">
-        <v>840</v>
       </c>
       <c r="C428" s="1" t="s">
         <v>396</v>
@@ -8265,10 +8274,10 @@
     </row>
     <row r="429" s="1" customFormat="1" spans="1:3">
       <c r="A429" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="B429" s="1" t="s">
         <v>841</v>
-      </c>
-      <c r="B429" s="1" t="s">
-        <v>842</v>
       </c>
       <c r="C429" s="1" t="s">
         <v>396</v>
@@ -8276,10 +8285,10 @@
     </row>
     <row r="430" s="1" customFormat="1" spans="1:3">
       <c r="A430" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="B430" s="1" t="s">
         <v>843</v>
-      </c>
-      <c r="B430" s="1" t="s">
-        <v>844</v>
       </c>
       <c r="C430" s="1" t="s">
         <v>396</v>
@@ -8287,10 +8296,10 @@
     </row>
     <row r="431" s="1" customFormat="1" spans="1:3">
       <c r="A431" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="B431" s="1" t="s">
         <v>845</v>
-      </c>
-      <c r="B431" s="1" t="s">
-        <v>846</v>
       </c>
       <c r="C431" s="1" t="s">
         <v>396</v>
@@ -8298,10 +8307,10 @@
     </row>
     <row r="432" s="1" customFormat="1" spans="1:3">
       <c r="A432" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="B432" s="1" t="s">
         <v>847</v>
-      </c>
-      <c r="B432" s="1" t="s">
-        <v>848</v>
       </c>
       <c r="C432" s="1" t="s">
         <v>396</v>
@@ -8309,10 +8318,10 @@
     </row>
     <row r="433" s="1" customFormat="1" spans="1:3">
       <c r="A433" s="1" t="s">
+        <v>848</v>
+      </c>
+      <c r="B433" s="1" t="s">
         <v>849</v>
-      </c>
-      <c r="B433" s="1" t="s">
-        <v>850</v>
       </c>
       <c r="C433" s="1" t="s">
         <v>396</v>
@@ -8320,10 +8329,10 @@
     </row>
     <row r="434" s="1" customFormat="1" spans="1:3">
       <c r="A434" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="B434" s="1" t="s">
         <v>851</v>
-      </c>
-      <c r="B434" s="1" t="s">
-        <v>852</v>
       </c>
       <c r="C434" s="1" t="s">
         <v>2</v>
@@ -8331,10 +8340,10 @@
     </row>
     <row r="435" s="1" customFormat="1" spans="1:3">
       <c r="A435" s="1" t="s">
+        <v>852</v>
+      </c>
+      <c r="B435" s="1" t="s">
         <v>853</v>
-      </c>
-      <c r="B435" s="1" t="s">
-        <v>854</v>
       </c>
       <c r="C435" s="1" t="s">
         <v>396</v>
@@ -8342,10 +8351,10 @@
     </row>
     <row r="436" s="1" customFormat="1" spans="1:3">
       <c r="A436" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="B436" s="1" t="s">
         <v>855</v>
-      </c>
-      <c r="B436" s="1" t="s">
-        <v>856</v>
       </c>
       <c r="C436" s="1" t="s">
         <v>396</v>
@@ -8353,10 +8362,10 @@
     </row>
     <row r="437" s="1" customFormat="1" spans="1:3">
       <c r="A437" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="B437" s="1" t="s">
         <v>857</v>
-      </c>
-      <c r="B437" s="1" t="s">
-        <v>858</v>
       </c>
       <c r="C437" s="1" t="s">
         <v>396</v>
@@ -8364,10 +8373,10 @@
     </row>
     <row r="438" s="1" customFormat="1" spans="1:3">
       <c r="A438" s="1" t="s">
+        <v>858</v>
+      </c>
+      <c r="B438" s="1" t="s">
         <v>859</v>
-      </c>
-      <c r="B438" s="1" t="s">
-        <v>860</v>
       </c>
       <c r="C438" s="1" t="s">
         <v>2</v>
@@ -8375,10 +8384,10 @@
     </row>
     <row r="439" s="1" customFormat="1" spans="1:3">
       <c r="A439" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="B439" s="1" t="s">
         <v>861</v>
-      </c>
-      <c r="B439" s="1" t="s">
-        <v>862</v>
       </c>
       <c r="C439" s="1" t="s">
         <v>2</v>
@@ -8386,10 +8395,10 @@
     </row>
     <row r="440" s="1" customFormat="1" spans="1:3">
       <c r="A440" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="B440" s="1" t="s">
         <v>863</v>
-      </c>
-      <c r="B440" s="1" t="s">
-        <v>864</v>
       </c>
       <c r="C440" s="1" t="s">
         <v>2</v>
@@ -8397,10 +8406,10 @@
     </row>
     <row r="441" s="1" customFormat="1" spans="1:3">
       <c r="A441" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="B441" s="1" t="s">
         <v>865</v>
-      </c>
-      <c r="B441" s="1" t="s">
-        <v>866</v>
       </c>
       <c r="C441" s="1" t="s">
         <v>2</v>
@@ -8408,10 +8417,10 @@
     </row>
     <row r="442" s="1" customFormat="1" spans="1:3">
       <c r="A442" s="1" t="s">
+        <v>866</v>
+      </c>
+      <c r="B442" s="1" t="s">
         <v>867</v>
-      </c>
-      <c r="B442" s="1" t="s">
-        <v>868</v>
       </c>
       <c r="C442" s="1" t="s">
         <v>2</v>
@@ -8419,10 +8428,10 @@
     </row>
     <row r="443" s="1" customFormat="1" spans="1:3">
       <c r="A443" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="B443" s="1" t="s">
         <v>869</v>
-      </c>
-      <c r="B443" s="1" t="s">
-        <v>870</v>
       </c>
       <c r="C443" s="1" t="s">
         <v>2</v>
@@ -8430,10 +8439,10 @@
     </row>
     <row r="444" s="1" customFormat="1" spans="1:3">
       <c r="A444" s="1" t="s">
+        <v>870</v>
+      </c>
+      <c r="B444" s="1" t="s">
         <v>871</v>
-      </c>
-      <c r="B444" s="1" t="s">
-        <v>872</v>
       </c>
       <c r="C444" s="1" t="s">
         <v>2</v>
@@ -8452,7 +8461,7 @@
         <v>396</v>
       </c>
       <c r="D445" s="1" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="446" s="1" customFormat="1" spans="1:4">
@@ -8468,7 +8477,7 @@
         <v>396</v>
       </c>
       <c r="D446" s="1" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="447" s="1" customFormat="1" spans="1:4">
@@ -8484,7 +8493,7 @@
         <v>2</v>
       </c>
       <c r="D447" s="1" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="448" s="1" customFormat="1" spans="1:4">
@@ -8500,7 +8509,7 @@
         <v>2</v>
       </c>
       <c r="D448" s="1" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="449" s="1" customFormat="1" spans="1:4">
@@ -8516,7 +8525,7 @@
         <v>2</v>
       </c>
       <c r="D449" s="1" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="450" s="1" customFormat="1" spans="1:4">
@@ -8532,7 +8541,7 @@
         <v>2</v>
       </c>
       <c r="D450" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="451" spans="1:4">
@@ -8548,7 +8557,7 @@
         <v>396</v>
       </c>
       <c r="D451" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="452" spans="1:4">
@@ -8564,7 +8573,7 @@
         <v>396</v>
       </c>
       <c r="D452" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="453" spans="1:4">
@@ -8580,7 +8589,7 @@
         <v>396</v>
       </c>
       <c r="D453" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="454" spans="1:4">
@@ -8596,7 +8605,7 @@
         <v>2</v>
       </c>
       <c r="D454" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="455" spans="1:4">
@@ -8612,7 +8621,7 @@
         <v>2</v>
       </c>
       <c r="D455" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="456" spans="1:4">
@@ -8628,7 +8637,7 @@
         <v>2</v>
       </c>
       <c r="D456" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="457" spans="1:4">
@@ -8644,7 +8653,7 @@
         <v>2</v>
       </c>
       <c r="D457" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="458" spans="1:4">
@@ -8660,7 +8669,7 @@
         <v>2</v>
       </c>
       <c r="D458" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="459" spans="1:4">
@@ -8676,23 +8685,23 @@
         <v>2</v>
       </c>
       <c r="D459" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="460" spans="1:4">
       <c r="A460" s="1" t="str">
-        <f t="shared" ref="A460:A467" si="4">LEFT(D460,FIND("-",D460)-1)</f>
+        <f t="shared" ref="A460:A472" si="4">LEFT(D460,FIND("-",D460)-1)</f>
         <v>dt1430</v>
       </c>
       <c r="B460" s="1" t="str">
-        <f t="shared" ref="B460:B467" si="5">RIGHT(D460,LEN(D460)-FIND("-",D460))</f>
+        <f t="shared" ref="B460:B472" si="5">RIGHT(D460,LEN(D460)-FIND("-",D460))</f>
         <v>配资-20190419-全国</v>
       </c>
       <c r="C460" s="1" t="s">
         <v>396</v>
       </c>
       <c r="D460" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="461" spans="1:4">
@@ -8708,7 +8717,7 @@
         <v>396</v>
       </c>
       <c r="D461" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="462" spans="1:4">
@@ -8724,7 +8733,7 @@
         <v>396</v>
       </c>
       <c r="D462" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="463" spans="1:4">
@@ -8740,7 +8749,7 @@
         <v>396</v>
       </c>
       <c r="D463" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="464" spans="1:4">
@@ -8756,7 +8765,7 @@
         <v>2</v>
       </c>
       <c r="D464" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="465" spans="1:4">
@@ -8772,7 +8781,7 @@
         <v>2</v>
       </c>
       <c r="D465" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="466" spans="1:4">
@@ -8788,7 +8797,7 @@
         <v>2</v>
       </c>
       <c r="D466" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="467" spans="1:4">
@@ -8804,23 +8813,87 @@
         <v>2</v>
       </c>
       <c r="D467" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="468" spans="1:4">
       <c r="A468" s="1" t="str">
-        <f>LEFT(D468,FIND("-",D468)-1)</f>
+        <f t="shared" si="4"/>
         <v>dt1439</v>
       </c>
       <c r="B468" s="1" t="str">
-        <f>RIGHT(D468,LEN(D468)-FIND("-",D468))</f>
+        <f t="shared" si="5"/>
         <v>汽车贸易-20190419-邢总(陕西省、青海省)-1天</v>
       </c>
       <c r="C468" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D468" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="469" spans="1:4">
+      <c r="A469" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>dt1458</v>
+      </c>
+      <c r="B469" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>股票配资-20190422-全国</v>
+      </c>
+      <c r="C469" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="D469" t="s">
         <v>896</v>
+      </c>
+    </row>
+    <row r="470" spans="1:4">
+      <c r="A470" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>dt1459</v>
+      </c>
+      <c r="B470" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>成人教育-20190422-王总优化(湖南)-5天</v>
+      </c>
+      <c r="C470" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D470" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="471" spans="1:4">
+      <c r="A471" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>dt1460</v>
+      </c>
+      <c r="B471" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>现金贷-20190422-晟总(全国)-1天</v>
+      </c>
+      <c r="C471" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D471" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="472" spans="1:4">
+      <c r="A472" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>dt1461</v>
+      </c>
+      <c r="B472" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>装修-20190422-邢总(四川、甘肃、黑龙江)-1天</v>
+      </c>
+      <c r="C472" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D472" t="s">
+        <v>899</v>
       </c>
     </row>
   </sheetData>

--- a/模型统计(总).xlsx
+++ b/模型统计(总).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1323" uniqueCount="900">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1335" uniqueCount="906">
   <si>
     <t>dt431</t>
   </si>
@@ -2714,6 +2714,24 @@
   </si>
   <si>
     <t>dt1461-装修-20190422-邢总(四川、甘肃、黑龙江)-1天</t>
+  </si>
+  <si>
+    <t>dt1466-投资理财G-20190423-全国</t>
+  </si>
+  <si>
+    <t>dt1467-手游G-20190423-全国</t>
+  </si>
+  <si>
+    <t>dt1468-餐饮加盟-20190423-吴总(全国)-2天</t>
+  </si>
+  <si>
+    <t>dt1469-餐饮加盟-20190423-邢总(河南、陕西、山西、四川、重庆、甘肃、湖北)-1天</t>
+  </si>
+  <si>
+    <t>dt1470-手机游戏-20190423-通用(浙江,江苏,安徽,四川,湖北,湖南,山西,陕西,河北,山东,天津,重庆,辽宁)-3天</t>
+  </si>
+  <si>
+    <t>dt1471-装修-20190423-邢总(陕西省)-3天</t>
   </si>
 </sst>
 </file>
@@ -2735,51 +2753,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -2796,8 +2769,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2805,9 +2794,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2820,7 +2809,43 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2834,7 +2859,23 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2849,31 +2890,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2894,37 +2912,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2942,13 +2930,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2960,13 +2990,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2978,103 +3092,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3088,11 +3106,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3127,17 +3151,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3161,17 +3190,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -3193,10 +3211,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3205,133 +3223,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3682,10 +3700,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D472"/>
+  <dimension ref="A1:D478"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A436" workbookViewId="0">
-      <selection activeCell="B427" sqref="B427"/>
+    <sheetView tabSelected="1" topLeftCell="A445" workbookViewId="0">
+      <selection activeCell="D445" sqref="D$1:D$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -8896,6 +8914,102 @@
         <v>899</v>
       </c>
     </row>
+    <row r="473" spans="1:4">
+      <c r="A473" s="1" t="str">
+        <f t="shared" ref="A473:A478" si="6">LEFT(D473,FIND("-",D473)-1)</f>
+        <v>dt1466</v>
+      </c>
+      <c r="B473" s="1" t="str">
+        <f t="shared" ref="B473:B478" si="7">RIGHT(D473,LEN(D473)-FIND("-",D473))</f>
+        <v>投资理财G-20190423-全国</v>
+      </c>
+      <c r="C473" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="D473" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="474" spans="1:4">
+      <c r="A474" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>dt1467</v>
+      </c>
+      <c r="B474" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>手游G-20190423-全国</v>
+      </c>
+      <c r="C474" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="D474" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="475" spans="1:4">
+      <c r="A475" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>dt1468</v>
+      </c>
+      <c r="B475" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>餐饮加盟-20190423-吴总(全国)-2天</v>
+      </c>
+      <c r="C475" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D475" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="476" spans="1:4">
+      <c r="A476" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>dt1469</v>
+      </c>
+      <c r="B476" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>餐饮加盟-20190423-邢总(河南、陕西、山西、四川、重庆、甘肃、湖北)-1天</v>
+      </c>
+      <c r="C476" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D476" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="477" spans="1:4">
+      <c r="A477" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>dt1470</v>
+      </c>
+      <c r="B477" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>手机游戏-20190423-通用(浙江,江苏,安徽,四川,湖北,湖南,山西,陕西,河北,山东,天津,重庆,辽宁)-3天</v>
+      </c>
+      <c r="C477" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D477" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="478" spans="1:4">
+      <c r="A478" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>dt1471</v>
+      </c>
+      <c r="B478" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>装修-20190423-邢总(陕西省)-3天</v>
+      </c>
+      <c r="C478" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D478" t="s">
+        <v>905</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/模型统计(总).xlsx
+++ b/模型统计(总).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1335" uniqueCount="906">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1351" uniqueCount="914">
   <si>
     <t>dt431</t>
   </si>
@@ -2732,6 +2732,30 @@
   </si>
   <si>
     <t>dt1471-装修-20190423-邢总(陕西省)-3天</t>
+  </si>
+  <si>
+    <t>dt1477-贷款G-20190424-河南郑州</t>
+  </si>
+  <si>
+    <t>dt1478-股民G-20190424-全国（除河北）</t>
+  </si>
+  <si>
+    <t>dt1479-股票G-20190424-除去上海，广东，北京，新疆，西藏</t>
+  </si>
+  <si>
+    <t>dt1480-广场舞G-20190424-全国</t>
+  </si>
+  <si>
+    <t>dt1481-理财G-20190424-全国</t>
+  </si>
+  <si>
+    <t>dt1482-手机游戏G-20190424-全国</t>
+  </si>
+  <si>
+    <t>dt1483-育婴健身G-20190424-全国</t>
+  </si>
+  <si>
+    <t>dt1484-手机游戏-20190424-通用(浙江,江苏,安徽,四川,湖北,湖南,山西,陕西,河北,山东,天津,重庆,辽宁)-3天</t>
   </si>
 </sst>
 </file>
@@ -2755,7 +2779,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2770,10 +2794,56 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2792,46 +2862,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2852,14 +2884,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2868,30 +2900,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2912,13 +2936,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2942,13 +2966,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2960,25 +3002,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2990,25 +3014,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3026,25 +3044,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3056,43 +3110,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3103,21 +3127,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -3132,6 +3141,41 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3153,11 +3197,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3170,39 +3227,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3211,10 +3235,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3223,16 +3247,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3241,119 +3265,119 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3379,6 +3403,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3700,15 +3727,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D478"/>
+  <dimension ref="A1:D486"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A445" workbookViewId="0">
-      <selection activeCell="D445" sqref="D$1:D$1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A450" workbookViewId="0">
+      <selection activeCell="D450" sqref="D$1:D$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
-    <col min="2" max="2" width="23.75" customWidth="1"/>
+    <col min="2" max="2" width="100.875" customWidth="1"/>
     <col min="4" max="4" width="9" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -9010,6 +9037,134 @@
         <v>905</v>
       </c>
     </row>
+    <row r="479" spans="1:4">
+      <c r="A479" s="1" t="str">
+        <f t="shared" ref="A479:A486" si="8">LEFT(D479,FIND("-",D479)-1)</f>
+        <v>dt1477</v>
+      </c>
+      <c r="B479" s="1" t="str">
+        <f t="shared" ref="B479:B486" si="9">RIGHT(D479,LEN(D479)-FIND("-",D479))</f>
+        <v>贷款G-20190424-河南郑州</v>
+      </c>
+      <c r="C479" s="9" t="s">
+        <v>396</v>
+      </c>
+      <c r="D479" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4">
+      <c r="A480" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>dt1478</v>
+      </c>
+      <c r="B480" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>股民G-20190424-全国（除河北）</v>
+      </c>
+      <c r="C480" s="9" t="s">
+        <v>396</v>
+      </c>
+      <c r="D480" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4">
+      <c r="A481" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>dt1479</v>
+      </c>
+      <c r="B481" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>股票G-20190424-除去上海，广东，北京，新疆，西藏</v>
+      </c>
+      <c r="C481" s="9" t="s">
+        <v>396</v>
+      </c>
+      <c r="D481" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="482" spans="1:4">
+      <c r="A482" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>dt1480</v>
+      </c>
+      <c r="B482" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>广场舞G-20190424-全国</v>
+      </c>
+      <c r="C482" s="9" t="s">
+        <v>396</v>
+      </c>
+      <c r="D482" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="483" spans="1:4">
+      <c r="A483" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>dt1481</v>
+      </c>
+      <c r="B483" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>理财G-20190424-全国</v>
+      </c>
+      <c r="C483" s="9" t="s">
+        <v>396</v>
+      </c>
+      <c r="D483" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="484" spans="1:4">
+      <c r="A484" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>dt1482</v>
+      </c>
+      <c r="B484" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>手机游戏G-20190424-全国</v>
+      </c>
+      <c r="C484" s="9" t="s">
+        <v>396</v>
+      </c>
+      <c r="D484" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="485" spans="1:4">
+      <c r="A485" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>dt1483</v>
+      </c>
+      <c r="B485" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>育婴健身G-20190424-全国</v>
+      </c>
+      <c r="C485" s="9" t="s">
+        <v>396</v>
+      </c>
+      <c r="D485" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="486" spans="1:4">
+      <c r="A486" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>dt1484</v>
+      </c>
+      <c r="B486" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>手机游戏-20190424-通用(浙江,江苏,安徽,四川,湖北,湖南,山西,陕西,河北,山东,天津,重庆,辽宁)-3天</v>
+      </c>
+      <c r="C486" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D486" t="s">
+        <v>913</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/模型统计(总).xlsx
+++ b/模型统计(总).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1351" uniqueCount="914">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1367" uniqueCount="922">
   <si>
     <t>dt431</t>
   </si>
@@ -2756,6 +2756,30 @@
   </si>
   <si>
     <t>dt1484-手机游戏-20190424-通用(浙江,江苏,安徽,四川,湖北,湖南,山西,陕西,河北,山东,天津,重庆,辽宁)-3天</t>
+  </si>
+  <si>
+    <t>dt1498-股票G-20190425-全国</t>
+  </si>
+  <si>
+    <t>dt1499-股票配资CG-20190425-全国</t>
+  </si>
+  <si>
+    <t>dt1500-汽车G-20190425-全国</t>
+  </si>
+  <si>
+    <t>dt1501-投资理财GJ-20190425-全国</t>
+  </si>
+  <si>
+    <t>dt1502-k12-20190425-曹总(湖南、湖北、江西、安徽)-1天</t>
+  </si>
+  <si>
+    <t>dt1503-保健-20190425-邢总(全国)-1天</t>
+  </si>
+  <si>
+    <t>dt1504-贷款-20190425-先总(广东、湖南、湖北、浙江、江苏、四川、陕西)-1天</t>
+  </si>
+  <si>
+    <t>dt1505-交友-20190425-韩总(湖南)-1天</t>
   </si>
 </sst>
 </file>
@@ -2764,8 +2788,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -2778,8 +2802,16 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2788,6 +2820,21 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2802,7 +2849,15 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2810,7 +2865,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2825,15 +2880,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2847,16 +2908,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2864,51 +2933,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2936,7 +2960,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2948,25 +2990,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2978,7 +3002,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2990,7 +3020,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3002,25 +3038,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3032,31 +3062,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3074,13 +3092,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3092,31 +3116,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3145,11 +3169,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3165,17 +3219,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3198,30 +3246,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
@@ -3235,10 +3259,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3247,137 +3271,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3403,9 +3427,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3727,10 +3748,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D486"/>
+  <dimension ref="A1:D494"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A450" workbookViewId="0">
-      <selection activeCell="D450" sqref="D$1:D$1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A456" workbookViewId="0">
+      <selection activeCell="D456" sqref="D$1:D$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -9046,7 +9067,7 @@
         <f t="shared" ref="B479:B486" si="9">RIGHT(D479,LEN(D479)-FIND("-",D479))</f>
         <v>贷款G-20190424-河南郑州</v>
       </c>
-      <c r="C479" s="9" t="s">
+      <c r="C479" s="1" t="s">
         <v>396</v>
       </c>
       <c r="D479" t="s">
@@ -9062,7 +9083,7 @@
         <f t="shared" si="9"/>
         <v>股民G-20190424-全国（除河北）</v>
       </c>
-      <c r="C480" s="9" t="s">
+      <c r="C480" s="1" t="s">
         <v>396</v>
       </c>
       <c r="D480" t="s">
@@ -9078,7 +9099,7 @@
         <f t="shared" si="9"/>
         <v>股票G-20190424-除去上海，广东，北京，新疆，西藏</v>
       </c>
-      <c r="C481" s="9" t="s">
+      <c r="C481" s="1" t="s">
         <v>396</v>
       </c>
       <c r="D481" t="s">
@@ -9094,7 +9115,7 @@
         <f t="shared" si="9"/>
         <v>广场舞G-20190424-全国</v>
       </c>
-      <c r="C482" s="9" t="s">
+      <c r="C482" s="1" t="s">
         <v>396</v>
       </c>
       <c r="D482" t="s">
@@ -9110,7 +9131,7 @@
         <f t="shared" si="9"/>
         <v>理财G-20190424-全国</v>
       </c>
-      <c r="C483" s="9" t="s">
+      <c r="C483" s="1" t="s">
         <v>396</v>
       </c>
       <c r="D483" t="s">
@@ -9126,7 +9147,7 @@
         <f t="shared" si="9"/>
         <v>手机游戏G-20190424-全国</v>
       </c>
-      <c r="C484" s="9" t="s">
+      <c r="C484" s="1" t="s">
         <v>396</v>
       </c>
       <c r="D484" t="s">
@@ -9142,7 +9163,7 @@
         <f t="shared" si="9"/>
         <v>育婴健身G-20190424-全国</v>
       </c>
-      <c r="C485" s="9" t="s">
+      <c r="C485" s="1" t="s">
         <v>396</v>
       </c>
       <c r="D485" t="s">
@@ -9163,6 +9184,134 @@
       </c>
       <c r="D486" t="s">
         <v>913</v>
+      </c>
+    </row>
+    <row r="487" spans="1:4">
+      <c r="A487" s="1" t="str">
+        <f t="shared" ref="A487:A493" si="10">LEFT(D487,FIND("-",D487)-1)</f>
+        <v>dt1498</v>
+      </c>
+      <c r="B487" s="1" t="str">
+        <f t="shared" ref="B487:B494" si="11">RIGHT(D487,LEN(D487)-FIND("-",D487))</f>
+        <v>股票G-20190425-全国</v>
+      </c>
+      <c r="C487" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="D487" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="488" spans="1:4">
+      <c r="A488" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>dt1499</v>
+      </c>
+      <c r="B488" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>股票配资CG-20190425-全国</v>
+      </c>
+      <c r="C488" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="D488" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="489" spans="1:4">
+      <c r="A489" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>dt1500</v>
+      </c>
+      <c r="B489" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>汽车G-20190425-全国</v>
+      </c>
+      <c r="C489" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="D489" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="490" spans="1:4">
+      <c r="A490" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>dt1501</v>
+      </c>
+      <c r="B490" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>投资理财GJ-20190425-全国</v>
+      </c>
+      <c r="C490" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="D490" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="491" spans="1:4">
+      <c r="A491" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>dt1502</v>
+      </c>
+      <c r="B491" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>k12-20190425-曹总(湖南、湖北、江西、安徽)-1天</v>
+      </c>
+      <c r="C491" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D491" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="492" spans="1:4">
+      <c r="A492" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>dt1503</v>
+      </c>
+      <c r="B492" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>保健-20190425-邢总(全国)-1天</v>
+      </c>
+      <c r="C492" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D492" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="493" spans="1:4">
+      <c r="A493" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>dt1504</v>
+      </c>
+      <c r="B493" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>贷款-20190425-先总(广东、湖南、湖北、浙江、江苏、四川、陕西)-1天</v>
+      </c>
+      <c r="C493" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D493" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="494" spans="1:4">
+      <c r="A494" s="1" t="str">
+        <f>LEFT(D494,FIND("-",D494)-1)</f>
+        <v>dt1505</v>
+      </c>
+      <c r="B494" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>交友-20190425-韩总(湖南)-1天</v>
+      </c>
+      <c r="C494" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D494" t="s">
+        <v>921</v>
       </c>
     </row>
   </sheetData>

--- a/模型统计(总).xlsx
+++ b/模型统计(总).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1367" uniqueCount="922">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1373" uniqueCount="925">
   <si>
     <t>dt431</t>
   </si>
@@ -2780,6 +2780,15 @@
   </si>
   <si>
     <t>dt1505-交友-20190425-韩总(湖南)-1天</t>
+  </si>
+  <si>
+    <t>dt1511-POS推广-20190426-优化(全国)-2天</t>
+  </si>
+  <si>
+    <t>dt1512-股票-20190426-华总(全国)-1天</t>
+  </si>
+  <si>
+    <t>dt1514-POS-20190426-通用(全国)-1天-限量50000</t>
   </si>
 </sst>
 </file>
@@ -2787,15 +2796,97 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2809,6 +2900,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -2819,14 +2932,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2847,103 +2953,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -2960,7 +2969,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2972,7 +2981,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2984,7 +3047,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2996,85 +3059,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3092,13 +3077,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3110,37 +3143,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3169,17 +3178,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3188,6 +3191,17 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -3210,20 +3224,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3242,15 +3260,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3259,10 +3268,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3271,133 +3280,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3748,15 +3757,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D494"/>
+  <dimension ref="A1:D497"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A456" workbookViewId="0">
-      <selection activeCell="D456" sqref="D$1:D$1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A469" workbookViewId="0">
+      <selection activeCell="D469" sqref="D$1:D$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
-    <col min="2" max="2" width="100.875" customWidth="1"/>
+    <col min="2" max="2" width="115.625" customWidth="1"/>
     <col min="4" max="4" width="9" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -9188,7 +9197,7 @@
     </row>
     <row r="487" spans="1:4">
       <c r="A487" s="1" t="str">
-        <f t="shared" ref="A487:A493" si="10">LEFT(D487,FIND("-",D487)-1)</f>
+        <f t="shared" ref="A487:A494" si="10">LEFT(D487,FIND("-",D487)-1)</f>
         <v>dt1498</v>
       </c>
       <c r="B487" s="1" t="str">
@@ -9300,7 +9309,7 @@
     </row>
     <row r="494" spans="1:4">
       <c r="A494" s="1" t="str">
-        <f>LEFT(D494,FIND("-",D494)-1)</f>
+        <f t="shared" si="10"/>
         <v>dt1505</v>
       </c>
       <c r="B494" s="1" t="str">
@@ -9312,6 +9321,54 @@
       </c>
       <c r="D494" t="s">
         <v>921</v>
+      </c>
+    </row>
+    <row r="495" spans="1:4">
+      <c r="A495" s="1" t="str">
+        <f>LEFT(D495,FIND("-",D495)-1)</f>
+        <v>dt1511</v>
+      </c>
+      <c r="B495" s="1" t="str">
+        <f>RIGHT(D495,LEN(D495)-FIND("-",D495))</f>
+        <v>POS推广-20190426-优化(全国)-2天</v>
+      </c>
+      <c r="C495" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D495" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="496" spans="1:4">
+      <c r="A496" s="1" t="str">
+        <f>LEFT(D496,FIND("-",D496)-1)</f>
+        <v>dt1512</v>
+      </c>
+      <c r="B496" s="1" t="str">
+        <f>RIGHT(D496,LEN(D496)-FIND("-",D496))</f>
+        <v>股票-20190426-华总(全国)-1天</v>
+      </c>
+      <c r="C496" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D496" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="497" spans="1:4">
+      <c r="A497" s="1" t="str">
+        <f>LEFT(D497,FIND("-",D497)-1)</f>
+        <v>dt1514</v>
+      </c>
+      <c r="B497" s="1" t="str">
+        <f>RIGHT(D497,LEN(D497)-FIND("-",D497))</f>
+        <v>POS-20190426-通用(全国)-1天-限量50000</v>
+      </c>
+      <c r="C497" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D497" t="s">
+        <v>924</v>
       </c>
     </row>
   </sheetData>

--- a/模型统计(总).xlsx
+++ b/模型统计(总).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1373" uniqueCount="925">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1375" uniqueCount="926">
   <si>
     <t>dt431</t>
   </si>
@@ -2789,6 +2789,9 @@
   </si>
   <si>
     <t>dt1514-POS-20190426-通用(全国)-1天-限量50000</t>
+  </si>
+  <si>
+    <t>dt1527-POS-20190428-综合重复率低(全国)-5天</t>
   </si>
 </sst>
 </file>
@@ -2811,7 +2814,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2819,7 +2830,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2832,15 +2859,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2848,7 +2868,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2861,17 +2903,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2886,45 +2919,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2940,14 +2935,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2969,7 +2972,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2981,25 +2984,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3011,19 +3014,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3035,13 +3032,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3053,19 +3044,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3077,61 +3056,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3149,7 +3104,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3163,46 +3166,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3222,15 +3190,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -3242,6 +3201,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3260,6 +3243,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3268,10 +3271,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3280,133 +3283,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3757,10 +3760,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D497"/>
+  <dimension ref="A1:D498"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A469" workbookViewId="0">
-      <selection activeCell="D469" sqref="D$1:D$1048576"/>
+      <selection activeCell="A498" sqref="A498:C498"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -9197,11 +9200,11 @@
     </row>
     <row r="487" spans="1:4">
       <c r="A487" s="1" t="str">
-        <f t="shared" ref="A487:A494" si="10">LEFT(D487,FIND("-",D487)-1)</f>
+        <f t="shared" ref="A487:A497" si="10">LEFT(D487,FIND("-",D487)-1)</f>
         <v>dt1498</v>
       </c>
       <c r="B487" s="1" t="str">
-        <f t="shared" ref="B487:B494" si="11">RIGHT(D487,LEN(D487)-FIND("-",D487))</f>
+        <f t="shared" ref="B487:B497" si="11">RIGHT(D487,LEN(D487)-FIND("-",D487))</f>
         <v>股票G-20190425-全国</v>
       </c>
       <c r="C487" s="1" t="s">
@@ -9325,11 +9328,11 @@
     </row>
     <row r="495" spans="1:4">
       <c r="A495" s="1" t="str">
-        <f>LEFT(D495,FIND("-",D495)-1)</f>
+        <f t="shared" si="10"/>
         <v>dt1511</v>
       </c>
       <c r="B495" s="1" t="str">
-        <f>RIGHT(D495,LEN(D495)-FIND("-",D495))</f>
+        <f t="shared" si="11"/>
         <v>POS推广-20190426-优化(全国)-2天</v>
       </c>
       <c r="C495" s="1" t="s">
@@ -9341,11 +9344,11 @@
     </row>
     <row r="496" spans="1:4">
       <c r="A496" s="1" t="str">
-        <f>LEFT(D496,FIND("-",D496)-1)</f>
+        <f t="shared" si="10"/>
         <v>dt1512</v>
       </c>
       <c r="B496" s="1" t="str">
-        <f>RIGHT(D496,LEN(D496)-FIND("-",D496))</f>
+        <f t="shared" si="11"/>
         <v>股票-20190426-华总(全国)-1天</v>
       </c>
       <c r="C496" s="1" t="s">
@@ -9357,11 +9360,11 @@
     </row>
     <row r="497" spans="1:4">
       <c r="A497" s="1" t="str">
-        <f>LEFT(D497,FIND("-",D497)-1)</f>
+        <f t="shared" si="10"/>
         <v>dt1514</v>
       </c>
       <c r="B497" s="1" t="str">
-        <f>RIGHT(D497,LEN(D497)-FIND("-",D497))</f>
+        <f t="shared" si="11"/>
         <v>POS-20190426-通用(全国)-1天-限量50000</v>
       </c>
       <c r="C497" s="1" t="s">
@@ -9369,6 +9372,22 @@
       </c>
       <c r="D497" t="s">
         <v>924</v>
+      </c>
+    </row>
+    <row r="498" spans="1:4">
+      <c r="A498" s="1" t="str">
+        <f>LEFT(D498,FIND("-",D498)-1)</f>
+        <v>dt1527</v>
+      </c>
+      <c r="B498" s="1" t="str">
+        <f>RIGHT(D498,LEN(D498)-FIND("-",D498))</f>
+        <v>POS-20190428-综合重复率低(全国)-5天</v>
+      </c>
+      <c r="C498" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D498" t="s">
+        <v>925</v>
       </c>
     </row>
   </sheetData>

--- a/模型统计(总).xlsx
+++ b/模型统计(总).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1375" uniqueCount="926">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1381" uniqueCount="929">
   <si>
     <t>dt431</t>
   </si>
@@ -2792,6 +2792,15 @@
   </si>
   <si>
     <t>dt1527-POS-20190428-综合重复率低(全国)-5天</t>
+  </si>
+  <si>
+    <t>dt1531-成人教育-20190429-武总(河南)-5天</t>
+  </si>
+  <si>
+    <t>dt1532-股票-20190429-霸总(全国)-1天</t>
+  </si>
+  <si>
+    <t>dt1533-消防-20190429-曹总(全国)-1天</t>
   </si>
 </sst>
 </file>
@@ -2799,10 +2808,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -2814,7 +2823,98 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2822,7 +2922,14 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2853,107 +2960,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2972,7 +2981,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2984,7 +3017,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3002,43 +3047,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3050,13 +3077,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3074,7 +3107,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3086,19 +3131,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3110,25 +3143,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3140,19 +3155,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3166,11 +3175,61 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3209,56 +3268,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
@@ -3271,10 +3280,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3283,133 +3292,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3760,10 +3769,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D498"/>
+  <dimension ref="A1:D501"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A469" workbookViewId="0">
-      <selection activeCell="A498" sqref="A498:C498"/>
+    <sheetView tabSelected="1" topLeftCell="A472" workbookViewId="0">
+      <selection activeCell="D472" sqref="D$1:D$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -9200,11 +9209,11 @@
     </row>
     <row r="487" spans="1:4">
       <c r="A487" s="1" t="str">
-        <f t="shared" ref="A487:A497" si="10">LEFT(D487,FIND("-",D487)-1)</f>
+        <f t="shared" ref="A487:A498" si="10">LEFT(D487,FIND("-",D487)-1)</f>
         <v>dt1498</v>
       </c>
       <c r="B487" s="1" t="str">
-        <f t="shared" ref="B487:B497" si="11">RIGHT(D487,LEN(D487)-FIND("-",D487))</f>
+        <f t="shared" ref="B487:B498" si="11">RIGHT(D487,LEN(D487)-FIND("-",D487))</f>
         <v>股票G-20190425-全国</v>
       </c>
       <c r="C487" s="1" t="s">
@@ -9376,11 +9385,11 @@
     </row>
     <row r="498" spans="1:4">
       <c r="A498" s="1" t="str">
-        <f>LEFT(D498,FIND("-",D498)-1)</f>
+        <f t="shared" si="10"/>
         <v>dt1527</v>
       </c>
       <c r="B498" s="1" t="str">
-        <f>RIGHT(D498,LEN(D498)-FIND("-",D498))</f>
+        <f t="shared" si="11"/>
         <v>POS-20190428-综合重复率低(全国)-5天</v>
       </c>
       <c r="C498" s="1" t="s">
@@ -9388,6 +9397,54 @@
       </c>
       <c r="D498" t="s">
         <v>925</v>
+      </c>
+    </row>
+    <row r="499" spans="1:4">
+      <c r="A499" s="1" t="str">
+        <f>LEFT(D499,FIND("-",D499)-1)</f>
+        <v>dt1531</v>
+      </c>
+      <c r="B499" s="1" t="str">
+        <f>RIGHT(D499,LEN(D499)-FIND("-",D499))</f>
+        <v>成人教育-20190429-武总(河南)-5天</v>
+      </c>
+      <c r="C499" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D499" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="500" spans="1:4">
+      <c r="A500" s="1" t="str">
+        <f>LEFT(D500,FIND("-",D500)-1)</f>
+        <v>dt1532</v>
+      </c>
+      <c r="B500" s="1" t="str">
+        <f>RIGHT(D500,LEN(D500)-FIND("-",D500))</f>
+        <v>股票-20190429-霸总(全国)-1天</v>
+      </c>
+      <c r="C500" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D500" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="501" spans="1:4">
+      <c r="A501" s="1" t="str">
+        <f>LEFT(D501,FIND("-",D501)-1)</f>
+        <v>dt1533</v>
+      </c>
+      <c r="B501" s="1" t="str">
+        <f>RIGHT(D501,LEN(D501)-FIND("-",D501))</f>
+        <v>消防-20190429-曹总(全国)-1天</v>
+      </c>
+      <c r="C501" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D501" t="s">
+        <v>928</v>
       </c>
     </row>
   </sheetData>

--- a/模型统计(总).xlsx
+++ b/模型统计(总).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1381" uniqueCount="929">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1387" uniqueCount="932">
   <si>
     <t>dt431</t>
   </si>
@@ -2801,6 +2801,15 @@
   </si>
   <si>
     <t>dt1533-消防-20190429-曹总(全国)-1天</t>
+  </si>
+  <si>
+    <t>dt1541-投资理财BG-全国-1天-2w</t>
+  </si>
+  <si>
+    <t>dt1542-消防-20190430-新总(全国)-1天</t>
+  </si>
+  <si>
+    <t>dt1543-信用卡-20190430-先总(广东、江西、湖南)-1天</t>
   </si>
 </sst>
 </file>
@@ -2808,97 +2817,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2914,14 +2841,6 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -2929,7 +2848,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2943,9 +2892,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2959,8 +2907,69 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2981,7 +2990,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2993,55 +3050,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3054,42 +3069,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3113,37 +3092,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3161,7 +3128,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3172,6 +3181,26 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -3192,29 +3221,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3249,26 +3273,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3280,10 +3289,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3292,133 +3301,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3769,7 +3778,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D501"/>
+  <dimension ref="A1:D504"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A472" workbookViewId="0">
       <selection activeCell="D472" sqref="D$1:D$1048576"/>
@@ -9209,11 +9218,11 @@
     </row>
     <row r="487" spans="1:4">
       <c r="A487" s="1" t="str">
-        <f t="shared" ref="A487:A498" si="10">LEFT(D487,FIND("-",D487)-1)</f>
+        <f t="shared" ref="A487:A501" si="10">LEFT(D487,FIND("-",D487)-1)</f>
         <v>dt1498</v>
       </c>
       <c r="B487" s="1" t="str">
-        <f t="shared" ref="B487:B498" si="11">RIGHT(D487,LEN(D487)-FIND("-",D487))</f>
+        <f t="shared" ref="B487:B501" si="11">RIGHT(D487,LEN(D487)-FIND("-",D487))</f>
         <v>股票G-20190425-全国</v>
       </c>
       <c r="C487" s="1" t="s">
@@ -9401,11 +9410,11 @@
     </row>
     <row r="499" spans="1:4">
       <c r="A499" s="1" t="str">
-        <f>LEFT(D499,FIND("-",D499)-1)</f>
+        <f t="shared" si="10"/>
         <v>dt1531</v>
       </c>
       <c r="B499" s="1" t="str">
-        <f>RIGHT(D499,LEN(D499)-FIND("-",D499))</f>
+        <f t="shared" si="11"/>
         <v>成人教育-20190429-武总(河南)-5天</v>
       </c>
       <c r="C499" s="1" t="s">
@@ -9417,11 +9426,11 @@
     </row>
     <row r="500" spans="1:4">
       <c r="A500" s="1" t="str">
-        <f>LEFT(D500,FIND("-",D500)-1)</f>
+        <f t="shared" si="10"/>
         <v>dt1532</v>
       </c>
       <c r="B500" s="1" t="str">
-        <f>RIGHT(D500,LEN(D500)-FIND("-",D500))</f>
+        <f t="shared" si="11"/>
         <v>股票-20190429-霸总(全国)-1天</v>
       </c>
       <c r="C500" s="1" t="s">
@@ -9433,11 +9442,11 @@
     </row>
     <row r="501" spans="1:4">
       <c r="A501" s="1" t="str">
-        <f>LEFT(D501,FIND("-",D501)-1)</f>
+        <f t="shared" si="10"/>
         <v>dt1533</v>
       </c>
       <c r="B501" s="1" t="str">
-        <f>RIGHT(D501,LEN(D501)-FIND("-",D501))</f>
+        <f t="shared" si="11"/>
         <v>消防-20190429-曹总(全国)-1天</v>
       </c>
       <c r="C501" s="1" t="s">
@@ -9445,6 +9454,54 @@
       </c>
       <c r="D501" t="s">
         <v>928</v>
+      </c>
+    </row>
+    <row r="502" spans="1:4">
+      <c r="A502" s="1" t="str">
+        <f>LEFT(D502,FIND("-",D502)-1)</f>
+        <v>dt1541</v>
+      </c>
+      <c r="B502" s="1" t="str">
+        <f>RIGHT(D502,LEN(D502)-FIND("-",D502))</f>
+        <v>投资理财BG-全国-1天-2w</v>
+      </c>
+      <c r="C502" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="D502" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="503" spans="1:4">
+      <c r="A503" s="1" t="str">
+        <f>LEFT(D503,FIND("-",D503)-1)</f>
+        <v>dt1542</v>
+      </c>
+      <c r="B503" s="1" t="str">
+        <f>RIGHT(D503,LEN(D503)-FIND("-",D503))</f>
+        <v>消防-20190430-新总(全国)-1天</v>
+      </c>
+      <c r="C503" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D503" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="504" spans="1:4">
+      <c r="A504" s="1" t="str">
+        <f>LEFT(D504,FIND("-",D504)-1)</f>
+        <v>dt1543</v>
+      </c>
+      <c r="B504" s="1" t="str">
+        <f>RIGHT(D504,LEN(D504)-FIND("-",D504))</f>
+        <v>信用卡-20190430-先总(广东、江西、湖南)-1天</v>
+      </c>
+      <c r="C504" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D504" t="s">
+        <v>931</v>
       </c>
     </row>
   </sheetData>

--- a/模型统计(总).xlsx
+++ b/模型统计(总).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1387" uniqueCount="932">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1391" uniqueCount="934">
   <si>
     <t>dt431</t>
   </si>
@@ -2810,6 +2810,12 @@
   </si>
   <si>
     <t>dt1543-信用卡-20190430-先总(广东、江西、湖南)-1天</t>
+  </si>
+  <si>
+    <t>dt1555-汽车G-20190505-全国</t>
+  </si>
+  <si>
+    <t>dt1556-股票G-20190505-广东，湖南-5000</t>
   </si>
 </sst>
 </file>
@@ -2817,9 +2823,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -2831,17 +2837,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2854,8 +2851,61 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2869,8 +2919,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2886,52 +2945,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2954,22 +2968,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2990,7 +2996,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3002,103 +3152,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3110,67 +3170,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3193,13 +3199,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3221,9 +3231,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3239,21 +3251,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3276,6 +3273,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -3289,10 +3295,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3301,137 +3307,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3457,6 +3463,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3778,10 +3787,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D504"/>
+  <dimension ref="A1:D506"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A472" workbookViewId="0">
-      <selection activeCell="D472" sqref="D$1:D$1048576"/>
+      <selection activeCell="A505" sqref="A505:C506"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -9218,11 +9227,11 @@
     </row>
     <row r="487" spans="1:4">
       <c r="A487" s="1" t="str">
-        <f t="shared" ref="A487:A501" si="10">LEFT(D487,FIND("-",D487)-1)</f>
+        <f t="shared" ref="A487:A504" si="10">LEFT(D487,FIND("-",D487)-1)</f>
         <v>dt1498</v>
       </c>
       <c r="B487" s="1" t="str">
-        <f t="shared" ref="B487:B501" si="11">RIGHT(D487,LEN(D487)-FIND("-",D487))</f>
+        <f t="shared" ref="B487:B504" si="11">RIGHT(D487,LEN(D487)-FIND("-",D487))</f>
         <v>股票G-20190425-全国</v>
       </c>
       <c r="C487" s="1" t="s">
@@ -9458,11 +9467,11 @@
     </row>
     <row r="502" spans="1:4">
       <c r="A502" s="1" t="str">
-        <f>LEFT(D502,FIND("-",D502)-1)</f>
+        <f t="shared" si="10"/>
         <v>dt1541</v>
       </c>
       <c r="B502" s="1" t="str">
-        <f>RIGHT(D502,LEN(D502)-FIND("-",D502))</f>
+        <f t="shared" si="11"/>
         <v>投资理财BG-全国-1天-2w</v>
       </c>
       <c r="C502" s="1" t="s">
@@ -9474,11 +9483,11 @@
     </row>
     <row r="503" spans="1:4">
       <c r="A503" s="1" t="str">
-        <f>LEFT(D503,FIND("-",D503)-1)</f>
+        <f t="shared" si="10"/>
         <v>dt1542</v>
       </c>
       <c r="B503" s="1" t="str">
-        <f>RIGHT(D503,LEN(D503)-FIND("-",D503))</f>
+        <f t="shared" si="11"/>
         <v>消防-20190430-新总(全国)-1天</v>
       </c>
       <c r="C503" s="1" t="s">
@@ -9490,11 +9499,11 @@
     </row>
     <row r="504" spans="1:4">
       <c r="A504" s="1" t="str">
-        <f>LEFT(D504,FIND("-",D504)-1)</f>
+        <f t="shared" si="10"/>
         <v>dt1543</v>
       </c>
       <c r="B504" s="1" t="str">
-        <f>RIGHT(D504,LEN(D504)-FIND("-",D504))</f>
+        <f t="shared" si="11"/>
         <v>信用卡-20190430-先总(广东、江西、湖南)-1天</v>
       </c>
       <c r="C504" s="1" t="s">
@@ -9502,6 +9511,38 @@
       </c>
       <c r="D504" t="s">
         <v>931</v>
+      </c>
+    </row>
+    <row r="505" spans="1:4">
+      <c r="A505" s="1" t="str">
+        <f>LEFT(D505,FIND("-",D505)-1)</f>
+        <v>dt1555</v>
+      </c>
+      <c r="B505" s="1" t="str">
+        <f>RIGHT(D505,LEN(D505)-FIND("-",D505))</f>
+        <v>汽车G-20190505-全国</v>
+      </c>
+      <c r="C505" s="9" t="s">
+        <v>396</v>
+      </c>
+      <c r="D505" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="506" spans="1:4">
+      <c r="A506" s="1" t="str">
+        <f>LEFT(D506,FIND("-",D506)-1)</f>
+        <v>dt1556</v>
+      </c>
+      <c r="B506" s="1" t="str">
+        <f>RIGHT(D506,LEN(D506)-FIND("-",D506))</f>
+        <v>股票G-20190505-广东，湖南-5000</v>
+      </c>
+      <c r="C506" s="9" t="s">
+        <v>396</v>
+      </c>
+      <c r="D506" t="s">
+        <v>933</v>
       </c>
     </row>
   </sheetData>

--- a/模型统计(总).xlsx
+++ b/模型统计(总).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1391" uniqueCount="934">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1405" uniqueCount="941">
   <si>
     <t>dt431</t>
   </si>
@@ -2816,6 +2816,27 @@
   </si>
   <si>
     <t>dt1556-股票G-20190505-广东，湖南-5000</t>
+  </si>
+  <si>
+    <t>dt1565-投资理财GJ-20190506-全国-1W</t>
+  </si>
+  <si>
+    <t>dt1566-POS招商-20190506-拓总(全国)-1天</t>
+  </si>
+  <si>
+    <t>dt1567-成人教育-20190506-深总(湖南、湖北、浙江、广东、贵州)-2天</t>
+  </si>
+  <si>
+    <t>dt1568-股票-20190506-华总(江苏省,浙江省,福建省)-1天</t>
+  </si>
+  <si>
+    <t>dt1569-现金贷-20190506-曹总(浙江省)-1天</t>
+  </si>
+  <si>
+    <t>dt1570-信用卡-20190506-晟总(全国)-1天</t>
+  </si>
+  <si>
+    <t>dt1571-养生理疗-20190506-邢总(全国)-3天</t>
   </si>
 </sst>
 </file>
@@ -2823,8 +2844,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -2845,47 +2866,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2905,7 +2888,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2919,6 +2909,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -2927,9 +2948,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2938,6 +2958,22 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2954,21 +2990,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3002,13 +3023,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3026,13 +3077,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3044,7 +3089,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3056,73 +3149,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3140,43 +3185,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3199,6 +3220,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -3214,6 +3246,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -3225,17 +3266,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3273,15 +3303,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -3295,10 +3316,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3307,16 +3328,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3325,119 +3346,119 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3463,9 +3484,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3787,10 +3805,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D506"/>
+  <dimension ref="A1:D513"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A472" workbookViewId="0">
-      <selection activeCell="A505" sqref="A505:C506"/>
+    <sheetView tabSelected="1" topLeftCell="A478" workbookViewId="0">
+      <selection activeCell="G492" sqref="G492"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -9227,11 +9245,11 @@
     </row>
     <row r="487" spans="1:4">
       <c r="A487" s="1" t="str">
-        <f t="shared" ref="A487:A504" si="10">LEFT(D487,FIND("-",D487)-1)</f>
+        <f t="shared" ref="A487:A506" si="10">LEFT(D487,FIND("-",D487)-1)</f>
         <v>dt1498</v>
       </c>
       <c r="B487" s="1" t="str">
-        <f t="shared" ref="B487:B504" si="11">RIGHT(D487,LEN(D487)-FIND("-",D487))</f>
+        <f t="shared" ref="B487:B506" si="11">RIGHT(D487,LEN(D487)-FIND("-",D487))</f>
         <v>股票G-20190425-全国</v>
       </c>
       <c r="C487" s="1" t="s">
@@ -9515,14 +9533,14 @@
     </row>
     <row r="505" spans="1:4">
       <c r="A505" s="1" t="str">
-        <f>LEFT(D505,FIND("-",D505)-1)</f>
+        <f t="shared" si="10"/>
         <v>dt1555</v>
       </c>
       <c r="B505" s="1" t="str">
-        <f>RIGHT(D505,LEN(D505)-FIND("-",D505))</f>
+        <f t="shared" si="11"/>
         <v>汽车G-20190505-全国</v>
       </c>
-      <c r="C505" s="9" t="s">
+      <c r="C505" s="1" t="s">
         <v>396</v>
       </c>
       <c r="D505" t="s">
@@ -9531,18 +9549,130 @@
     </row>
     <row r="506" spans="1:4">
       <c r="A506" s="1" t="str">
-        <f>LEFT(D506,FIND("-",D506)-1)</f>
+        <f t="shared" si="10"/>
         <v>dt1556</v>
       </c>
       <c r="B506" s="1" t="str">
-        <f>RIGHT(D506,LEN(D506)-FIND("-",D506))</f>
+        <f t="shared" si="11"/>
         <v>股票G-20190505-广东，湖南-5000</v>
       </c>
-      <c r="C506" s="9" t="s">
+      <c r="C506" s="1" t="s">
         <v>396</v>
       </c>
       <c r="D506" t="s">
         <v>933</v>
+      </c>
+    </row>
+    <row r="507" spans="1:4">
+      <c r="A507" s="1" t="str">
+        <f t="shared" ref="A507:A513" si="12">LEFT(D507,FIND("-",D507)-1)</f>
+        <v>dt1565</v>
+      </c>
+      <c r="B507" s="1" t="str">
+        <f t="shared" ref="B507:B513" si="13">RIGHT(D507,LEN(D507)-FIND("-",D507))</f>
+        <v>投资理财GJ-20190506-全国-1W</v>
+      </c>
+      <c r="C507" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="D507" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="508" spans="1:4">
+      <c r="A508" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>dt1566</v>
+      </c>
+      <c r="B508" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>POS招商-20190506-拓总(全国)-1天</v>
+      </c>
+      <c r="C508" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D508" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="509" spans="1:4">
+      <c r="A509" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>dt1567</v>
+      </c>
+      <c r="B509" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>成人教育-20190506-深总(湖南、湖北、浙江、广东、贵州)-2天</v>
+      </c>
+      <c r="C509" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D509" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="510" spans="1:4">
+      <c r="A510" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>dt1568</v>
+      </c>
+      <c r="B510" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>股票-20190506-华总(江苏省,浙江省,福建省)-1天</v>
+      </c>
+      <c r="C510" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D510" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="511" spans="1:4">
+      <c r="A511" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>dt1569</v>
+      </c>
+      <c r="B511" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>现金贷-20190506-曹总(浙江省)-1天</v>
+      </c>
+      <c r="C511" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D511" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="512" spans="1:4">
+      <c r="A512" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>dt1570</v>
+      </c>
+      <c r="B512" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>信用卡-20190506-晟总(全国)-1天</v>
+      </c>
+      <c r="C512" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D512" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="513" spans="1:4">
+      <c r="A513" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>dt1571</v>
+      </c>
+      <c r="B513" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>养生理疗-20190506-邢总(全国)-3天</v>
+      </c>
+      <c r="C513" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D513" t="s">
+        <v>940</v>
       </c>
     </row>
   </sheetData>

--- a/模型统计(总).xlsx
+++ b/模型统计(总).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1405" uniqueCount="941">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1413" uniqueCount="945">
   <si>
     <t>dt431</t>
   </si>
@@ -2837,6 +2837,18 @@
   </si>
   <si>
     <t>dt1571-养生理疗-20190506-邢总(全国)-3天</t>
+  </si>
+  <si>
+    <t>dt1579-保健-20190507-邢总(全国)-1天</t>
+  </si>
+  <si>
+    <t>dt1580-电商-20190507-综合(全国)-1天</t>
+  </si>
+  <si>
+    <t>dt1583-借贷-20190507-王总(浙江、福建)-1天</t>
+  </si>
+  <si>
+    <t>dt1584-汽车-20190507-邢总(陕西、青海)-2天</t>
   </si>
 </sst>
 </file>
@@ -2844,10 +2856,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -2858,8 +2870,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2867,6 +2880,21 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2881,7 +2909,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2894,31 +2929,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2940,26 +2953,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2971,9 +2969,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2989,6 +2986,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -2997,6 +3002,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3017,7 +3029,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3029,13 +3053,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3047,31 +3089,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3083,13 +3107,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3101,19 +3185,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3125,79 +3209,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3208,6 +3220,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -3231,6 +3258,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -3242,30 +3278,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3316,10 +3328,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3328,133 +3340,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3805,10 +3817,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D513"/>
+  <dimension ref="A1:D517"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A478" workbookViewId="0">
-      <selection activeCell="G492" sqref="G492"/>
+      <selection activeCell="A514" sqref="A514:C517"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -9675,6 +9687,70 @@
         <v>940</v>
       </c>
     </row>
+    <row r="514" spans="1:4">
+      <c r="A514" s="1" t="str">
+        <f>LEFT(D514,FIND("-",D514)-1)</f>
+        <v>dt1579</v>
+      </c>
+      <c r="B514" s="1" t="str">
+        <f>RIGHT(D514,LEN(D514)-FIND("-",D514))</f>
+        <v>保健-20190507-邢总(全国)-1天</v>
+      </c>
+      <c r="C514" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D514" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="515" spans="1:4">
+      <c r="A515" s="1" t="str">
+        <f>LEFT(D515,FIND("-",D515)-1)</f>
+        <v>dt1580</v>
+      </c>
+      <c r="B515" s="1" t="str">
+        <f>RIGHT(D515,LEN(D515)-FIND("-",D515))</f>
+        <v>电商-20190507-综合(全国)-1天</v>
+      </c>
+      <c r="C515" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D515" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="516" spans="1:4">
+      <c r="A516" s="1" t="str">
+        <f>LEFT(D516,FIND("-",D516)-1)</f>
+        <v>dt1583</v>
+      </c>
+      <c r="B516" s="1" t="str">
+        <f>RIGHT(D516,LEN(D516)-FIND("-",D516))</f>
+        <v>借贷-20190507-王总(浙江、福建)-1天</v>
+      </c>
+      <c r="C516" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D516" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="517" spans="1:4">
+      <c r="A517" s="1" t="str">
+        <f>LEFT(D517,FIND("-",D517)-1)</f>
+        <v>dt1584</v>
+      </c>
+      <c r="B517" s="1" t="str">
+        <f>RIGHT(D517,LEN(D517)-FIND("-",D517))</f>
+        <v>汽车-20190507-邢总(陕西、青海)-2天</v>
+      </c>
+      <c r="C517" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D517" t="s">
+        <v>944</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/模型统计(总).xlsx
+++ b/模型统计(总).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1413" uniqueCount="945">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1427" uniqueCount="952">
   <si>
     <t>dt431</t>
   </si>
@@ -2849,6 +2849,27 @@
   </si>
   <si>
     <t>dt1584-汽车-20190507-邢总(陕西、青海)-2天</t>
+  </si>
+  <si>
+    <t>dt1598-车型-20190508-全国-1天</t>
+  </si>
+  <si>
+    <t>dt1599-车型GQ-20190508-全国-1天</t>
+  </si>
+  <si>
+    <t>dt1604-车型-20190508-全国-1天</t>
+  </si>
+  <si>
+    <t>dt1600-POS-20190508-张总(全国)-5天</t>
+  </si>
+  <si>
+    <t>dt1601-奶茶加盟-20190508-艾总(全国)-3天</t>
+  </si>
+  <si>
+    <t>dt1602-现金贷-20190508-曹总(浙江)-1天</t>
+  </si>
+  <si>
+    <t>dt1603-装修-20190508-邢总(四川)-5天</t>
   </si>
 </sst>
 </file>
@@ -2857,9 +2878,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -2870,60 +2891,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2939,14 +2908,58 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2961,21 +2974,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -2984,11 +2982,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3000,8 +3013,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3029,13 +3050,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3047,19 +3110,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3071,79 +3170,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3155,13 +3182,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3179,7 +3200,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3191,13 +3212,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3240,15 +3261,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -3263,6 +3275,30 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3282,17 +3318,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3311,15 +3341,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3328,10 +3349,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3340,133 +3361,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3817,15 +3838,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D517"/>
+  <dimension ref="A1:D524"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A478" workbookViewId="0">
-      <selection activeCell="A514" sqref="A514:C517"/>
+    <sheetView tabSelected="1" topLeftCell="A494" workbookViewId="0">
+      <selection activeCell="H515" sqref="H515"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
-    <col min="2" max="2" width="115.625" customWidth="1"/>
+    <col min="2" max="2" width="85.625" customWidth="1"/>
     <col min="4" max="4" width="9" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -9577,11 +9598,11 @@
     </row>
     <row r="507" spans="1:4">
       <c r="A507" s="1" t="str">
-        <f t="shared" ref="A507:A513" si="12">LEFT(D507,FIND("-",D507)-1)</f>
+        <f t="shared" ref="A507:A517" si="12">LEFT(D507,FIND("-",D507)-1)</f>
         <v>dt1565</v>
       </c>
       <c r="B507" s="1" t="str">
-        <f t="shared" ref="B507:B513" si="13">RIGHT(D507,LEN(D507)-FIND("-",D507))</f>
+        <f t="shared" ref="B507:B517" si="13">RIGHT(D507,LEN(D507)-FIND("-",D507))</f>
         <v>投资理财GJ-20190506-全国-1W</v>
       </c>
       <c r="C507" s="1" t="s">
@@ -9689,11 +9710,11 @@
     </row>
     <row r="514" spans="1:4">
       <c r="A514" s="1" t="str">
-        <f>LEFT(D514,FIND("-",D514)-1)</f>
+        <f t="shared" si="12"/>
         <v>dt1579</v>
       </c>
       <c r="B514" s="1" t="str">
-        <f>RIGHT(D514,LEN(D514)-FIND("-",D514))</f>
+        <f t="shared" si="13"/>
         <v>保健-20190507-邢总(全国)-1天</v>
       </c>
       <c r="C514" s="1" t="s">
@@ -9705,11 +9726,11 @@
     </row>
     <row r="515" spans="1:4">
       <c r="A515" s="1" t="str">
-        <f>LEFT(D515,FIND("-",D515)-1)</f>
+        <f t="shared" si="12"/>
         <v>dt1580</v>
       </c>
       <c r="B515" s="1" t="str">
-        <f>RIGHT(D515,LEN(D515)-FIND("-",D515))</f>
+        <f t="shared" si="13"/>
         <v>电商-20190507-综合(全国)-1天</v>
       </c>
       <c r="C515" s="1" t="s">
@@ -9721,11 +9742,11 @@
     </row>
     <row r="516" spans="1:4">
       <c r="A516" s="1" t="str">
-        <f>LEFT(D516,FIND("-",D516)-1)</f>
+        <f t="shared" si="12"/>
         <v>dt1583</v>
       </c>
       <c r="B516" s="1" t="str">
-        <f>RIGHT(D516,LEN(D516)-FIND("-",D516))</f>
+        <f t="shared" si="13"/>
         <v>借贷-20190507-王总(浙江、福建)-1天</v>
       </c>
       <c r="C516" s="1" t="s">
@@ -9737,11 +9758,11 @@
     </row>
     <row r="517" spans="1:4">
       <c r="A517" s="1" t="str">
-        <f>LEFT(D517,FIND("-",D517)-1)</f>
+        <f t="shared" si="12"/>
         <v>dt1584</v>
       </c>
       <c r="B517" s="1" t="str">
-        <f>RIGHT(D517,LEN(D517)-FIND("-",D517))</f>
+        <f t="shared" si="13"/>
         <v>汽车-20190507-邢总(陕西、青海)-2天</v>
       </c>
       <c r="C517" s="1" t="s">
@@ -9749,6 +9770,118 @@
       </c>
       <c r="D517" t="s">
         <v>944</v>
+      </c>
+    </row>
+    <row r="518" spans="1:4">
+      <c r="A518" s="1" t="str">
+        <f>LEFT(D518,FIND("-",D518)-1)</f>
+        <v>dt1598</v>
+      </c>
+      <c r="B518" s="1" t="str">
+        <f>RIGHT(D518,LEN(D518)-FIND("-",D518))</f>
+        <v>车型-20190508-全国-1天</v>
+      </c>
+      <c r="C518" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="D518" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="519" spans="1:4">
+      <c r="A519" s="1" t="str">
+        <f>LEFT(D519,FIND("-",D519)-1)</f>
+        <v>dt1599</v>
+      </c>
+      <c r="B519" s="1" t="str">
+        <f>RIGHT(D519,LEN(D519)-FIND("-",D519))</f>
+        <v>车型GQ-20190508-全国-1天</v>
+      </c>
+      <c r="C519" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="D519" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="520" spans="1:4">
+      <c r="A520" s="1" t="str">
+        <f>LEFT(D520,FIND("-",D520)-1)</f>
+        <v>dt1604</v>
+      </c>
+      <c r="B520" s="1" t="str">
+        <f>RIGHT(D520,LEN(D520)-FIND("-",D520))</f>
+        <v>车型-20190508-全国-1天</v>
+      </c>
+      <c r="C520" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="D520" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="521" spans="1:4">
+      <c r="A521" s="1" t="str">
+        <f>LEFT(D521,FIND("-",D521)-1)</f>
+        <v>dt1600</v>
+      </c>
+      <c r="B521" s="1" t="str">
+        <f>RIGHT(D521,LEN(D521)-FIND("-",D521))</f>
+        <v>POS-20190508-张总(全国)-5天</v>
+      </c>
+      <c r="C521" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D521" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="522" spans="1:4">
+      <c r="A522" s="1" t="str">
+        <f>LEFT(D522,FIND("-",D522)-1)</f>
+        <v>dt1601</v>
+      </c>
+      <c r="B522" s="1" t="str">
+        <f>RIGHT(D522,LEN(D522)-FIND("-",D522))</f>
+        <v>奶茶加盟-20190508-艾总(全国)-3天</v>
+      </c>
+      <c r="C522" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D522" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="523" spans="1:4">
+      <c r="A523" s="1" t="str">
+        <f>LEFT(D523,FIND("-",D523)-1)</f>
+        <v>dt1602</v>
+      </c>
+      <c r="B523" s="1" t="str">
+        <f>RIGHT(D523,LEN(D523)-FIND("-",D523))</f>
+        <v>现金贷-20190508-曹总(浙江)-1天</v>
+      </c>
+      <c r="C523" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D523" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="524" spans="1:4">
+      <c r="A524" s="1" t="str">
+        <f>LEFT(D524,FIND("-",D524)-1)</f>
+        <v>dt1603</v>
+      </c>
+      <c r="B524" s="1" t="str">
+        <f>RIGHT(D524,LEN(D524)-FIND("-",D524))</f>
+        <v>装修-20190508-邢总(四川)-5天</v>
+      </c>
+      <c r="C524" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D524" t="s">
+        <v>951</v>
       </c>
     </row>
   </sheetData>

--- a/模型统计(总).xlsx
+++ b/模型统计(总).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1427" uniqueCount="952">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1429" uniqueCount="953">
   <si>
     <t>dt431</t>
   </si>
@@ -2870,6 +2870,9 @@
   </si>
   <si>
     <t>dt1603-装修-20190508-邢总(四川)-5天</t>
+  </si>
+  <si>
+    <t>dt1610-POS招商-20190509-宁总(全国)-1天</t>
   </si>
 </sst>
 </file>
@@ -2877,10 +2880,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -2891,26 +2894,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2922,14 +2910,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2944,7 +2932,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2958,11 +2960,41 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2982,26 +3014,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3013,23 +3030,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3050,7 +3053,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3062,19 +3155,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3086,13 +3215,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3104,133 +3233,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3245,6 +3248,39 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -3255,26 +3291,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3303,26 +3319,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3349,10 +3352,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3361,16 +3364,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3379,115 +3382,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3838,10 +3841,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D524"/>
+  <dimension ref="A1:D525"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A494" workbookViewId="0">
-      <selection activeCell="H515" sqref="H515"/>
+      <selection activeCell="A525" sqref="A525:C525"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -9598,11 +9601,11 @@
     </row>
     <row r="507" spans="1:4">
       <c r="A507" s="1" t="str">
-        <f t="shared" ref="A507:A517" si="12">LEFT(D507,FIND("-",D507)-1)</f>
+        <f t="shared" ref="A507:A524" si="12">LEFT(D507,FIND("-",D507)-1)</f>
         <v>dt1565</v>
       </c>
       <c r="B507" s="1" t="str">
-        <f t="shared" ref="B507:B517" si="13">RIGHT(D507,LEN(D507)-FIND("-",D507))</f>
+        <f t="shared" ref="B507:B524" si="13">RIGHT(D507,LEN(D507)-FIND("-",D507))</f>
         <v>投资理财GJ-20190506-全国-1W</v>
       </c>
       <c r="C507" s="1" t="s">
@@ -9774,11 +9777,11 @@
     </row>
     <row r="518" spans="1:4">
       <c r="A518" s="1" t="str">
-        <f>LEFT(D518,FIND("-",D518)-1)</f>
+        <f t="shared" si="12"/>
         <v>dt1598</v>
       </c>
       <c r="B518" s="1" t="str">
-        <f>RIGHT(D518,LEN(D518)-FIND("-",D518))</f>
+        <f t="shared" si="13"/>
         <v>车型-20190508-全国-1天</v>
       </c>
       <c r="C518" s="1" t="s">
@@ -9790,11 +9793,11 @@
     </row>
     <row r="519" spans="1:4">
       <c r="A519" s="1" t="str">
-        <f>LEFT(D519,FIND("-",D519)-1)</f>
+        <f t="shared" si="12"/>
         <v>dt1599</v>
       </c>
       <c r="B519" s="1" t="str">
-        <f>RIGHT(D519,LEN(D519)-FIND("-",D519))</f>
+        <f t="shared" si="13"/>
         <v>车型GQ-20190508-全国-1天</v>
       </c>
       <c r="C519" s="1" t="s">
@@ -9806,11 +9809,11 @@
     </row>
     <row r="520" spans="1:4">
       <c r="A520" s="1" t="str">
-        <f>LEFT(D520,FIND("-",D520)-1)</f>
+        <f t="shared" si="12"/>
         <v>dt1604</v>
       </c>
       <c r="B520" s="1" t="str">
-        <f>RIGHT(D520,LEN(D520)-FIND("-",D520))</f>
+        <f t="shared" si="13"/>
         <v>车型-20190508-全国-1天</v>
       </c>
       <c r="C520" s="1" t="s">
@@ -9822,11 +9825,11 @@
     </row>
     <row r="521" spans="1:4">
       <c r="A521" s="1" t="str">
-        <f>LEFT(D521,FIND("-",D521)-1)</f>
+        <f t="shared" si="12"/>
         <v>dt1600</v>
       </c>
       <c r="B521" s="1" t="str">
-        <f>RIGHT(D521,LEN(D521)-FIND("-",D521))</f>
+        <f t="shared" si="13"/>
         <v>POS-20190508-张总(全国)-5天</v>
       </c>
       <c r="C521" s="1" t="s">
@@ -9838,11 +9841,11 @@
     </row>
     <row r="522" spans="1:4">
       <c r="A522" s="1" t="str">
-        <f>LEFT(D522,FIND("-",D522)-1)</f>
+        <f t="shared" si="12"/>
         <v>dt1601</v>
       </c>
       <c r="B522" s="1" t="str">
-        <f>RIGHT(D522,LEN(D522)-FIND("-",D522))</f>
+        <f t="shared" si="13"/>
         <v>奶茶加盟-20190508-艾总(全国)-3天</v>
       </c>
       <c r="C522" s="1" t="s">
@@ -9854,11 +9857,11 @@
     </row>
     <row r="523" spans="1:4">
       <c r="A523" s="1" t="str">
-        <f>LEFT(D523,FIND("-",D523)-1)</f>
+        <f t="shared" si="12"/>
         <v>dt1602</v>
       </c>
       <c r="B523" s="1" t="str">
-        <f>RIGHT(D523,LEN(D523)-FIND("-",D523))</f>
+        <f t="shared" si="13"/>
         <v>现金贷-20190508-曹总(浙江)-1天</v>
       </c>
       <c r="C523" s="1" t="s">
@@ -9870,11 +9873,11 @@
     </row>
     <row r="524" spans="1:4">
       <c r="A524" s="1" t="str">
-        <f>LEFT(D524,FIND("-",D524)-1)</f>
+        <f t="shared" si="12"/>
         <v>dt1603</v>
       </c>
       <c r="B524" s="1" t="str">
-        <f>RIGHT(D524,LEN(D524)-FIND("-",D524))</f>
+        <f t="shared" si="13"/>
         <v>装修-20190508-邢总(四川)-5天</v>
       </c>
       <c r="C524" s="1" t="s">
@@ -9882,6 +9885,22 @@
       </c>
       <c r="D524" t="s">
         <v>951</v>
+      </c>
+    </row>
+    <row r="525" spans="1:4">
+      <c r="A525" s="1" t="str">
+        <f>LEFT(D525,FIND("-",D525)-1)</f>
+        <v>dt1610</v>
+      </c>
+      <c r="B525" s="1" t="str">
+        <f>RIGHT(D525,LEN(D525)-FIND("-",D525))</f>
+        <v>POS招商-20190509-宁总(全国)-1天</v>
+      </c>
+      <c r="C525" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D525" t="s">
+        <v>952</v>
       </c>
     </row>
   </sheetData>

--- a/模型统计(总).xlsx
+++ b/模型统计(总).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1429" uniqueCount="953">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1445" uniqueCount="961">
   <si>
     <t>dt431</t>
   </si>
@@ -2873,6 +2873,30 @@
   </si>
   <si>
     <t>dt1610-POS招商-20190509-宁总(全国)-1天</t>
+  </si>
+  <si>
+    <t>dt1619-POS机招商G-20190510-全国</t>
+  </si>
+  <si>
+    <t>dt1620-成人教育-20190510-武总(江西、湖南、湖北、安徽、河南)-2天</t>
+  </si>
+  <si>
+    <t>dt1621-代理记账-20190510-智总(山东)-3天</t>
+  </si>
+  <si>
+    <t>dt1622-股票-20190510-霸总(辽宁、黑龙江、河北)-2天</t>
+  </si>
+  <si>
+    <t>dt1623-理财-20190510-拓总(全国)-1天</t>
+  </si>
+  <si>
+    <t>dt1624-美妆-20190510-凌总(全国)-1天</t>
+  </si>
+  <si>
+    <t>dt1625-现金贷-20190510-曹总(全国)-1天</t>
+  </si>
+  <si>
+    <t>dt1626-小额贷款-20190510-帮总(上海)-3天</t>
   </si>
 </sst>
 </file>
@@ -2880,10 +2904,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -2895,29 +2919,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2931,32 +2934,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2975,16 +2965,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3006,9 +2995,36 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3017,6 +3033,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3031,10 +3055,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -3053,19 +3077,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3077,31 +3119,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3119,7 +3137,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3131,49 +3203,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3191,25 +3221,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3221,19 +3257,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3244,6 +3268,45 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -3273,54 +3336,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -3344,6 +3359,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3352,10 +3376,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3364,133 +3388,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3841,10 +3865,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D525"/>
+  <dimension ref="A1:D533"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A494" workbookViewId="0">
-      <selection activeCell="A525" sqref="A525:C525"/>
+      <selection activeCell="D494" sqref="D$1:D$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -9601,11 +9625,11 @@
     </row>
     <row r="507" spans="1:4">
       <c r="A507" s="1" t="str">
-        <f t="shared" ref="A507:A524" si="12">LEFT(D507,FIND("-",D507)-1)</f>
+        <f t="shared" ref="A507:A525" si="12">LEFT(D507,FIND("-",D507)-1)</f>
         <v>dt1565</v>
       </c>
       <c r="B507" s="1" t="str">
-        <f t="shared" ref="B507:B524" si="13">RIGHT(D507,LEN(D507)-FIND("-",D507))</f>
+        <f t="shared" ref="B507:B525" si="13">RIGHT(D507,LEN(D507)-FIND("-",D507))</f>
         <v>投资理财GJ-20190506-全国-1W</v>
       </c>
       <c r="C507" s="1" t="s">
@@ -9889,11 +9913,11 @@
     </row>
     <row r="525" spans="1:4">
       <c r="A525" s="1" t="str">
-        <f>LEFT(D525,FIND("-",D525)-1)</f>
+        <f t="shared" si="12"/>
         <v>dt1610</v>
       </c>
       <c r="B525" s="1" t="str">
-        <f>RIGHT(D525,LEN(D525)-FIND("-",D525))</f>
+        <f t="shared" si="13"/>
         <v>POS招商-20190509-宁总(全国)-1天</v>
       </c>
       <c r="C525" s="1" t="s">
@@ -9901,6 +9925,134 @@
       </c>
       <c r="D525" t="s">
         <v>952</v>
+      </c>
+    </row>
+    <row r="526" spans="1:4">
+      <c r="A526" s="1" t="str">
+        <f t="shared" ref="A526:A533" si="14">LEFT(D526,FIND("-",D526)-1)</f>
+        <v>dt1619</v>
+      </c>
+      <c r="B526" s="1" t="str">
+        <f t="shared" ref="B526:B533" si="15">RIGHT(D526,LEN(D526)-FIND("-",D526))</f>
+        <v>POS机招商G-20190510-全国</v>
+      </c>
+      <c r="C526" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="D526" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="527" spans="1:4">
+      <c r="A527" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v>dt1620</v>
+      </c>
+      <c r="B527" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v>成人教育-20190510-武总(江西、湖南、湖北、安徽、河南)-2天</v>
+      </c>
+      <c r="C527" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D527" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="528" spans="1:4">
+      <c r="A528" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v>dt1621</v>
+      </c>
+      <c r="B528" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v>代理记账-20190510-智总(山东)-3天</v>
+      </c>
+      <c r="C528" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D528" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="529" spans="1:4">
+      <c r="A529" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v>dt1622</v>
+      </c>
+      <c r="B529" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v>股票-20190510-霸总(辽宁、黑龙江、河北)-2天</v>
+      </c>
+      <c r="C529" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D529" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="530" spans="1:4">
+      <c r="A530" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v>dt1623</v>
+      </c>
+      <c r="B530" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v>理财-20190510-拓总(全国)-1天</v>
+      </c>
+      <c r="C530" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D530" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="531" spans="1:4">
+      <c r="A531" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v>dt1624</v>
+      </c>
+      <c r="B531" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v>美妆-20190510-凌总(全国)-1天</v>
+      </c>
+      <c r="C531" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D531" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="532" spans="1:4">
+      <c r="A532" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v>dt1625</v>
+      </c>
+      <c r="B532" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v>现金贷-20190510-曹总(全国)-1天</v>
+      </c>
+      <c r="C532" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D532" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="533" spans="1:4">
+      <c r="A533" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v>dt1626</v>
+      </c>
+      <c r="B533" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v>小额贷款-20190510-帮总(上海)-3天</v>
+      </c>
+      <c r="C533" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D533" t="s">
+        <v>960</v>
       </c>
     </row>
   </sheetData>

--- a/模型统计(总).xlsx
+++ b/模型统计(总).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1445" uniqueCount="961">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1461" uniqueCount="969">
   <si>
     <t>dt431</t>
   </si>
@@ -2897,6 +2897,30 @@
   </si>
   <si>
     <t>dt1626-小额贷款-20190510-帮总(上海)-3天</t>
+  </si>
+  <si>
+    <t>dt1637-汽车昂科拉2018-20190513-全国-3天</t>
+  </si>
+  <si>
+    <t>dt1638-汽车比亚迪e1-20190513-全国-3天</t>
+  </si>
+  <si>
+    <t>dt1639-汽车别克-20190513-全国-3天</t>
+  </si>
+  <si>
+    <t>dt1640-汽车东风日产轩逸-20190513-全国-3天</t>
+  </si>
+  <si>
+    <t>dt1641-汽车上汽荣威i6plus-20190513-全国-3天</t>
+  </si>
+  <si>
+    <t>dt1642-汽车雪佛兰-20190513-全国-3天</t>
+  </si>
+  <si>
+    <t>dt1645-股票配资-20190513-张总(全国)-1天</t>
+  </si>
+  <si>
+    <t>dt1646-理财-20190513-拓总(全国)-1天</t>
   </si>
 </sst>
 </file>
@@ -2904,8 +2928,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -2920,7 +2944,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2936,23 +2960,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2966,6 +2974,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -2973,30 +2988,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3017,24 +3009,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3047,18 +3032,57 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -3077,6 +3101,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -3089,49 +3119,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3149,7 +3137,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3161,43 +3215,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3215,19 +3239,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3245,7 +3269,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3268,6 +3292,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -3304,6 +3352,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -3327,44 +3384,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3376,10 +3400,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3388,133 +3412,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3865,15 +3889,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D533"/>
+  <dimension ref="A1:D541"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A494" workbookViewId="0">
-      <selection activeCell="D494" sqref="D$1:D$1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A506" workbookViewId="0">
+      <selection activeCell="D506" sqref="D$1:D$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
-    <col min="2" max="2" width="85.625" customWidth="1"/>
+    <col min="2" max="2" width="189.75" customWidth="1"/>
     <col min="4" max="4" width="9" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -10055,6 +10079,134 @@
         <v>960</v>
       </c>
     </row>
+    <row r="534" spans="1:4">
+      <c r="A534" s="1" t="str">
+        <f t="shared" ref="A534:A541" si="16">LEFT(D534,FIND("-",D534)-1)</f>
+        <v>dt1637</v>
+      </c>
+      <c r="B534" s="1" t="str">
+        <f t="shared" ref="B534:B541" si="17">RIGHT(D534,LEN(D534)-FIND("-",D534))</f>
+        <v>汽车昂科拉2018-20190513-全国-3天</v>
+      </c>
+      <c r="C534" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="D534" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="535" spans="1:4">
+      <c r="A535" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v>dt1638</v>
+      </c>
+      <c r="B535" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>汽车比亚迪e1-20190513-全国-3天</v>
+      </c>
+      <c r="C535" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="D535" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="536" spans="1:4">
+      <c r="A536" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v>dt1639</v>
+      </c>
+      <c r="B536" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>汽车别克-20190513-全国-3天</v>
+      </c>
+      <c r="C536" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="D536" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="537" spans="1:4">
+      <c r="A537" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v>dt1640</v>
+      </c>
+      <c r="B537" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>汽车东风日产轩逸-20190513-全国-3天</v>
+      </c>
+      <c r="C537" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="D537" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="538" spans="1:4">
+      <c r="A538" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v>dt1641</v>
+      </c>
+      <c r="B538" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>汽车上汽荣威i6plus-20190513-全国-3天</v>
+      </c>
+      <c r="C538" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="D538" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="539" spans="1:4">
+      <c r="A539" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v>dt1642</v>
+      </c>
+      <c r="B539" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>汽车雪佛兰-20190513-全国-3天</v>
+      </c>
+      <c r="C539" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="D539" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="540" spans="1:4">
+      <c r="A540" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v>dt1645</v>
+      </c>
+      <c r="B540" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>股票配资-20190513-张总(全国)-1天</v>
+      </c>
+      <c r="C540" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D540" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="541" spans="1:4">
+      <c r="A541" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v>dt1646</v>
+      </c>
+      <c r="B541" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>理财-20190513-拓总(全国)-1天</v>
+      </c>
+      <c r="C541" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D541" t="s">
+        <v>968</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/模型统计(总).xlsx
+++ b/模型统计(总).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1461" uniqueCount="969">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1473" uniqueCount="975">
   <si>
     <t>dt431</t>
   </si>
@@ -2921,6 +2921,24 @@
   </si>
   <si>
     <t>dt1646-理财-20190513-拓总(全国)-1天</t>
+  </si>
+  <si>
+    <t>dt1652-手游1G-20190514-全国-1天（5W）</t>
+  </si>
+  <si>
+    <t>dt1653-手游2G-20190514-全国（5W）</t>
+  </si>
+  <si>
+    <t>dt1655-CMA培训-20190514-华总(全国)-3天</t>
+  </si>
+  <si>
+    <t>dt1656-股票-20190514-华总(全国)-1天</t>
+  </si>
+  <si>
+    <t>dt1657-美妆-20190514-凌总(全国)-1天</t>
+  </si>
+  <si>
+    <t>dt1658-消防考证-20190514-深总(湖南、湖北、浙江、广东、贵州、河南)-3天</t>
   </si>
 </sst>
 </file>
@@ -2929,8 +2947,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -2942,46 +2960,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2995,7 +2991,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3003,29 +2999,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3039,9 +3012,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3056,6 +3036,29 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -3064,16 +3067,31 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3101,19 +3119,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3125,67 +3161,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3203,13 +3179,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3221,13 +3209,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3239,7 +3233,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3263,13 +3257,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3295,6 +3313,54 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -3306,15 +3372,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3334,26 +3391,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3362,33 +3406,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3400,10 +3418,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3412,133 +3430,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3889,10 +3907,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D541"/>
+  <dimension ref="A1:D547"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A506" workbookViewId="0">
-      <selection activeCell="D506" sqref="D$1:D$1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A512" workbookViewId="0">
+      <selection activeCell="D512" sqref="D$1:D$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -10207,6 +10225,102 @@
         <v>968</v>
       </c>
     </row>
+    <row r="542" spans="1:4">
+      <c r="A542" s="1" t="str">
+        <f>LEFT(D542,FIND("-",D542)-1)</f>
+        <v>dt1652</v>
+      </c>
+      <c r="B542" s="1" t="str">
+        <f>RIGHT(D542,LEN(D542)-FIND("-",D542))</f>
+        <v>手游1G-20190514-全国-1天（5W）</v>
+      </c>
+      <c r="C542" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="D542" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="543" spans="1:4">
+      <c r="A543" s="1" t="str">
+        <f>LEFT(D543,FIND("-",D543)-1)</f>
+        <v>dt1653</v>
+      </c>
+      <c r="B543" s="1" t="str">
+        <f>RIGHT(D543,LEN(D543)-FIND("-",D543))</f>
+        <v>手游2G-20190514-全国（5W）</v>
+      </c>
+      <c r="C543" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="D543" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="544" spans="1:4">
+      <c r="A544" s="1" t="str">
+        <f>LEFT(D544,FIND("-",D544)-1)</f>
+        <v>dt1655</v>
+      </c>
+      <c r="B544" s="1" t="str">
+        <f>RIGHT(D544,LEN(D544)-FIND("-",D544))</f>
+        <v>CMA培训-20190514-华总(全国)-3天</v>
+      </c>
+      <c r="C544" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D544" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="545" spans="1:4">
+      <c r="A545" s="1" t="str">
+        <f>LEFT(D545,FIND("-",D545)-1)</f>
+        <v>dt1656</v>
+      </c>
+      <c r="B545" s="1" t="str">
+        <f>RIGHT(D545,LEN(D545)-FIND("-",D545))</f>
+        <v>股票-20190514-华总(全国)-1天</v>
+      </c>
+      <c r="C545" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D545" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="546" spans="1:4">
+      <c r="A546" s="1" t="str">
+        <f>LEFT(D546,FIND("-",D546)-1)</f>
+        <v>dt1657</v>
+      </c>
+      <c r="B546" s="1" t="str">
+        <f>RIGHT(D546,LEN(D546)-FIND("-",D546))</f>
+        <v>美妆-20190514-凌总(全国)-1天</v>
+      </c>
+      <c r="C546" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D546" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="547" spans="1:4">
+      <c r="A547" s="1" t="str">
+        <f>LEFT(D547,FIND("-",D547)-1)</f>
+        <v>dt1658</v>
+      </c>
+      <c r="B547" s="1" t="str">
+        <f>RIGHT(D547,LEN(D547)-FIND("-",D547))</f>
+        <v>消防考证-20190514-深总(湖南、湖北、浙江、广东、贵州、河南)-3天</v>
+      </c>
+      <c r="C547" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D547" t="s">
+        <v>974</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/模型统计(总).xlsx
+++ b/模型统计(总).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1473" uniqueCount="975">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1477" uniqueCount="977">
   <si>
     <t>dt431</t>
   </si>
@@ -2939,6 +2939,12 @@
   </si>
   <si>
     <t>dt1658-消防考证-20190514-深总(湖南、湖北、浙江、广东、贵州、河南)-3天</t>
+  </si>
+  <si>
+    <t>dt1665-抵押贷款-20190515-通用(广东省)-1天</t>
+  </si>
+  <si>
+    <t>dt1666-理财-20190515-拓总(浙江、湖南、广东)-1天</t>
   </si>
 </sst>
 </file>
@@ -2948,8 +2954,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -2960,11 +2966,64 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2983,32 +3042,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3019,9 +3065,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3037,46 +3082,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3119,31 +3125,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3161,7 +3161,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3173,7 +3191,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3185,31 +3251,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3227,24 +3269,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -3257,7 +3281,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3269,13 +3293,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3287,19 +3305,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3310,69 +3316,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -3393,11 +3336,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3410,6 +3366,56 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3418,10 +3424,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3430,133 +3436,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3907,15 +3913,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D547"/>
+  <dimension ref="A1:D549"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A512" workbookViewId="0">
-      <selection activeCell="D512" sqref="D$1:D$1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A521" workbookViewId="0">
+      <selection activeCell="D521" sqref="D$1:D$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
-    <col min="2" max="2" width="189.75" customWidth="1"/>
+    <col min="2" max="2" width="26.125" customWidth="1"/>
     <col min="4" max="4" width="9" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -10099,11 +10105,11 @@
     </row>
     <row r="534" spans="1:4">
       <c r="A534" s="1" t="str">
-        <f t="shared" ref="A534:A541" si="16">LEFT(D534,FIND("-",D534)-1)</f>
+        <f t="shared" ref="A534:A547" si="16">LEFT(D534,FIND("-",D534)-1)</f>
         <v>dt1637</v>
       </c>
       <c r="B534" s="1" t="str">
-        <f t="shared" ref="B534:B541" si="17">RIGHT(D534,LEN(D534)-FIND("-",D534))</f>
+        <f t="shared" ref="B534:B547" si="17">RIGHT(D534,LEN(D534)-FIND("-",D534))</f>
         <v>汽车昂科拉2018-20190513-全国-3天</v>
       </c>
       <c r="C534" s="1" t="s">
@@ -10227,11 +10233,11 @@
     </row>
     <row r="542" spans="1:4">
       <c r="A542" s="1" t="str">
-        <f>LEFT(D542,FIND("-",D542)-1)</f>
+        <f t="shared" si="16"/>
         <v>dt1652</v>
       </c>
       <c r="B542" s="1" t="str">
-        <f>RIGHT(D542,LEN(D542)-FIND("-",D542))</f>
+        <f t="shared" si="17"/>
         <v>手游1G-20190514-全国-1天（5W）</v>
       </c>
       <c r="C542" s="1" t="s">
@@ -10243,11 +10249,11 @@
     </row>
     <row r="543" spans="1:4">
       <c r="A543" s="1" t="str">
-        <f>LEFT(D543,FIND("-",D543)-1)</f>
+        <f t="shared" si="16"/>
         <v>dt1653</v>
       </c>
       <c r="B543" s="1" t="str">
-        <f>RIGHT(D543,LEN(D543)-FIND("-",D543))</f>
+        <f t="shared" si="17"/>
         <v>手游2G-20190514-全国（5W）</v>
       </c>
       <c r="C543" s="1" t="s">
@@ -10259,11 +10265,11 @@
     </row>
     <row r="544" spans="1:4">
       <c r="A544" s="1" t="str">
-        <f>LEFT(D544,FIND("-",D544)-1)</f>
+        <f t="shared" si="16"/>
         <v>dt1655</v>
       </c>
       <c r="B544" s="1" t="str">
-        <f>RIGHT(D544,LEN(D544)-FIND("-",D544))</f>
+        <f t="shared" si="17"/>
         <v>CMA培训-20190514-华总(全国)-3天</v>
       </c>
       <c r="C544" s="1" t="s">
@@ -10275,11 +10281,11 @@
     </row>
     <row r="545" spans="1:4">
       <c r="A545" s="1" t="str">
-        <f>LEFT(D545,FIND("-",D545)-1)</f>
+        <f t="shared" si="16"/>
         <v>dt1656</v>
       </c>
       <c r="B545" s="1" t="str">
-        <f>RIGHT(D545,LEN(D545)-FIND("-",D545))</f>
+        <f t="shared" si="17"/>
         <v>股票-20190514-华总(全国)-1天</v>
       </c>
       <c r="C545" s="1" t="s">
@@ -10291,11 +10297,11 @@
     </row>
     <row r="546" spans="1:4">
       <c r="A546" s="1" t="str">
-        <f>LEFT(D546,FIND("-",D546)-1)</f>
+        <f t="shared" si="16"/>
         <v>dt1657</v>
       </c>
       <c r="B546" s="1" t="str">
-        <f>RIGHT(D546,LEN(D546)-FIND("-",D546))</f>
+        <f t="shared" si="17"/>
         <v>美妆-20190514-凌总(全国)-1天</v>
       </c>
       <c r="C546" s="1" t="s">
@@ -10307,11 +10313,11 @@
     </row>
     <row r="547" spans="1:4">
       <c r="A547" s="1" t="str">
-        <f>LEFT(D547,FIND("-",D547)-1)</f>
+        <f t="shared" si="16"/>
         <v>dt1658</v>
       </c>
       <c r="B547" s="1" t="str">
-        <f>RIGHT(D547,LEN(D547)-FIND("-",D547))</f>
+        <f t="shared" si="17"/>
         <v>消防考证-20190514-深总(湖南、湖北、浙江、广东、贵州、河南)-3天</v>
       </c>
       <c r="C547" s="1" t="s">
@@ -10319,6 +10325,38 @@
       </c>
       <c r="D547" t="s">
         <v>974</v>
+      </c>
+    </row>
+    <row r="548" spans="1:4">
+      <c r="A548" s="1" t="str">
+        <f>LEFT(D548,FIND("-",D548)-1)</f>
+        <v>dt1665</v>
+      </c>
+      <c r="B548" s="1" t="str">
+        <f>RIGHT(D548,LEN(D548)-FIND("-",D548))</f>
+        <v>抵押贷款-20190515-通用(广东省)-1天</v>
+      </c>
+      <c r="C548" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D548" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="549" spans="1:4">
+      <c r="A549" s="1" t="str">
+        <f>LEFT(D549,FIND("-",D549)-1)</f>
+        <v>dt1666</v>
+      </c>
+      <c r="B549" s="1" t="str">
+        <f>RIGHT(D549,LEN(D549)-FIND("-",D549))</f>
+        <v>理财-20190515-拓总(浙江、湖南、广东)-1天</v>
+      </c>
+      <c r="C549" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D549" t="s">
+        <v>976</v>
       </c>
     </row>
   </sheetData>

--- a/模型统计(总).xlsx
+++ b/模型统计(总).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1477" uniqueCount="977">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1493" uniqueCount="985">
   <si>
     <t>dt431</t>
   </si>
@@ -2945,6 +2945,30 @@
   </si>
   <si>
     <t>dt1666-理财-20190515-拓总(浙江、湖南、广东)-1天</t>
+  </si>
+  <si>
+    <t>dt1681-POS-20190516-深总(全国)-3天</t>
+  </si>
+  <si>
+    <t>dt1682-POS-20190516-张总综合(全国)-7天</t>
+  </si>
+  <si>
+    <t>dt1683-汽车-20190516-邢总(陕西、青海)-1天</t>
+  </si>
+  <si>
+    <t>dt1684-消防考证-20190516-深总(贵州、云南、重庆、江苏、浙江、上海、北京、天津、河南)-4天</t>
+  </si>
+  <si>
+    <t>dt1685-信用卡-20190516-王总(全国)-2天</t>
+  </si>
+  <si>
+    <t>dt1686-招商加盟-20190516-自用(全国)-3天</t>
+  </si>
+  <si>
+    <t>dt1689-手游3G-20190514-全国-3天（2.5W）</t>
+  </si>
+  <si>
+    <t>dt1690-手游4G-20190514-全国-3天(2.5W)</t>
   </si>
 </sst>
 </file>
@@ -2952,10 +2976,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -2968,32 +2992,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3005,7 +3020,61 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3020,84 +3089,15 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3107,6 +3107,30 @@
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -3125,7 +3149,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3137,7 +3251,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3149,163 +3323,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3316,6 +3340,71 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -3343,76 +3432,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3424,10 +3448,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3436,16 +3460,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3454,115 +3478,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3913,7 +3937,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D549"/>
+  <dimension ref="A1:D557"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A521" workbookViewId="0">
       <selection activeCell="D521" sqref="D$1:D$1048576"/>
@@ -10105,11 +10129,11 @@
     </row>
     <row r="534" spans="1:4">
       <c r="A534" s="1" t="str">
-        <f t="shared" ref="A534:A547" si="16">LEFT(D534,FIND("-",D534)-1)</f>
+        <f t="shared" ref="A534:A549" si="16">LEFT(D534,FIND("-",D534)-1)</f>
         <v>dt1637</v>
       </c>
       <c r="B534" s="1" t="str">
-        <f t="shared" ref="B534:B547" si="17">RIGHT(D534,LEN(D534)-FIND("-",D534))</f>
+        <f t="shared" ref="B534:B549" si="17">RIGHT(D534,LEN(D534)-FIND("-",D534))</f>
         <v>汽车昂科拉2018-20190513-全国-3天</v>
       </c>
       <c r="C534" s="1" t="s">
@@ -10329,11 +10353,11 @@
     </row>
     <row r="548" spans="1:4">
       <c r="A548" s="1" t="str">
-        <f>LEFT(D548,FIND("-",D548)-1)</f>
+        <f t="shared" si="16"/>
         <v>dt1665</v>
       </c>
       <c r="B548" s="1" t="str">
-        <f>RIGHT(D548,LEN(D548)-FIND("-",D548))</f>
+        <f t="shared" si="17"/>
         <v>抵押贷款-20190515-通用(广东省)-1天</v>
       </c>
       <c r="C548" s="1" t="s">
@@ -10345,11 +10369,11 @@
     </row>
     <row r="549" spans="1:4">
       <c r="A549" s="1" t="str">
-        <f>LEFT(D549,FIND("-",D549)-1)</f>
+        <f t="shared" si="16"/>
         <v>dt1666</v>
       </c>
       <c r="B549" s="1" t="str">
-        <f>RIGHT(D549,LEN(D549)-FIND("-",D549))</f>
+        <f t="shared" si="17"/>
         <v>理财-20190515-拓总(浙江、湖南、广东)-1天</v>
       </c>
       <c r="C549" s="1" t="s">
@@ -10357,6 +10381,134 @@
       </c>
       <c r="D549" t="s">
         <v>976</v>
+      </c>
+    </row>
+    <row r="550" spans="1:4">
+      <c r="A550" s="1" t="str">
+        <f t="shared" ref="A550:A555" si="18">LEFT(D550,FIND("-",D550)-1)</f>
+        <v>dt1681</v>
+      </c>
+      <c r="B550" s="1" t="str">
+        <f t="shared" ref="B550:B555" si="19">RIGHT(D550,LEN(D550)-FIND("-",D550))</f>
+        <v>POS-20190516-深总(全国)-3天</v>
+      </c>
+      <c r="C550" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D550" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="551" spans="1:4">
+      <c r="A551" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v>dt1682</v>
+      </c>
+      <c r="B551" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>POS-20190516-张总综合(全国)-7天</v>
+      </c>
+      <c r="C551" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D551" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="552" spans="1:4">
+      <c r="A552" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v>dt1683</v>
+      </c>
+      <c r="B552" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>汽车-20190516-邢总(陕西、青海)-1天</v>
+      </c>
+      <c r="C552" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D552" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="553" spans="1:4">
+      <c r="A553" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v>dt1684</v>
+      </c>
+      <c r="B553" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>消防考证-20190516-深总(贵州、云南、重庆、江苏、浙江、上海、北京、天津、河南)-4天</v>
+      </c>
+      <c r="C553" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D553" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="554" spans="1:4">
+      <c r="A554" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v>dt1685</v>
+      </c>
+      <c r="B554" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>信用卡-20190516-王总(全国)-2天</v>
+      </c>
+      <c r="C554" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D554" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="555" spans="1:4">
+      <c r="A555" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v>dt1686</v>
+      </c>
+      <c r="B555" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>招商加盟-20190516-自用(全国)-3天</v>
+      </c>
+      <c r="C555" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D555" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="556" spans="1:4">
+      <c r="A556" s="1" t="str">
+        <f>LEFT(D556,FIND("-",D556)-1)</f>
+        <v>dt1689</v>
+      </c>
+      <c r="B556" s="1" t="str">
+        <f>RIGHT(D556,LEN(D556)-FIND("-",D556))</f>
+        <v>手游3G-20190514-全国-3天（2.5W）</v>
+      </c>
+      <c r="C556" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="D556" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="557" spans="1:4">
+      <c r="A557" s="1" t="str">
+        <f>LEFT(D557,FIND("-",D557)-1)</f>
+        <v>dt1690</v>
+      </c>
+      <c r="B557" s="1" t="str">
+        <f>RIGHT(D557,LEN(D557)-FIND("-",D557))</f>
+        <v>手游4G-20190514-全国-3天(2.5W)</v>
+      </c>
+      <c r="C557" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="D557" t="s">
+        <v>984</v>
       </c>
     </row>
   </sheetData>

--- a/模型统计(总).xlsx
+++ b/模型统计(总).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1493" uniqueCount="985">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1499" uniqueCount="988">
   <si>
     <t>dt431</t>
   </si>
@@ -2969,6 +2969,15 @@
   </si>
   <si>
     <t>dt1690-手游4G-20190514-全国-3天(2.5W)</t>
+  </si>
+  <si>
+    <t>dt1695-教育培训-20190517-武总(江西、湖南、湖北、安徽、河南、陕西)-3天</t>
+  </si>
+  <si>
+    <t>dt1696-无卡支付-20190517-晟总(全国)-1天</t>
+  </si>
+  <si>
+    <t>dt1697-信用卡-20190517-徐总(全国)-1天</t>
   </si>
 </sst>
 </file>
@@ -2976,10 +2985,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -2990,16 +2999,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3013,14 +3030,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3028,17 +3038,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3049,9 +3051,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3067,21 +3099,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -3097,13 +3129,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -3111,26 +3136,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -3149,19 +3158,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3179,7 +3200,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3191,13 +3254,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3209,25 +3308,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3239,97 +3332,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3343,17 +3352,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3375,26 +3393,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3404,6 +3405,21 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3425,18 +3441,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3448,10 +3457,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3460,133 +3469,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3937,15 +3946,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D557"/>
+  <dimension ref="A1:D560"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A521" workbookViewId="0">
-      <selection activeCell="D521" sqref="D$1:D$1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A518" workbookViewId="0">
+      <selection activeCell="D518" sqref="D$1:D$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
-    <col min="2" max="2" width="26.125" customWidth="1"/>
+    <col min="2" max="2" width="57.375" customWidth="1"/>
     <col min="4" max="4" width="9" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -10385,11 +10394,11 @@
     </row>
     <row r="550" spans="1:4">
       <c r="A550" s="1" t="str">
-        <f t="shared" ref="A550:A555" si="18">LEFT(D550,FIND("-",D550)-1)</f>
+        <f t="shared" ref="A550:A557" si="18">LEFT(D550,FIND("-",D550)-1)</f>
         <v>dt1681</v>
       </c>
       <c r="B550" s="1" t="str">
-        <f t="shared" ref="B550:B555" si="19">RIGHT(D550,LEN(D550)-FIND("-",D550))</f>
+        <f t="shared" ref="B550:B557" si="19">RIGHT(D550,LEN(D550)-FIND("-",D550))</f>
         <v>POS-20190516-深总(全国)-3天</v>
       </c>
       <c r="C550" s="1" t="s">
@@ -10481,11 +10490,11 @@
     </row>
     <row r="556" spans="1:4">
       <c r="A556" s="1" t="str">
-        <f>LEFT(D556,FIND("-",D556)-1)</f>
+        <f t="shared" si="18"/>
         <v>dt1689</v>
       </c>
       <c r="B556" s="1" t="str">
-        <f>RIGHT(D556,LEN(D556)-FIND("-",D556))</f>
+        <f t="shared" si="19"/>
         <v>手游3G-20190514-全国-3天（2.5W）</v>
       </c>
       <c r="C556" s="1" t="s">
@@ -10497,11 +10506,11 @@
     </row>
     <row r="557" spans="1:4">
       <c r="A557" s="1" t="str">
-        <f>LEFT(D557,FIND("-",D557)-1)</f>
+        <f t="shared" si="18"/>
         <v>dt1690</v>
       </c>
       <c r="B557" s="1" t="str">
-        <f>RIGHT(D557,LEN(D557)-FIND("-",D557))</f>
+        <f t="shared" si="19"/>
         <v>手游4G-20190514-全国-3天(2.5W)</v>
       </c>
       <c r="C557" s="1" t="s">
@@ -10509,6 +10518,54 @@
       </c>
       <c r="D557" t="s">
         <v>984</v>
+      </c>
+    </row>
+    <row r="558" spans="1:4">
+      <c r="A558" s="1" t="str">
+        <f>LEFT(D558,FIND("-",D558)-1)</f>
+        <v>dt1695</v>
+      </c>
+      <c r="B558" s="1" t="str">
+        <f>RIGHT(D558,LEN(D558)-FIND("-",D558))</f>
+        <v>教育培训-20190517-武总(江西、湖南、湖北、安徽、河南、陕西)-3天</v>
+      </c>
+      <c r="C558" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D558" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="559" spans="1:4">
+      <c r="A559" s="1" t="str">
+        <f>LEFT(D559,FIND("-",D559)-1)</f>
+        <v>dt1696</v>
+      </c>
+      <c r="B559" s="1" t="str">
+        <f>RIGHT(D559,LEN(D559)-FIND("-",D559))</f>
+        <v>无卡支付-20190517-晟总(全国)-1天</v>
+      </c>
+      <c r="C559" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D559" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="560" spans="1:4">
+      <c r="A560" s="1" t="str">
+        <f>LEFT(D560,FIND("-",D560)-1)</f>
+        <v>dt1697</v>
+      </c>
+      <c r="B560" s="1" t="str">
+        <f>RIGHT(D560,LEN(D560)-FIND("-",D560))</f>
+        <v>信用卡-20190517-徐总(全国)-1天</v>
+      </c>
+      <c r="C560" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D560" t="s">
+        <v>987</v>
       </c>
     </row>
   </sheetData>

--- a/模型统计(总).xlsx
+++ b/模型统计(总).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1499" uniqueCount="988">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1501" uniqueCount="989">
   <si>
     <t>dt431</t>
   </si>
@@ -2978,6 +2978,9 @@
   </si>
   <si>
     <t>dt1697-信用卡-20190517-徐总(全国)-1天</t>
+  </si>
+  <si>
+    <t>dt1720-抵押贷款-20190515-通用(广东省)-1天</t>
   </si>
 </sst>
 </file>
@@ -2985,10 +2988,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -3007,6 +3010,45 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -3014,9 +3056,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3036,23 +3115,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3066,78 +3138,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3164,7 +3167,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3176,31 +3203,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3218,7 +3233,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3230,25 +3287,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3260,85 +3329,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3367,15 +3370,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -3387,6 +3381,41 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3423,32 +3452,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3457,10 +3460,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3469,19 +3472,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3493,109 +3496,109 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3946,10 +3949,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D560"/>
+  <dimension ref="A1:D561"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A518" workbookViewId="0">
-      <selection activeCell="D518" sqref="D$1:D$1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A536" workbookViewId="0">
+      <selection activeCell="D536" sqref="D$1:D$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -10394,11 +10397,11 @@
     </row>
     <row r="550" spans="1:4">
       <c r="A550" s="1" t="str">
-        <f t="shared" ref="A550:A557" si="18">LEFT(D550,FIND("-",D550)-1)</f>
+        <f t="shared" ref="A550:A560" si="18">LEFT(D550,FIND("-",D550)-1)</f>
         <v>dt1681</v>
       </c>
       <c r="B550" s="1" t="str">
-        <f t="shared" ref="B550:B557" si="19">RIGHT(D550,LEN(D550)-FIND("-",D550))</f>
+        <f t="shared" ref="B550:B560" si="19">RIGHT(D550,LEN(D550)-FIND("-",D550))</f>
         <v>POS-20190516-深总(全国)-3天</v>
       </c>
       <c r="C550" s="1" t="s">
@@ -10522,11 +10525,11 @@
     </row>
     <row r="558" spans="1:4">
       <c r="A558" s="1" t="str">
-        <f>LEFT(D558,FIND("-",D558)-1)</f>
+        <f t="shared" si="18"/>
         <v>dt1695</v>
       </c>
       <c r="B558" s="1" t="str">
-        <f>RIGHT(D558,LEN(D558)-FIND("-",D558))</f>
+        <f t="shared" si="19"/>
         <v>教育培训-20190517-武总(江西、湖南、湖北、安徽、河南、陕西)-3天</v>
       </c>
       <c r="C558" s="1" t="s">
@@ -10538,11 +10541,11 @@
     </row>
     <row r="559" spans="1:4">
       <c r="A559" s="1" t="str">
-        <f>LEFT(D559,FIND("-",D559)-1)</f>
+        <f t="shared" si="18"/>
         <v>dt1696</v>
       </c>
       <c r="B559" s="1" t="str">
-        <f>RIGHT(D559,LEN(D559)-FIND("-",D559))</f>
+        <f t="shared" si="19"/>
         <v>无卡支付-20190517-晟总(全国)-1天</v>
       </c>
       <c r="C559" s="1" t="s">
@@ -10554,11 +10557,11 @@
     </row>
     <row r="560" spans="1:4">
       <c r="A560" s="1" t="str">
-        <f>LEFT(D560,FIND("-",D560)-1)</f>
+        <f t="shared" si="18"/>
         <v>dt1697</v>
       </c>
       <c r="B560" s="1" t="str">
-        <f>RIGHT(D560,LEN(D560)-FIND("-",D560))</f>
+        <f t="shared" si="19"/>
         <v>信用卡-20190517-徐总(全国)-1天</v>
       </c>
       <c r="C560" s="1" t="s">
@@ -10566,6 +10569,22 @@
       </c>
       <c r="D560" t="s">
         <v>987</v>
+      </c>
+    </row>
+    <row r="561" spans="1:4">
+      <c r="A561" s="1" t="str">
+        <f>LEFT(D561,FIND("-",D561)-1)</f>
+        <v>dt1720</v>
+      </c>
+      <c r="B561" s="1" t="str">
+        <f>RIGHT(D561,LEN(D561)-FIND("-",D561))</f>
+        <v>抵押贷款-20190515-通用(广东省)-1天</v>
+      </c>
+      <c r="C561" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D561" t="s">
+        <v>988</v>
       </c>
     </row>
   </sheetData>

--- a/模型统计(总).xlsx
+++ b/模型统计(总).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1501" uniqueCount="989">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1507" uniqueCount="992">
   <si>
     <t>dt431</t>
   </si>
@@ -2981,6 +2981,15 @@
   </si>
   <si>
     <t>dt1720-抵押贷款-20190515-通用(广东省)-1天</t>
+  </si>
+  <si>
+    <t>dt1768-餐饮加盟-20190521-曹总(全国)-2天</t>
+  </si>
+  <si>
+    <t>dt1769-房地产-20190521-曹总(重庆,四川,贵州,云南,陕西,黑龙江,吉林,广东,广西)-1天</t>
+  </si>
+  <si>
+    <t>dt1770-现金贷-20190521-曹总(浙江,上海)-1天</t>
   </si>
 </sst>
 </file>
@@ -2988,10 +2997,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -3003,7 +3012,128 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3024,127 +3154,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -3161,7 +3170,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3173,55 +3332,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3233,115 +3344,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3352,6 +3361,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -3366,6 +3399,35 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3399,59 +3461,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3460,10 +3469,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3472,133 +3481,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3949,15 +3958,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D561"/>
+  <dimension ref="A1:D564"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A536" workbookViewId="0">
-      <selection activeCell="D536" sqref="D$1:D$1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A533" workbookViewId="0">
+      <selection activeCell="D533" sqref="D$1:D$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
-    <col min="2" max="2" width="57.375" customWidth="1"/>
+    <col min="2" max="2" width="71.375" customWidth="1"/>
     <col min="4" max="4" width="9" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -10397,11 +10406,11 @@
     </row>
     <row r="550" spans="1:4">
       <c r="A550" s="1" t="str">
-        <f t="shared" ref="A550:A560" si="18">LEFT(D550,FIND("-",D550)-1)</f>
+        <f t="shared" ref="A550:A561" si="18">LEFT(D550,FIND("-",D550)-1)</f>
         <v>dt1681</v>
       </c>
       <c r="B550" s="1" t="str">
-        <f t="shared" ref="B550:B560" si="19">RIGHT(D550,LEN(D550)-FIND("-",D550))</f>
+        <f t="shared" ref="B550:B561" si="19">RIGHT(D550,LEN(D550)-FIND("-",D550))</f>
         <v>POS-20190516-深总(全国)-3天</v>
       </c>
       <c r="C550" s="1" t="s">
@@ -10573,11 +10582,11 @@
     </row>
     <row r="561" spans="1:4">
       <c r="A561" s="1" t="str">
-        <f>LEFT(D561,FIND("-",D561)-1)</f>
+        <f t="shared" si="18"/>
         <v>dt1720</v>
       </c>
       <c r="B561" s="1" t="str">
-        <f>RIGHT(D561,LEN(D561)-FIND("-",D561))</f>
+        <f t="shared" si="19"/>
         <v>抵押贷款-20190515-通用(广东省)-1天</v>
       </c>
       <c r="C561" s="1" t="s">
@@ -10585,6 +10594,54 @@
       </c>
       <c r="D561" t="s">
         <v>988</v>
+      </c>
+    </row>
+    <row r="562" spans="1:4">
+      <c r="A562" s="1" t="str">
+        <f>LEFT(D562,FIND("-",D562)-1)</f>
+        <v>dt1768</v>
+      </c>
+      <c r="B562" s="1" t="str">
+        <f>RIGHT(D562,LEN(D562)-FIND("-",D562))</f>
+        <v>餐饮加盟-20190521-曹总(全国)-2天</v>
+      </c>
+      <c r="C562" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D562" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="563" spans="1:4">
+      <c r="A563" s="1" t="str">
+        <f>LEFT(D563,FIND("-",D563)-1)</f>
+        <v>dt1769</v>
+      </c>
+      <c r="B563" s="1" t="str">
+        <f>RIGHT(D563,LEN(D563)-FIND("-",D563))</f>
+        <v>房地产-20190521-曹总(重庆,四川,贵州,云南,陕西,黑龙江,吉林,广东,广西)-1天</v>
+      </c>
+      <c r="C563" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D563" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="564" spans="1:4">
+      <c r="A564" s="1" t="str">
+        <f>LEFT(D564,FIND("-",D564)-1)</f>
+        <v>dt1770</v>
+      </c>
+      <c r="B564" s="1" t="str">
+        <f>RIGHT(D564,LEN(D564)-FIND("-",D564))</f>
+        <v>现金贷-20190521-曹总(浙江,上海)-1天</v>
+      </c>
+      <c r="C564" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D564" t="s">
+        <v>991</v>
       </c>
     </row>
   </sheetData>

--- a/模型统计(总).xlsx
+++ b/模型统计(总).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1507" uniqueCount="992">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1521" uniqueCount="999">
   <si>
     <t>dt431</t>
   </si>
@@ -2990,6 +2990,27 @@
   </si>
   <si>
     <t>dt1770-现金贷-20190521-曹总(浙江,上海)-1天</t>
+  </si>
+  <si>
+    <t>dt1793-tp视觉婚纱G-20190522-(江苏、安徽、浙江)</t>
+  </si>
+  <si>
+    <t>dt1794-保险规划师Q-20190522-全国</t>
+  </si>
+  <si>
+    <t>dt1795-k12-20190522-霸总(重庆,四川)-5天</t>
+  </si>
+  <si>
+    <t>dt1796-餐饮加盟-20190522-邢总(全国)-5天</t>
+  </si>
+  <si>
+    <t>dt1797-电工招聘-20190522-帮总(全国)-2天</t>
+  </si>
+  <si>
+    <t>dt1798-家装-20190522-邢总(陕西)-2天</t>
+  </si>
+  <si>
+    <t>dt1799-招商加盟-20190522-文总(广东,广西省)-3天</t>
   </si>
 </sst>
 </file>
@@ -2997,10 +3018,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -3008,6 +3029,52 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3019,7 +3086,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3034,10 +3101,18 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3048,18 +3123,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3079,77 +3170,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3170,19 +3191,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3194,31 +3239,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3236,84 +3305,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -3326,19 +3317,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3350,7 +3347,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3361,6 +3382,39 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -3375,15 +3429,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3403,11 +3448,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3415,8 +3466,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3431,36 +3482,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3469,10 +3490,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3481,133 +3502,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3958,15 +3979,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D564"/>
+  <dimension ref="A1:D571"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A533" workbookViewId="0">
-      <selection activeCell="D533" sqref="D$1:D$1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A532" workbookViewId="0">
+      <selection activeCell="G544" sqref="G543:G544"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
-    <col min="2" max="2" width="71.375" customWidth="1"/>
+    <col min="2" max="2" width="52.875" customWidth="1"/>
+    <col min="3" max="3" width="10.75" customWidth="1"/>
     <col min="4" max="4" width="9" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -10406,11 +10428,11 @@
     </row>
     <row r="550" spans="1:4">
       <c r="A550" s="1" t="str">
-        <f t="shared" ref="A550:A561" si="18">LEFT(D550,FIND("-",D550)-1)</f>
+        <f t="shared" ref="A550:A564" si="18">LEFT(D550,FIND("-",D550)-1)</f>
         <v>dt1681</v>
       </c>
       <c r="B550" s="1" t="str">
-        <f t="shared" ref="B550:B561" si="19">RIGHT(D550,LEN(D550)-FIND("-",D550))</f>
+        <f t="shared" ref="B550:B564" si="19">RIGHT(D550,LEN(D550)-FIND("-",D550))</f>
         <v>POS-20190516-深总(全国)-3天</v>
       </c>
       <c r="C550" s="1" t="s">
@@ -10598,11 +10620,11 @@
     </row>
     <row r="562" spans="1:4">
       <c r="A562" s="1" t="str">
-        <f>LEFT(D562,FIND("-",D562)-1)</f>
+        <f t="shared" si="18"/>
         <v>dt1768</v>
       </c>
       <c r="B562" s="1" t="str">
-        <f>RIGHT(D562,LEN(D562)-FIND("-",D562))</f>
+        <f t="shared" si="19"/>
         <v>餐饮加盟-20190521-曹总(全国)-2天</v>
       </c>
       <c r="C562" s="1" t="s">
@@ -10614,11 +10636,11 @@
     </row>
     <row r="563" spans="1:4">
       <c r="A563" s="1" t="str">
-        <f>LEFT(D563,FIND("-",D563)-1)</f>
+        <f t="shared" si="18"/>
         <v>dt1769</v>
       </c>
       <c r="B563" s="1" t="str">
-        <f>RIGHT(D563,LEN(D563)-FIND("-",D563))</f>
+        <f t="shared" si="19"/>
         <v>房地产-20190521-曹总(重庆,四川,贵州,云南,陕西,黑龙江,吉林,广东,广西)-1天</v>
       </c>
       <c r="C563" s="1" t="s">
@@ -10630,11 +10652,11 @@
     </row>
     <row r="564" spans="1:4">
       <c r="A564" s="1" t="str">
-        <f>LEFT(D564,FIND("-",D564)-1)</f>
+        <f t="shared" si="18"/>
         <v>dt1770</v>
       </c>
       <c r="B564" s="1" t="str">
-        <f>RIGHT(D564,LEN(D564)-FIND("-",D564))</f>
+        <f t="shared" si="19"/>
         <v>现金贷-20190521-曹总(浙江,上海)-1天</v>
       </c>
       <c r="C564" s="1" t="s">
@@ -10642,6 +10664,118 @@
       </c>
       <c r="D564" t="s">
         <v>991</v>
+      </c>
+    </row>
+    <row r="565" spans="1:4">
+      <c r="A565" s="1" t="str">
+        <f t="shared" ref="A565:A571" si="20">LEFT(D565,FIND("-",D565)-1)</f>
+        <v>dt1793</v>
+      </c>
+      <c r="B565" s="1" t="str">
+        <f t="shared" ref="B565:B571" si="21">RIGHT(D565,LEN(D565)-FIND("-",D565))</f>
+        <v>tp视觉婚纱G-20190522-(江苏、安徽、浙江)</v>
+      </c>
+      <c r="C565" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="D565" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="566" spans="1:4">
+      <c r="A566" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>dt1794</v>
+      </c>
+      <c r="B566" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v>保险规划师Q-20190522-全国</v>
+      </c>
+      <c r="C566" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="D566" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="567" spans="1:4">
+      <c r="A567" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>dt1795</v>
+      </c>
+      <c r="B567" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v>k12-20190522-霸总(重庆,四川)-5天</v>
+      </c>
+      <c r="C567" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D567" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="568" spans="1:4">
+      <c r="A568" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>dt1796</v>
+      </c>
+      <c r="B568" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v>餐饮加盟-20190522-邢总(全国)-5天</v>
+      </c>
+      <c r="C568" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D568" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="569" spans="1:4">
+      <c r="A569" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>dt1797</v>
+      </c>
+      <c r="B569" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v>电工招聘-20190522-帮总(全国)-2天</v>
+      </c>
+      <c r="C569" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D569" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="570" spans="1:4">
+      <c r="A570" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>dt1798</v>
+      </c>
+      <c r="B570" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v>家装-20190522-邢总(陕西)-2天</v>
+      </c>
+      <c r="C570" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D570" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="571" spans="1:4">
+      <c r="A571" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>dt1799</v>
+      </c>
+      <c r="B571" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v>招商加盟-20190522-文总(广东,广西省)-3天</v>
+      </c>
+      <c r="C571" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D571" t="s">
+        <v>998</v>
       </c>
     </row>
   </sheetData>

--- a/模型统计(总).xlsx
+++ b/模型统计(总).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1521" uniqueCount="999">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1529" uniqueCount="1003">
   <si>
     <t>dt431</t>
   </si>
@@ -3011,6 +3011,18 @@
   </si>
   <si>
     <t>dt1799-招商加盟-20190522-文总(广东,广西省)-3天</t>
+  </si>
+  <si>
+    <t>dt1802-留学-20190523-李总(全国)-3天</t>
+  </si>
+  <si>
+    <t>dt1803-消防考证-20190523-深总(广东)-4天</t>
+  </si>
+  <si>
+    <t>dt1804-信用卡代还-20190523-王总(全国)-1天</t>
+  </si>
+  <si>
+    <t>dt1805-装修-20190523-邢总(四川)-2天</t>
   </si>
 </sst>
 </file>
@@ -3018,10 +3030,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -3032,24 +3044,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3063,23 +3066,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3094,7 +3097,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3102,6 +3112,37 @@
     <font>
       <b/>
       <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -3117,7 +3158,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3126,43 +3175,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3191,7 +3203,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3203,7 +3215,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3215,25 +3245,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3245,13 +3305,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3263,25 +3341,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3293,55 +3353,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3353,25 +3377,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3382,6 +3394,24 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -3396,24 +3426,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3466,8 +3478,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3490,10 +3502,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3502,133 +3514,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3979,15 +3991,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D571"/>
+  <dimension ref="A1:D575"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A532" workbookViewId="0">
-      <selection activeCell="G544" sqref="G543:G544"/>
+    <sheetView tabSelected="1" topLeftCell="A547" workbookViewId="0">
+      <selection activeCell="D547" sqref="D$1:D$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
-    <col min="2" max="2" width="52.875" customWidth="1"/>
+    <col min="2" max="2" width="14.375" customWidth="1"/>
     <col min="3" max="3" width="10.75" customWidth="1"/>
     <col min="4" max="4" width="9" hidden="1" customWidth="1"/>
   </cols>
@@ -10778,6 +10790,70 @@
         <v>998</v>
       </c>
     </row>
+    <row r="572" spans="1:4">
+      <c r="A572" s="1" t="str">
+        <f>LEFT(D572,FIND("-",D572)-1)</f>
+        <v>dt1802</v>
+      </c>
+      <c r="B572" s="1" t="str">
+        <f>RIGHT(D572,LEN(D572)-FIND("-",D572))</f>
+        <v>留学-20190523-李总(全国)-3天</v>
+      </c>
+      <c r="C572" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D572" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="573" spans="1:4">
+      <c r="A573" s="1" t="str">
+        <f>LEFT(D573,FIND("-",D573)-1)</f>
+        <v>dt1803</v>
+      </c>
+      <c r="B573" s="1" t="str">
+        <f>RIGHT(D573,LEN(D573)-FIND("-",D573))</f>
+        <v>消防考证-20190523-深总(广东)-4天</v>
+      </c>
+      <c r="C573" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D573" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="574" spans="1:4">
+      <c r="A574" s="1" t="str">
+        <f>LEFT(D574,FIND("-",D574)-1)</f>
+        <v>dt1804</v>
+      </c>
+      <c r="B574" s="1" t="str">
+        <f>RIGHT(D574,LEN(D574)-FIND("-",D574))</f>
+        <v>信用卡代还-20190523-王总(全国)-1天</v>
+      </c>
+      <c r="C574" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D574" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="575" spans="1:4">
+      <c r="A575" s="1" t="str">
+        <f>LEFT(D575,FIND("-",D575)-1)</f>
+        <v>dt1805</v>
+      </c>
+      <c r="B575" s="1" t="str">
+        <f>RIGHT(D575,LEN(D575)-FIND("-",D575))</f>
+        <v>装修-20190523-邢总(四川)-2天</v>
+      </c>
+      <c r="C575" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D575" t="s">
+        <v>1002</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/模型统计(总).xlsx
+++ b/模型统计(总).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1529" uniqueCount="1003">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1531" uniqueCount="1005">
   <si>
     <t>dt431</t>
   </si>
@@ -2854,6 +2854,9 @@
     <t>dt1598-车型-20190508-全国-1天</t>
   </si>
   <si>
+    <t>广州（邱哥）</t>
+  </si>
+  <si>
     <t>dt1599-车型GQ-20190508-全国-1天</t>
   </si>
   <si>
@@ -3023,6 +3026,9 @@
   </si>
   <si>
     <t>dt1805-装修-20190523-邢总(四川)-2天</t>
+  </si>
+  <si>
+    <t>dt1806-保险规划师Q-20190523-广东</t>
   </si>
 </sst>
 </file>
@@ -3030,10 +3036,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -3044,30 +3050,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3082,7 +3091,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3090,6 +3121,44 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3104,22 +3173,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3127,62 +3181,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3203,7 +3209,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3215,7 +3221,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3227,25 +3329,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3257,49 +3341,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3311,79 +3377,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3400,17 +3406,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3430,17 +3442,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3460,17 +3466,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3478,19 +3480,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3502,7 +3508,7 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
@@ -3514,133 +3520,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3991,16 +3997,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D575"/>
+  <dimension ref="A1:D576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A547" workbookViewId="0">
-      <selection activeCell="D547" sqref="D$1:D$1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A505" workbookViewId="0">
+      <selection activeCell="D505" sqref="D$1:D$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="2" max="2" width="14.375" customWidth="1"/>
-    <col min="3" max="3" width="10.75" customWidth="1"/>
+    <col min="3" max="3" width="12.875" customWidth="1"/>
     <col min="4" max="4" width="9" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -9952,10 +9958,10 @@
         <v>车型GQ-20190508-全国-1天</v>
       </c>
       <c r="C519" s="1" t="s">
-        <v>396</v>
+        <v>946</v>
       </c>
       <c r="D519" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
     </row>
     <row r="520" spans="1:4">
@@ -9971,7 +9977,7 @@
         <v>396</v>
       </c>
       <c r="D520" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
     </row>
     <row r="521" spans="1:4">
@@ -9987,7 +9993,7 @@
         <v>2</v>
       </c>
       <c r="D521" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
     </row>
     <row r="522" spans="1:4">
@@ -10003,7 +10009,7 @@
         <v>2</v>
       </c>
       <c r="D522" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
     </row>
     <row r="523" spans="1:4">
@@ -10019,7 +10025,7 @@
         <v>2</v>
       </c>
       <c r="D523" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
     </row>
     <row r="524" spans="1:4">
@@ -10035,7 +10041,7 @@
         <v>2</v>
       </c>
       <c r="D524" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
     </row>
     <row r="525" spans="1:4">
@@ -10051,7 +10057,7 @@
         <v>2</v>
       </c>
       <c r="D525" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
     </row>
     <row r="526" spans="1:4">
@@ -10067,7 +10073,7 @@
         <v>396</v>
       </c>
       <c r="D526" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
     </row>
     <row r="527" spans="1:4">
@@ -10083,7 +10089,7 @@
         <v>2</v>
       </c>
       <c r="D527" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
     </row>
     <row r="528" spans="1:4">
@@ -10099,7 +10105,7 @@
         <v>2</v>
       </c>
       <c r="D528" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
     </row>
     <row r="529" spans="1:4">
@@ -10115,7 +10121,7 @@
         <v>2</v>
       </c>
       <c r="D529" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
     </row>
     <row r="530" spans="1:4">
@@ -10131,7 +10137,7 @@
         <v>2</v>
       </c>
       <c r="D530" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
     </row>
     <row r="531" spans="1:4">
@@ -10147,7 +10153,7 @@
         <v>2</v>
       </c>
       <c r="D531" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
     </row>
     <row r="532" spans="1:4">
@@ -10163,7 +10169,7 @@
         <v>2</v>
       </c>
       <c r="D532" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
     </row>
     <row r="533" spans="1:4">
@@ -10179,7 +10185,7 @@
         <v>2</v>
       </c>
       <c r="D533" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
     </row>
     <row r="534" spans="1:4">
@@ -10195,7 +10201,7 @@
         <v>396</v>
       </c>
       <c r="D534" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
     </row>
     <row r="535" spans="1:4">
@@ -10211,7 +10217,7 @@
         <v>396</v>
       </c>
       <c r="D535" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
     </row>
     <row r="536" spans="1:4">
@@ -10227,7 +10233,7 @@
         <v>396</v>
       </c>
       <c r="D536" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
     </row>
     <row r="537" spans="1:4">
@@ -10243,7 +10249,7 @@
         <v>396</v>
       </c>
       <c r="D537" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
     </row>
     <row r="538" spans="1:4">
@@ -10259,7 +10265,7 @@
         <v>396</v>
       </c>
       <c r="D538" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
     </row>
     <row r="539" spans="1:4">
@@ -10275,7 +10281,7 @@
         <v>396</v>
       </c>
       <c r="D539" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
     </row>
     <row r="540" spans="1:4">
@@ -10291,7 +10297,7 @@
         <v>2</v>
       </c>
       <c r="D540" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
     </row>
     <row r="541" spans="1:4">
@@ -10307,7 +10313,7 @@
         <v>2</v>
       </c>
       <c r="D541" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="542" spans="1:4">
@@ -10323,7 +10329,7 @@
         <v>396</v>
       </c>
       <c r="D542" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
     </row>
     <row r="543" spans="1:4">
@@ -10339,7 +10345,7 @@
         <v>396</v>
       </c>
       <c r="D543" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
     </row>
     <row r="544" spans="1:4">
@@ -10355,7 +10361,7 @@
         <v>2</v>
       </c>
       <c r="D544" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
     </row>
     <row r="545" spans="1:4">
@@ -10371,7 +10377,7 @@
         <v>2</v>
       </c>
       <c r="D545" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
     </row>
     <row r="546" spans="1:4">
@@ -10387,7 +10393,7 @@
         <v>2</v>
       </c>
       <c r="D546" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
     </row>
     <row r="547" spans="1:4">
@@ -10403,7 +10409,7 @@
         <v>2</v>
       </c>
       <c r="D547" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
     </row>
     <row r="548" spans="1:4">
@@ -10419,7 +10425,7 @@
         <v>2</v>
       </c>
       <c r="D548" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
     </row>
     <row r="549" spans="1:4">
@@ -10435,7 +10441,7 @@
         <v>2</v>
       </c>
       <c r="D549" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
     </row>
     <row r="550" spans="1:4">
@@ -10451,7 +10457,7 @@
         <v>2</v>
       </c>
       <c r="D550" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
     </row>
     <row r="551" spans="1:4">
@@ -10467,7 +10473,7 @@
         <v>2</v>
       </c>
       <c r="D551" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
     </row>
     <row r="552" spans="1:4">
@@ -10483,7 +10489,7 @@
         <v>2</v>
       </c>
       <c r="D552" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
     </row>
     <row r="553" spans="1:4">
@@ -10499,7 +10505,7 @@
         <v>2</v>
       </c>
       <c r="D553" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
     </row>
     <row r="554" spans="1:4">
@@ -10515,7 +10521,7 @@
         <v>2</v>
       </c>
       <c r="D554" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
     </row>
     <row r="555" spans="1:4">
@@ -10531,7 +10537,7 @@
         <v>2</v>
       </c>
       <c r="D555" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
     </row>
     <row r="556" spans="1:4">
@@ -10547,7 +10553,7 @@
         <v>396</v>
       </c>
       <c r="D556" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
     </row>
     <row r="557" spans="1:4">
@@ -10563,7 +10569,7 @@
         <v>396</v>
       </c>
       <c r="D557" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
     </row>
     <row r="558" spans="1:4">
@@ -10579,7 +10585,7 @@
         <v>2</v>
       </c>
       <c r="D558" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
     </row>
     <row r="559" spans="1:4">
@@ -10595,7 +10601,7 @@
         <v>2</v>
       </c>
       <c r="D559" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
     </row>
     <row r="560" spans="1:4">
@@ -10611,7 +10617,7 @@
         <v>2</v>
       </c>
       <c r="D560" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
     </row>
     <row r="561" spans="1:4">
@@ -10627,7 +10633,7 @@
         <v>2</v>
       </c>
       <c r="D561" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
     </row>
     <row r="562" spans="1:4">
@@ -10643,7 +10649,7 @@
         <v>2</v>
       </c>
       <c r="D562" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
     </row>
     <row r="563" spans="1:4">
@@ -10659,7 +10665,7 @@
         <v>2</v>
       </c>
       <c r="D563" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
     </row>
     <row r="564" spans="1:4">
@@ -10675,23 +10681,23 @@
         <v>2</v>
       </c>
       <c r="D564" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
     </row>
     <row r="565" spans="1:4">
       <c r="A565" s="1" t="str">
-        <f t="shared" ref="A565:A571" si="20">LEFT(D565,FIND("-",D565)-1)</f>
+        <f t="shared" ref="A565:A576" si="20">LEFT(D565,FIND("-",D565)-1)</f>
         <v>dt1793</v>
       </c>
       <c r="B565" s="1" t="str">
-        <f t="shared" ref="B565:B571" si="21">RIGHT(D565,LEN(D565)-FIND("-",D565))</f>
+        <f t="shared" ref="B565:B576" si="21">RIGHT(D565,LEN(D565)-FIND("-",D565))</f>
         <v>tp视觉婚纱G-20190522-(江苏、安徽、浙江)</v>
       </c>
       <c r="C565" s="1" t="s">
         <v>396</v>
       </c>
       <c r="D565" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
     </row>
     <row r="566" spans="1:4">
@@ -10704,10 +10710,10 @@
         <v>保险规划师Q-20190522-全国</v>
       </c>
       <c r="C566" s="1" t="s">
-        <v>396</v>
+        <v>946</v>
       </c>
       <c r="D566" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
     </row>
     <row r="567" spans="1:4">
@@ -10723,7 +10729,7 @@
         <v>2</v>
       </c>
       <c r="D567" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
     </row>
     <row r="568" spans="1:4">
@@ -10739,7 +10745,7 @@
         <v>2</v>
       </c>
       <c r="D568" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
     </row>
     <row r="569" spans="1:4">
@@ -10755,7 +10761,7 @@
         <v>2</v>
       </c>
       <c r="D569" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
     </row>
     <row r="570" spans="1:4">
@@ -10771,7 +10777,7 @@
         <v>2</v>
       </c>
       <c r="D570" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
     </row>
     <row r="571" spans="1:4">
@@ -10787,71 +10793,87 @@
         <v>2</v>
       </c>
       <c r="D571" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
     </row>
     <row r="572" spans="1:4">
       <c r="A572" s="1" t="str">
-        <f>LEFT(D572,FIND("-",D572)-1)</f>
+        <f t="shared" si="20"/>
         <v>dt1802</v>
       </c>
       <c r="B572" s="1" t="str">
-        <f>RIGHT(D572,LEN(D572)-FIND("-",D572))</f>
+        <f t="shared" si="21"/>
         <v>留学-20190523-李总(全国)-3天</v>
       </c>
       <c r="C572" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D572" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="573" spans="1:4">
       <c r="A573" s="1" t="str">
-        <f>LEFT(D573,FIND("-",D573)-1)</f>
+        <f t="shared" si="20"/>
         <v>dt1803</v>
       </c>
       <c r="B573" s="1" t="str">
-        <f>RIGHT(D573,LEN(D573)-FIND("-",D573))</f>
+        <f t="shared" si="21"/>
         <v>消防考证-20190523-深总(广东)-4天</v>
       </c>
       <c r="C573" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D573" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="574" spans="1:4">
       <c r="A574" s="1" t="str">
-        <f>LEFT(D574,FIND("-",D574)-1)</f>
+        <f t="shared" si="20"/>
         <v>dt1804</v>
       </c>
       <c r="B574" s="1" t="str">
-        <f>RIGHT(D574,LEN(D574)-FIND("-",D574))</f>
+        <f t="shared" si="21"/>
         <v>信用卡代还-20190523-王总(全国)-1天</v>
       </c>
       <c r="C574" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D574" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="575" spans="1:4">
       <c r="A575" s="1" t="str">
-        <f>LEFT(D575,FIND("-",D575)-1)</f>
+        <f t="shared" si="20"/>
         <v>dt1805</v>
       </c>
       <c r="B575" s="1" t="str">
-        <f>RIGHT(D575,LEN(D575)-FIND("-",D575))</f>
+        <f t="shared" si="21"/>
         <v>装修-20190523-邢总(四川)-2天</v>
       </c>
       <c r="C575" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D575" t="s">
-        <v>1002</v>
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="576" spans="1:4">
+      <c r="A576" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>dt1806</v>
+      </c>
+      <c r="B576" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v>保险规划师Q-20190523-广东</v>
+      </c>
+      <c r="C576" s="1" t="s">
+        <v>946</v>
+      </c>
+      <c r="D576" t="s">
+        <v>1004</v>
       </c>
     </row>
   </sheetData>

--- a/模型统计(总).xlsx
+++ b/模型统计(总).xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465"/>
+    <workbookView windowWidth="28800" windowHeight="12465" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1531" uniqueCount="1005">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3203" uniqueCount="1273">
   <si>
     <t>dt431</t>
   </si>
@@ -3029,6 +3030,810 @@
   </si>
   <si>
     <t>dt1806-保险规划师Q-20190523-广东</t>
+  </si>
+  <si>
+    <t>dt1816-代理记账-20190524-王总(上海,天津,山东,江苏)-3天</t>
+  </si>
+  <si>
+    <t>dt1817-股票-20190524-孙总(北京,上海,广东)-1天</t>
+  </si>
+  <si>
+    <t>dt1394</t>
+  </si>
+  <si>
+    <t>保险-20190416-V1-全国</t>
+  </si>
+  <si>
+    <t>dt1395</t>
+  </si>
+  <si>
+    <t>期货-20190416-全国</t>
+  </si>
+  <si>
+    <t>dt1396</t>
+  </si>
+  <si>
+    <t>POS-20190416-推广页(全国)-2天</t>
+  </si>
+  <si>
+    <t>dt1397</t>
+  </si>
+  <si>
+    <t>汽车-20190416-邢总(陕西省)-1天</t>
+  </si>
+  <si>
+    <t>dt1398</t>
+  </si>
+  <si>
+    <t>消防教育-20190416-华总(上海、河南、河北、江苏、四川、山东、辽宁、吉林、内蒙古)-1天</t>
+  </si>
+  <si>
+    <t>dt1399</t>
+  </si>
+  <si>
+    <t>装修-20190415-李总(天津)-2天</t>
+  </si>
+  <si>
+    <t>dt1416</t>
+  </si>
+  <si>
+    <t>电信-比亚迪a-20190418-全国</t>
+  </si>
+  <si>
+    <t>dt1417</t>
+  </si>
+  <si>
+    <t>电信-比亚迪b-20190418-全国</t>
+  </si>
+  <si>
+    <t>dt1418</t>
+  </si>
+  <si>
+    <t>电信-配资-20190418-V1-全国</t>
+  </si>
+  <si>
+    <t>dt1419</t>
+  </si>
+  <si>
+    <t>电信-POS推广-20190418-优化(全国)-1天</t>
+  </si>
+  <si>
+    <t>dt1420</t>
+  </si>
+  <si>
+    <t>电信-昌骏汽车-20190418-邢总(陕西省)-1天</t>
+  </si>
+  <si>
+    <t>dt1421</t>
+  </si>
+  <si>
+    <t>电信-成人教育-20190418-王总优化(湖南)-3天</t>
+  </si>
+  <si>
+    <t>dt1422</t>
+  </si>
+  <si>
+    <t>电信-手机游戏-20190418-通用(浙江,江苏,安徽,四川,湖北,湖南,山西,陕西,河北,山东,天津,重庆,辽宁)-1天</t>
+  </si>
+  <si>
+    <t>dt1423</t>
+  </si>
+  <si>
+    <t>联通-POS-20190416-综合(全国)-1天-限量30000</t>
+  </si>
+  <si>
+    <t>dt1424</t>
+  </si>
+  <si>
+    <t>联通-手机游戏-20190418-通用(浙江,江苏,安徽,四川,湖北,湖南,山西,陕西,河北,山东,天津,重庆,辽宁)-1天-限量每天10000</t>
+  </si>
+  <si>
+    <t>dt1430</t>
+  </si>
+  <si>
+    <t>配资-20190419-全国</t>
+  </si>
+  <si>
+    <t>dt1432</t>
+  </si>
+  <si>
+    <t>股票-20190419-湖南</t>
+  </si>
+  <si>
+    <t>dt1433</t>
+  </si>
+  <si>
+    <t>手机游戏-20190419-V1-全国</t>
+  </si>
+  <si>
+    <t>dt1434</t>
+  </si>
+  <si>
+    <t>游戏-20190419-全国</t>
+  </si>
+  <si>
+    <t>dt1435</t>
+  </si>
+  <si>
+    <t>行业汇总-20190419-优化(全国)-1天</t>
+  </si>
+  <si>
+    <t>dt1436</t>
+  </si>
+  <si>
+    <t>POS-20190419-通用(全国)-7天</t>
+  </si>
+  <si>
+    <t>dt1437</t>
+  </si>
+  <si>
+    <t>餐饮培训-20190419-吴总(湖南)-1天</t>
+  </si>
+  <si>
+    <t>dt1438</t>
+  </si>
+  <si>
+    <t>成人教育-20190418-武总(江西、湖南、湖北、安徽)-1天</t>
+  </si>
+  <si>
+    <t>dt1439</t>
+  </si>
+  <si>
+    <t>汽车贸易-20190419-邢总(陕西省、青海省)-1天</t>
+  </si>
+  <si>
+    <t>dt1458</t>
+  </si>
+  <si>
+    <t>股票配资-20190422-全国</t>
+  </si>
+  <si>
+    <t>dt1459</t>
+  </si>
+  <si>
+    <t>成人教育-20190422-王总优化(湖南)-5天</t>
+  </si>
+  <si>
+    <t>dt1460</t>
+  </si>
+  <si>
+    <t>现金贷-20190422-晟总(全国)-1天</t>
+  </si>
+  <si>
+    <t>dt1461</t>
+  </si>
+  <si>
+    <t>装修-20190422-邢总(四川、甘肃、黑龙江)-1天</t>
+  </si>
+  <si>
+    <t>dt1466</t>
+  </si>
+  <si>
+    <t>投资理财G-20190423-全国</t>
+  </si>
+  <si>
+    <t>dt1467</t>
+  </si>
+  <si>
+    <t>手游G-20190423-全国</t>
+  </si>
+  <si>
+    <t>dt1468</t>
+  </si>
+  <si>
+    <t>餐饮加盟-20190423-吴总(全国)-2天</t>
+  </si>
+  <si>
+    <t>dt1469</t>
+  </si>
+  <si>
+    <t>餐饮加盟-20190423-邢总(河南、陕西、山西、四川、重庆、甘肃、湖北)-1天</t>
+  </si>
+  <si>
+    <t>dt1470</t>
+  </si>
+  <si>
+    <t>手机游戏-20190423-通用(浙江,江苏,安徽,四川,湖北,湖南,山西,陕西,河北,山东,天津,重庆,辽宁)-3天</t>
+  </si>
+  <si>
+    <t>dt1471</t>
+  </si>
+  <si>
+    <t>装修-20190423-邢总(陕西省)-3天</t>
+  </si>
+  <si>
+    <t>dt1477</t>
+  </si>
+  <si>
+    <t>贷款G-20190424-河南郑州</t>
+  </si>
+  <si>
+    <t>dt1478</t>
+  </si>
+  <si>
+    <t>股民G-20190424-全国（除河北）</t>
+  </si>
+  <si>
+    <t>dt1479</t>
+  </si>
+  <si>
+    <t>股票G-20190424-除去上海，广东，北京，新疆，西藏</t>
+  </si>
+  <si>
+    <t>dt1480</t>
+  </si>
+  <si>
+    <t>广场舞G-20190424-全国</t>
+  </si>
+  <si>
+    <t>dt1481</t>
+  </si>
+  <si>
+    <t>理财G-20190424-全国</t>
+  </si>
+  <si>
+    <t>dt1482</t>
+  </si>
+  <si>
+    <t>手机游戏G-20190424-全国</t>
+  </si>
+  <si>
+    <t>dt1483</t>
+  </si>
+  <si>
+    <t>育婴健身G-20190424-全国</t>
+  </si>
+  <si>
+    <t>dt1484</t>
+  </si>
+  <si>
+    <t>手机游戏-20190424-通用(浙江,江苏,安徽,四川,湖北,湖南,山西,陕西,河北,山东,天津,重庆,辽宁)-3天</t>
+  </si>
+  <si>
+    <t>dt1498</t>
+  </si>
+  <si>
+    <t>股票G-20190425-全国</t>
+  </si>
+  <si>
+    <t>dt1499</t>
+  </si>
+  <si>
+    <t>股票配资CG-20190425-全国</t>
+  </si>
+  <si>
+    <t>dt1500</t>
+  </si>
+  <si>
+    <t>汽车G-20190425-全国</t>
+  </si>
+  <si>
+    <t>dt1501</t>
+  </si>
+  <si>
+    <t>投资理财GJ-20190425-全国</t>
+  </si>
+  <si>
+    <t>dt1502</t>
+  </si>
+  <si>
+    <t>k12-20190425-曹总(湖南、湖北、江西、安徽)-1天</t>
+  </si>
+  <si>
+    <t>dt1503</t>
+  </si>
+  <si>
+    <t>保健-20190425-邢总(全国)-1天</t>
+  </si>
+  <si>
+    <t>dt1504</t>
+  </si>
+  <si>
+    <t>贷款-20190425-先总(广东、湖南、湖北、浙江、江苏、四川、陕西)-1天</t>
+  </si>
+  <si>
+    <t>dt1505</t>
+  </si>
+  <si>
+    <t>交友-20190425-韩总(湖南)-1天</t>
+  </si>
+  <si>
+    <t>dt1511</t>
+  </si>
+  <si>
+    <t>POS推广-20190426-优化(全国)-2天</t>
+  </si>
+  <si>
+    <t>dt1512</t>
+  </si>
+  <si>
+    <t>股票-20190426-华总(全国)-1天</t>
+  </si>
+  <si>
+    <t>dt1514</t>
+  </si>
+  <si>
+    <t>POS-20190426-通用(全国)-1天-限量50000</t>
+  </si>
+  <si>
+    <t>dt1527</t>
+  </si>
+  <si>
+    <t>POS-20190428-综合重复率低(全国)-5天</t>
+  </si>
+  <si>
+    <t>dt1531</t>
+  </si>
+  <si>
+    <t>成人教育-20190429-武总(河南)-5天</t>
+  </si>
+  <si>
+    <t>dt1532</t>
+  </si>
+  <si>
+    <t>股票-20190429-霸总(全国)-1天</t>
+  </si>
+  <si>
+    <t>dt1533</t>
+  </si>
+  <si>
+    <t>消防-20190429-曹总(全国)-1天</t>
+  </si>
+  <si>
+    <t>dt1541</t>
+  </si>
+  <si>
+    <t>投资理财BG-全国-1天-2w</t>
+  </si>
+  <si>
+    <t>dt1542</t>
+  </si>
+  <si>
+    <t>消防-20190430-新总(全国)-1天</t>
+  </si>
+  <si>
+    <t>dt1543</t>
+  </si>
+  <si>
+    <t>信用卡-20190430-先总(广东、江西、湖南)-1天</t>
+  </si>
+  <si>
+    <t>dt1555</t>
+  </si>
+  <si>
+    <t>汽车G-20190505-全国</t>
+  </si>
+  <si>
+    <t>dt1556</t>
+  </si>
+  <si>
+    <t>股票G-20190505-广东，湖南-5000</t>
+  </si>
+  <si>
+    <t>dt1565</t>
+  </si>
+  <si>
+    <t>投资理财GJ-20190506-全国-1W</t>
+  </si>
+  <si>
+    <t>dt1566</t>
+  </si>
+  <si>
+    <t>POS招商-20190506-拓总(全国)-1天</t>
+  </si>
+  <si>
+    <t>dt1567</t>
+  </si>
+  <si>
+    <t>成人教育-20190506-深总(湖南、湖北、浙江、广东、贵州)-2天</t>
+  </si>
+  <si>
+    <t>dt1568</t>
+  </si>
+  <si>
+    <t>股票-20190506-华总(江苏省,浙江省,福建省)-1天</t>
+  </si>
+  <si>
+    <t>dt1569</t>
+  </si>
+  <si>
+    <t>现金贷-20190506-曹总(浙江省)-1天</t>
+  </si>
+  <si>
+    <t>dt1570</t>
+  </si>
+  <si>
+    <t>信用卡-20190506-晟总(全国)-1天</t>
+  </si>
+  <si>
+    <t>dt1571</t>
+  </si>
+  <si>
+    <t>养生理疗-20190506-邢总(全国)-3天</t>
+  </si>
+  <si>
+    <t>dt1579</t>
+  </si>
+  <si>
+    <t>保健-20190507-邢总(全国)-1天</t>
+  </si>
+  <si>
+    <t>dt1580</t>
+  </si>
+  <si>
+    <t>电商-20190507-综合(全国)-1天</t>
+  </si>
+  <si>
+    <t>dt1583</t>
+  </si>
+  <si>
+    <t>借贷-20190507-王总(浙江、福建)-1天</t>
+  </si>
+  <si>
+    <t>dt1584</t>
+  </si>
+  <si>
+    <t>汽车-20190507-邢总(陕西、青海)-2天</t>
+  </si>
+  <si>
+    <t>dt1598</t>
+  </si>
+  <si>
+    <t>车型-20190508-全国-1天</t>
+  </si>
+  <si>
+    <t>dt1599</t>
+  </si>
+  <si>
+    <t>车型GQ-20190508-全国-1天</t>
+  </si>
+  <si>
+    <t>dt1604</t>
+  </si>
+  <si>
+    <t>dt1600</t>
+  </si>
+  <si>
+    <t>POS-20190508-张总(全国)-5天</t>
+  </si>
+  <si>
+    <t>dt1601</t>
+  </si>
+  <si>
+    <t>奶茶加盟-20190508-艾总(全国)-3天</t>
+  </si>
+  <si>
+    <t>dt1602</t>
+  </si>
+  <si>
+    <t>现金贷-20190508-曹总(浙江)-1天</t>
+  </si>
+  <si>
+    <t>dt1603</t>
+  </si>
+  <si>
+    <t>装修-20190508-邢总(四川)-5天</t>
+  </si>
+  <si>
+    <t>dt1610</t>
+  </si>
+  <si>
+    <t>POS招商-20190509-宁总(全国)-1天</t>
+  </si>
+  <si>
+    <t>dt1619</t>
+  </si>
+  <si>
+    <t>POS机招商G-20190510-全国</t>
+  </si>
+  <si>
+    <t>dt1620</t>
+  </si>
+  <si>
+    <t>成人教育-20190510-武总(江西、湖南、湖北、安徽、河南)-2天</t>
+  </si>
+  <si>
+    <t>dt1621</t>
+  </si>
+  <si>
+    <t>代理记账-20190510-智总(山东)-3天</t>
+  </si>
+  <si>
+    <t>dt1622</t>
+  </si>
+  <si>
+    <t>股票-20190510-霸总(辽宁、黑龙江、河北)-2天</t>
+  </si>
+  <si>
+    <t>dt1623</t>
+  </si>
+  <si>
+    <t>理财-20190510-拓总(全国)-1天</t>
+  </si>
+  <si>
+    <t>dt1624</t>
+  </si>
+  <si>
+    <t>美妆-20190510-凌总(全国)-1天</t>
+  </si>
+  <si>
+    <t>dt1625</t>
+  </si>
+  <si>
+    <t>现金贷-20190510-曹总(全国)-1天</t>
+  </si>
+  <si>
+    <t>dt1626</t>
+  </si>
+  <si>
+    <t>小额贷款-20190510-帮总(上海)-3天</t>
+  </si>
+  <si>
+    <t>dt1637</t>
+  </si>
+  <si>
+    <t>汽车昂科拉2018-20190513-全国-3天</t>
+  </si>
+  <si>
+    <t>dt1638</t>
+  </si>
+  <si>
+    <t>汽车比亚迪e1-20190513-全国-3天</t>
+  </si>
+  <si>
+    <t>dt1639</t>
+  </si>
+  <si>
+    <t>汽车别克-20190513-全国-3天</t>
+  </si>
+  <si>
+    <t>dt1640</t>
+  </si>
+  <si>
+    <t>汽车东风日产轩逸-20190513-全国-3天</t>
+  </si>
+  <si>
+    <t>dt1641</t>
+  </si>
+  <si>
+    <t>汽车上汽荣威i6plus-20190513-全国-3天</t>
+  </si>
+  <si>
+    <t>dt1642</t>
+  </si>
+  <si>
+    <t>汽车雪佛兰-20190513-全国-3天</t>
+  </si>
+  <si>
+    <t>dt1645</t>
+  </si>
+  <si>
+    <t>股票配资-20190513-张总(全国)-1天</t>
+  </si>
+  <si>
+    <t>dt1646</t>
+  </si>
+  <si>
+    <t>理财-20190513-拓总(全国)-1天</t>
+  </si>
+  <si>
+    <t>dt1652</t>
+  </si>
+  <si>
+    <t>手游1G-20190514-全国-1天（5W）</t>
+  </si>
+  <si>
+    <t>dt1653</t>
+  </si>
+  <si>
+    <t>手游2G-20190514-全国（5W）</t>
+  </si>
+  <si>
+    <t>dt1655</t>
+  </si>
+  <si>
+    <t>CMA培训-20190514-华总(全国)-3天</t>
+  </si>
+  <si>
+    <t>dt1656</t>
+  </si>
+  <si>
+    <t>股票-20190514-华总(全国)-1天</t>
+  </si>
+  <si>
+    <t>dt1657</t>
+  </si>
+  <si>
+    <t>美妆-20190514-凌总(全国)-1天</t>
+  </si>
+  <si>
+    <t>dt1658</t>
+  </si>
+  <si>
+    <t>消防考证-20190514-深总(湖南、湖北、浙江、广东、贵州、河南)-3天</t>
+  </si>
+  <si>
+    <t>dt1665</t>
+  </si>
+  <si>
+    <t>抵押贷款-20190515-通用(广东省)-1天</t>
+  </si>
+  <si>
+    <t>dt1666</t>
+  </si>
+  <si>
+    <t>理财-20190515-拓总(浙江、湖南、广东)-1天</t>
+  </si>
+  <si>
+    <t>dt1681</t>
+  </si>
+  <si>
+    <t>POS-20190516-深总(全国)-3天</t>
+  </si>
+  <si>
+    <t>dt1682</t>
+  </si>
+  <si>
+    <t>POS-20190516-张总综合(全国)-7天</t>
+  </si>
+  <si>
+    <t>dt1683</t>
+  </si>
+  <si>
+    <t>汽车-20190516-邢总(陕西、青海)-1天</t>
+  </si>
+  <si>
+    <t>dt1684</t>
+  </si>
+  <si>
+    <t>消防考证-20190516-深总(贵州、云南、重庆、江苏、浙江、上海、北京、天津、河南)-4天</t>
+  </si>
+  <si>
+    <t>dt1685</t>
+  </si>
+  <si>
+    <t>信用卡-20190516-王总(全国)-2天</t>
+  </si>
+  <si>
+    <t>dt1686</t>
+  </si>
+  <si>
+    <t>招商加盟-20190516-自用(全国)-3天</t>
+  </si>
+  <si>
+    <t>dt1689</t>
+  </si>
+  <si>
+    <t>手游3G-20190514-全国-3天（2.5W）</t>
+  </si>
+  <si>
+    <t>dt1690</t>
+  </si>
+  <si>
+    <t>手游4G-20190514-全国-3天(2.5W)</t>
+  </si>
+  <si>
+    <t>dt1695</t>
+  </si>
+  <si>
+    <t>教育培训-20190517-武总(江西、湖南、湖北、安徽、河南、陕西)-3天</t>
+  </si>
+  <si>
+    <t>dt1696</t>
+  </si>
+  <si>
+    <t>无卡支付-20190517-晟总(全国)-1天</t>
+  </si>
+  <si>
+    <t>dt1697</t>
+  </si>
+  <si>
+    <t>信用卡-20190517-徐总(全国)-1天</t>
+  </si>
+  <si>
+    <t>dt1720</t>
+  </si>
+  <si>
+    <t>dt1768</t>
+  </si>
+  <si>
+    <t>餐饮加盟-20190521-曹总(全国)-2天</t>
+  </si>
+  <si>
+    <t>dt1769</t>
+  </si>
+  <si>
+    <t>房地产-20190521-曹总(重庆,四川,贵州,云南,陕西,黑龙江,吉林,广东,广西)-1天</t>
+  </si>
+  <si>
+    <t>dt1770</t>
+  </si>
+  <si>
+    <t>现金贷-20190521-曹总(浙江,上海)-1天</t>
+  </si>
+  <si>
+    <t>dt1793</t>
+  </si>
+  <si>
+    <t>tp视觉婚纱G-20190522-(江苏、安徽、浙江)</t>
+  </si>
+  <si>
+    <t>dt1794</t>
+  </si>
+  <si>
+    <t>保险规划师Q-20190522-全国</t>
+  </si>
+  <si>
+    <t>dt1795</t>
+  </si>
+  <si>
+    <t>k12-20190522-霸总(重庆,四川)-5天</t>
+  </si>
+  <si>
+    <t>dt1796</t>
+  </si>
+  <si>
+    <t>餐饮加盟-20190522-邢总(全国)-5天</t>
+  </si>
+  <si>
+    <t>dt1797</t>
+  </si>
+  <si>
+    <t>电工招聘-20190522-帮总(全国)-2天</t>
+  </si>
+  <si>
+    <t>dt1798</t>
+  </si>
+  <si>
+    <t>家装-20190522-邢总(陕西)-2天</t>
+  </si>
+  <si>
+    <t>dt1799</t>
+  </si>
+  <si>
+    <t>招商加盟-20190522-文总(广东,广西省)-3天</t>
+  </si>
+  <si>
+    <t>dt1802</t>
+  </si>
+  <si>
+    <t>留学-20190523-李总(全国)-3天</t>
+  </si>
+  <si>
+    <t>dt1803</t>
+  </si>
+  <si>
+    <t>消防考证-20190523-深总(广东)-4天</t>
+  </si>
+  <si>
+    <t>dt1804</t>
+  </si>
+  <si>
+    <t>信用卡代还-20190523-王总(全国)-1天</t>
+  </si>
+  <si>
+    <t>dt1805</t>
+  </si>
+  <si>
+    <t>装修-20190523-邢总(四川)-2天</t>
+  </si>
+  <si>
+    <t>dt1806</t>
+  </si>
+  <si>
+    <t>保险规划师Q-20190523-广东</t>
+  </si>
+  <si>
+    <t>dt1816</t>
+  </si>
+  <si>
+    <t>代理记账-20190524-王总(上海,天津,山东,江苏)-3天</t>
+  </si>
+  <si>
+    <t>dt1817</t>
+  </si>
+  <si>
+    <t>股票-20190524-孙总(北京,上海,广东)-1天</t>
   </si>
 </sst>
 </file>
@@ -3050,68 +3855,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -3120,7 +3863,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3134,11 +3877,65 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3156,17 +3953,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3181,14 +3977,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3209,13 +4014,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3227,145 +4026,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3383,13 +4044,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3408,6 +4213,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3444,9 +4264,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3468,11 +4290,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3480,23 +4300,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3508,10 +4313,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3520,133 +4325,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3997,15 +4802,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D576"/>
+  <dimension ref="A1:D578"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A505" workbookViewId="0">
-      <selection activeCell="D505" sqref="D$1:D$1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A578" sqref="A1:C578"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
-    <col min="2" max="2" width="14.375" customWidth="1"/>
+    <col min="2" max="2" width="41.25" customWidth="1"/>
     <col min="3" max="3" width="12.875" customWidth="1"/>
     <col min="4" max="4" width="9" hidden="1" customWidth="1"/>
   </cols>
@@ -10876,6 +11681,6218 @@
         <v>1004</v>
       </c>
     </row>
+    <row r="577" spans="1:4">
+      <c r="A577" s="1" t="str">
+        <f>LEFT(D577,FIND("-",D577)-1)</f>
+        <v>dt1816</v>
+      </c>
+      <c r="B577" s="1" t="str">
+        <f>RIGHT(D577,LEN(D577)-FIND("-",D577))</f>
+        <v>代理记账-20190524-王总(上海,天津,山东,江苏)-3天</v>
+      </c>
+      <c r="C577" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D577" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="578" spans="1:4">
+      <c r="A578" s="1" t="str">
+        <f>LEFT(D578,FIND("-",D578)-1)</f>
+        <v>dt1817</v>
+      </c>
+      <c r="B578" s="1" t="str">
+        <f>RIGHT(D578,LEN(D578)-FIND("-",D578))</f>
+        <v>股票-20190524-孙总(北京,上海,广东)-1天</v>
+      </c>
+      <c r="C578" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D578" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C578"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A549" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <cols>
+    <col min="2" max="2" width="46.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>59</v>
+      </c>
+      <c r="B30" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>62</v>
+      </c>
+      <c r="B31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>64</v>
+      </c>
+      <c r="B32" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>66</v>
+      </c>
+      <c r="B33" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>68</v>
+      </c>
+      <c r="B34" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>70</v>
+      </c>
+      <c r="B35" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>72</v>
+      </c>
+      <c r="B36" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>73</v>
+      </c>
+      <c r="B37" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>75</v>
+      </c>
+      <c r="B38" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>77</v>
+      </c>
+      <c r="B39" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>79</v>
+      </c>
+      <c r="B40" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>81</v>
+      </c>
+      <c r="B41" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
+        <v>83</v>
+      </c>
+      <c r="B42" t="s">
+        <v>84</v>
+      </c>
+      <c r="C42" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
+        <v>85</v>
+      </c>
+      <c r="B43" t="s">
+        <v>86</v>
+      </c>
+      <c r="C43" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" t="s">
+        <v>87</v>
+      </c>
+      <c r="B44" t="s">
+        <v>88</v>
+      </c>
+      <c r="C44" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>89</v>
+      </c>
+      <c r="B45" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" t="s">
+        <v>91</v>
+      </c>
+      <c r="B46" t="s">
+        <v>92</v>
+      </c>
+      <c r="C46" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" t="s">
+        <v>93</v>
+      </c>
+      <c r="B47" t="s">
+        <v>94</v>
+      </c>
+      <c r="C47" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" t="s">
+        <v>95</v>
+      </c>
+      <c r="B48" t="s">
+        <v>96</v>
+      </c>
+      <c r="C48" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" t="s">
+        <v>97</v>
+      </c>
+      <c r="B49" t="s">
+        <v>98</v>
+      </c>
+      <c r="C49" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" t="s">
+        <v>99</v>
+      </c>
+      <c r="B50" t="s">
+        <v>100</v>
+      </c>
+      <c r="C50" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" t="s">
+        <v>101</v>
+      </c>
+      <c r="B51" t="s">
+        <v>102</v>
+      </c>
+      <c r="C51" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" t="s">
+        <v>103</v>
+      </c>
+      <c r="B52" t="s">
+        <v>104</v>
+      </c>
+      <c r="C52" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" t="s">
+        <v>105</v>
+      </c>
+      <c r="B53" t="s">
+        <v>106</v>
+      </c>
+      <c r="C53" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" t="s">
+        <v>107</v>
+      </c>
+      <c r="B54" t="s">
+        <v>108</v>
+      </c>
+      <c r="C54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" t="s">
+        <v>109</v>
+      </c>
+      <c r="B55" t="s">
+        <v>110</v>
+      </c>
+      <c r="C55" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" t="s">
+        <v>111</v>
+      </c>
+      <c r="B56" t="s">
+        <v>112</v>
+      </c>
+      <c r="C56" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" t="s">
+        <v>113</v>
+      </c>
+      <c r="B57" t="s">
+        <v>114</v>
+      </c>
+      <c r="C57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>115</v>
+      </c>
+      <c r="B58" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>117</v>
+      </c>
+      <c r="B59" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
+        <v>119</v>
+      </c>
+      <c r="B60" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
+        <v>121</v>
+      </c>
+      <c r="B61" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" t="s">
+        <v>123</v>
+      </c>
+      <c r="B62" t="s">
+        <v>124</v>
+      </c>
+      <c r="C62" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" t="s">
+        <v>125</v>
+      </c>
+      <c r="B63" t="s">
+        <v>126</v>
+      </c>
+      <c r="C63" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" t="s">
+        <v>127</v>
+      </c>
+      <c r="B64" t="s">
+        <v>128</v>
+      </c>
+      <c r="C64" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" t="s">
+        <v>129</v>
+      </c>
+      <c r="B65" t="s">
+        <v>130</v>
+      </c>
+      <c r="C65" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" t="s">
+        <v>131</v>
+      </c>
+      <c r="B66" t="s">
+        <v>132</v>
+      </c>
+      <c r="C66" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" t="s">
+        <v>133</v>
+      </c>
+      <c r="B67" t="s">
+        <v>134</v>
+      </c>
+      <c r="C67" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" t="s">
+        <v>135</v>
+      </c>
+      <c r="B68" t="s">
+        <v>136</v>
+      </c>
+      <c r="C68" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" t="s">
+        <v>137</v>
+      </c>
+      <c r="B69" t="s">
+        <v>138</v>
+      </c>
+      <c r="C69" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" t="s">
+        <v>139</v>
+      </c>
+      <c r="B70" t="s">
+        <v>140</v>
+      </c>
+      <c r="C70" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" t="s">
+        <v>141</v>
+      </c>
+      <c r="B71" t="s">
+        <v>142</v>
+      </c>
+      <c r="C71" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" t="s">
+        <v>143</v>
+      </c>
+      <c r="B72" t="s">
+        <v>144</v>
+      </c>
+      <c r="C72" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" t="s">
+        <v>145</v>
+      </c>
+      <c r="B73" t="s">
+        <v>146</v>
+      </c>
+      <c r="C73" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" t="s">
+        <v>147</v>
+      </c>
+      <c r="B74" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" t="s">
+        <v>149</v>
+      </c>
+      <c r="B75" t="s">
+        <v>150</v>
+      </c>
+      <c r="C75" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" t="s">
+        <v>151</v>
+      </c>
+      <c r="B76" t="s">
+        <v>152</v>
+      </c>
+      <c r="C76" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" t="s">
+        <v>153</v>
+      </c>
+      <c r="B77" t="s">
+        <v>154</v>
+      </c>
+      <c r="C77" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" t="s">
+        <v>155</v>
+      </c>
+      <c r="B78" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" t="s">
+        <v>157</v>
+      </c>
+      <c r="B79" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" t="s">
+        <v>159</v>
+      </c>
+      <c r="B80" t="s">
+        <v>160</v>
+      </c>
+      <c r="C80" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" t="s">
+        <v>161</v>
+      </c>
+      <c r="B81" t="s">
+        <v>162</v>
+      </c>
+      <c r="C81" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" t="s">
+        <v>163</v>
+      </c>
+      <c r="B82" t="s">
+        <v>164</v>
+      </c>
+      <c r="C82" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" t="s">
+        <v>165</v>
+      </c>
+      <c r="B83" t="s">
+        <v>166</v>
+      </c>
+      <c r="C83" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" t="s">
+        <v>167</v>
+      </c>
+      <c r="B84" t="s">
+        <v>168</v>
+      </c>
+      <c r="C84" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" t="s">
+        <v>169</v>
+      </c>
+      <c r="B85" t="s">
+        <v>170</v>
+      </c>
+      <c r="C85" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" t="s">
+        <v>171</v>
+      </c>
+      <c r="B86" t="s">
+        <v>172</v>
+      </c>
+      <c r="C86" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" t="s">
+        <v>173</v>
+      </c>
+      <c r="B87" t="s">
+        <v>174</v>
+      </c>
+      <c r="C87" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" t="s">
+        <v>175</v>
+      </c>
+      <c r="B88" t="s">
+        <v>176</v>
+      </c>
+      <c r="C88" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" t="s">
+        <v>177</v>
+      </c>
+      <c r="B89" t="s">
+        <v>178</v>
+      </c>
+      <c r="C89" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" t="s">
+        <v>179</v>
+      </c>
+      <c r="B90" t="s">
+        <v>180</v>
+      </c>
+      <c r="C90" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" t="s">
+        <v>181</v>
+      </c>
+      <c r="B91" t="s">
+        <v>182</v>
+      </c>
+      <c r="C91" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" t="s">
+        <v>183</v>
+      </c>
+      <c r="B92" t="s">
+        <v>184</v>
+      </c>
+      <c r="C92" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" t="s">
+        <v>185</v>
+      </c>
+      <c r="B93" t="s">
+        <v>186</v>
+      </c>
+      <c r="C93" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" t="s">
+        <v>187</v>
+      </c>
+      <c r="B94" t="s">
+        <v>188</v>
+      </c>
+      <c r="C94" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" t="s">
+        <v>189</v>
+      </c>
+      <c r="B95" t="s">
+        <v>190</v>
+      </c>
+      <c r="C95" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" t="s">
+        <v>191</v>
+      </c>
+      <c r="B96" t="s">
+        <v>192</v>
+      </c>
+      <c r="C96" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" t="s">
+        <v>193</v>
+      </c>
+      <c r="B97" t="s">
+        <v>194</v>
+      </c>
+      <c r="C97" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" t="s">
+        <v>195</v>
+      </c>
+      <c r="B98" t="s">
+        <v>196</v>
+      </c>
+      <c r="C98" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" t="s">
+        <v>197</v>
+      </c>
+      <c r="B99" t="s">
+        <v>198</v>
+      </c>
+      <c r="C99" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" t="s">
+        <v>199</v>
+      </c>
+      <c r="B100" t="s">
+        <v>200</v>
+      </c>
+      <c r="C100" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" t="s">
+        <v>201</v>
+      </c>
+      <c r="B101" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" t="s">
+        <v>203</v>
+      </c>
+      <c r="B102" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" t="s">
+        <v>205</v>
+      </c>
+      <c r="B103" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" t="s">
+        <v>207</v>
+      </c>
+      <c r="B104" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" t="s">
+        <v>209</v>
+      </c>
+      <c r="B105" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" t="s">
+        <v>211</v>
+      </c>
+      <c r="B106" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" t="s">
+        <v>213</v>
+      </c>
+      <c r="B107" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" t="s">
+        <v>215</v>
+      </c>
+      <c r="B108" t="s">
+        <v>216</v>
+      </c>
+      <c r="C108" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" t="s">
+        <v>217</v>
+      </c>
+      <c r="B109" t="s">
+        <v>218</v>
+      </c>
+      <c r="C109" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" t="s">
+        <v>219</v>
+      </c>
+      <c r="B110" t="s">
+        <v>220</v>
+      </c>
+      <c r="C110" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" t="s">
+        <v>221</v>
+      </c>
+      <c r="B111" t="s">
+        <v>222</v>
+      </c>
+      <c r="C111" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" t="s">
+        <v>223</v>
+      </c>
+      <c r="B112" t="s">
+        <v>224</v>
+      </c>
+      <c r="C112" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" t="s">
+        <v>225</v>
+      </c>
+      <c r="B113" t="s">
+        <v>226</v>
+      </c>
+      <c r="C113" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" t="s">
+        <v>227</v>
+      </c>
+      <c r="B114" t="s">
+        <v>228</v>
+      </c>
+      <c r="C114" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" t="s">
+        <v>229</v>
+      </c>
+      <c r="B115" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" t="s">
+        <v>231</v>
+      </c>
+      <c r="B116" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" t="s">
+        <v>233</v>
+      </c>
+      <c r="B117" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" t="s">
+        <v>235</v>
+      </c>
+      <c r="B118" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" t="s">
+        <v>237</v>
+      </c>
+      <c r="B119" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" t="s">
+        <v>239</v>
+      </c>
+      <c r="B120" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" t="s">
+        <v>241</v>
+      </c>
+      <c r="B121" t="s">
+        <v>242</v>
+      </c>
+      <c r="C121" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" t="s">
+        <v>243</v>
+      </c>
+      <c r="B122" t="s">
+        <v>244</v>
+      </c>
+      <c r="C122" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" t="s">
+        <v>245</v>
+      </c>
+      <c r="B123" t="s">
+        <v>246</v>
+      </c>
+      <c r="C123" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" t="s">
+        <v>247</v>
+      </c>
+      <c r="B124" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" t="s">
+        <v>249</v>
+      </c>
+      <c r="B125" t="s">
+        <v>250</v>
+      </c>
+      <c r="C125" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" t="s">
+        <v>251</v>
+      </c>
+      <c r="B126" t="s">
+        <v>252</v>
+      </c>
+      <c r="C126" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" t="s">
+        <v>253</v>
+      </c>
+      <c r="B127" t="s">
+        <v>254</v>
+      </c>
+      <c r="C127" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" t="s">
+        <v>255</v>
+      </c>
+      <c r="B128" t="s">
+        <v>256</v>
+      </c>
+      <c r="C128" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" t="s">
+        <v>257</v>
+      </c>
+      <c r="B129" t="s">
+        <v>258</v>
+      </c>
+      <c r="C129" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" t="s">
+        <v>259</v>
+      </c>
+      <c r="B130" t="s">
+        <v>260</v>
+      </c>
+      <c r="C130" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" t="s">
+        <v>261</v>
+      </c>
+      <c r="B131" t="s">
+        <v>262</v>
+      </c>
+      <c r="C131" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" t="s">
+        <v>263</v>
+      </c>
+      <c r="B132" t="s">
+        <v>264</v>
+      </c>
+      <c r="C132" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" t="s">
+        <v>265</v>
+      </c>
+      <c r="B133" t="s">
+        <v>266</v>
+      </c>
+      <c r="C133" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" t="s">
+        <v>267</v>
+      </c>
+      <c r="B134" t="s">
+        <v>268</v>
+      </c>
+      <c r="C134" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" t="s">
+        <v>269</v>
+      </c>
+      <c r="B135" t="s">
+        <v>270</v>
+      </c>
+      <c r="C135" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" t="s">
+        <v>271</v>
+      </c>
+      <c r="B136" t="s">
+        <v>272</v>
+      </c>
+      <c r="C136" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" t="s">
+        <v>273</v>
+      </c>
+      <c r="B137" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" t="s">
+        <v>275</v>
+      </c>
+      <c r="B138" t="s">
+        <v>276</v>
+      </c>
+      <c r="C138" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" t="s">
+        <v>277</v>
+      </c>
+      <c r="B139" t="s">
+        <v>278</v>
+      </c>
+      <c r="C139" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" t="s">
+        <v>279</v>
+      </c>
+      <c r="B140" t="s">
+        <v>280</v>
+      </c>
+      <c r="C140" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" t="s">
+        <v>281</v>
+      </c>
+      <c r="B141" t="s">
+        <v>282</v>
+      </c>
+      <c r="C141" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" t="s">
+        <v>283</v>
+      </c>
+      <c r="B142" t="s">
+        <v>284</v>
+      </c>
+      <c r="C142" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" t="s">
+        <v>285</v>
+      </c>
+      <c r="B143" t="s">
+        <v>286</v>
+      </c>
+      <c r="C143" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" t="s">
+        <v>287</v>
+      </c>
+      <c r="B144" t="s">
+        <v>288</v>
+      </c>
+      <c r="C144" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" t="s">
+        <v>289</v>
+      </c>
+      <c r="B145" t="s">
+        <v>290</v>
+      </c>
+      <c r="C145" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" t="s">
+        <v>291</v>
+      </c>
+      <c r="B146" t="s">
+        <v>292</v>
+      </c>
+      <c r="C146" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" t="s">
+        <v>293</v>
+      </c>
+      <c r="B147" t="s">
+        <v>294</v>
+      </c>
+      <c r="C147" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" t="s">
+        <v>295</v>
+      </c>
+      <c r="B148" t="s">
+        <v>296</v>
+      </c>
+      <c r="C148" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" t="s">
+        <v>297</v>
+      </c>
+      <c r="B149" t="s">
+        <v>298</v>
+      </c>
+      <c r="C149" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" t="s">
+        <v>299</v>
+      </c>
+      <c r="B150" t="s">
+        <v>300</v>
+      </c>
+      <c r="C150" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" t="s">
+        <v>301</v>
+      </c>
+      <c r="B151" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" t="s">
+        <v>303</v>
+      </c>
+      <c r="B152" t="s">
+        <v>304</v>
+      </c>
+      <c r="C152" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" t="s">
+        <v>305</v>
+      </c>
+      <c r="B153" t="s">
+        <v>306</v>
+      </c>
+      <c r="C153" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" t="s">
+        <v>305</v>
+      </c>
+      <c r="B154" t="s">
+        <v>306</v>
+      </c>
+      <c r="C154" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" t="s">
+        <v>307</v>
+      </c>
+      <c r="B155" t="s">
+        <v>308</v>
+      </c>
+      <c r="C155" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" t="s">
+        <v>307</v>
+      </c>
+      <c r="B156" t="s">
+        <v>308</v>
+      </c>
+      <c r="C156" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" t="s">
+        <v>309</v>
+      </c>
+      <c r="B157" t="s">
+        <v>310</v>
+      </c>
+      <c r="C157" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" t="s">
+        <v>309</v>
+      </c>
+      <c r="B158" t="s">
+        <v>310</v>
+      </c>
+      <c r="C158" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159" t="s">
+        <v>311</v>
+      </c>
+      <c r="B159" t="s">
+        <v>312</v>
+      </c>
+      <c r="C159" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160" t="s">
+        <v>311</v>
+      </c>
+      <c r="B160" t="s">
+        <v>312</v>
+      </c>
+      <c r="C160" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" t="s">
+        <v>313</v>
+      </c>
+      <c r="B161" t="s">
+        <v>314</v>
+      </c>
+      <c r="C161" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" t="s">
+        <v>313</v>
+      </c>
+      <c r="B162" t="s">
+        <v>314</v>
+      </c>
+      <c r="C162" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" t="s">
+        <v>315</v>
+      </c>
+      <c r="B163" t="s">
+        <v>316</v>
+      </c>
+      <c r="C163" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" t="s">
+        <v>315</v>
+      </c>
+      <c r="B164" t="s">
+        <v>316</v>
+      </c>
+      <c r="C164" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" t="s">
+        <v>317</v>
+      </c>
+      <c r="B165" t="s">
+        <v>318</v>
+      </c>
+      <c r="C165" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166" t="s">
+        <v>317</v>
+      </c>
+      <c r="B166" t="s">
+        <v>318</v>
+      </c>
+      <c r="C166" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167" t="s">
+        <v>319</v>
+      </c>
+      <c r="B167" t="s">
+        <v>320</v>
+      </c>
+      <c r="C167" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168" t="s">
+        <v>319</v>
+      </c>
+      <c r="B168" t="s">
+        <v>320</v>
+      </c>
+      <c r="C168" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169" t="s">
+        <v>321</v>
+      </c>
+      <c r="B169" t="s">
+        <v>322</v>
+      </c>
+      <c r="C169" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2">
+      <c r="A170" t="s">
+        <v>323</v>
+      </c>
+      <c r="B170" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2">
+      <c r="A171" t="s">
+        <v>325</v>
+      </c>
+      <c r="B171" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172" t="s">
+        <v>327</v>
+      </c>
+      <c r="B172" t="s">
+        <v>328</v>
+      </c>
+      <c r="C172" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173" t="s">
+        <v>329</v>
+      </c>
+      <c r="B173" t="s">
+        <v>330</v>
+      </c>
+      <c r="C173" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174" t="s">
+        <v>331</v>
+      </c>
+      <c r="B174" t="s">
+        <v>332</v>
+      </c>
+      <c r="C174" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175" t="s">
+        <v>333</v>
+      </c>
+      <c r="B175" t="s">
+        <v>334</v>
+      </c>
+      <c r="C175" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176" t="s">
+        <v>335</v>
+      </c>
+      <c r="B176" t="s">
+        <v>336</v>
+      </c>
+      <c r="C176" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177" t="s">
+        <v>337</v>
+      </c>
+      <c r="B177" t="s">
+        <v>338</v>
+      </c>
+      <c r="C177" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178" t="s">
+        <v>339</v>
+      </c>
+      <c r="B178" t="s">
+        <v>340</v>
+      </c>
+      <c r="C178" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2">
+      <c r="A179" t="s">
+        <v>341</v>
+      </c>
+      <c r="B179" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180" t="s">
+        <v>343</v>
+      </c>
+      <c r="B180" t="s">
+        <v>344</v>
+      </c>
+      <c r="C180" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="A181" t="s">
+        <v>345</v>
+      </c>
+      <c r="B181" t="s">
+        <v>346</v>
+      </c>
+      <c r="C181" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2">
+      <c r="A182" t="s">
+        <v>347</v>
+      </c>
+      <c r="B182" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="A183" t="s">
+        <v>349</v>
+      </c>
+      <c r="B183" t="s">
+        <v>350</v>
+      </c>
+      <c r="C183" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2">
+      <c r="A184" t="s">
+        <v>351</v>
+      </c>
+      <c r="B184" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185" t="s">
+        <v>353</v>
+      </c>
+      <c r="B185" t="s">
+        <v>354</v>
+      </c>
+      <c r="C185" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="A186" t="s">
+        <v>355</v>
+      </c>
+      <c r="B186" t="s">
+        <v>356</v>
+      </c>
+      <c r="C186" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="A187" t="s">
+        <v>357</v>
+      </c>
+      <c r="B187" t="s">
+        <v>358</v>
+      </c>
+      <c r="C187" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2">
+      <c r="A188" t="s">
+        <v>359</v>
+      </c>
+      <c r="B188" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="A189" t="s">
+        <v>361</v>
+      </c>
+      <c r="B189" t="s">
+        <v>362</v>
+      </c>
+      <c r="C189" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="A190" t="s">
+        <v>363</v>
+      </c>
+      <c r="B190" t="s">
+        <v>364</v>
+      </c>
+      <c r="C190" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
+      <c r="A191" t="s">
+        <v>365</v>
+      </c>
+      <c r="B191" t="s">
+        <v>366</v>
+      </c>
+      <c r="C191" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="A192" t="s">
+        <v>367</v>
+      </c>
+      <c r="B192" t="s">
+        <v>368</v>
+      </c>
+      <c r="C192" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2">
+      <c r="A193" t="s">
+        <v>369</v>
+      </c>
+      <c r="B193" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2">
+      <c r="A194" t="s">
+        <v>371</v>
+      </c>
+      <c r="B194" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2">
+      <c r="A195" t="s">
+        <v>373</v>
+      </c>
+      <c r="B195" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="A196" t="s">
+        <v>375</v>
+      </c>
+      <c r="B196" t="s">
+        <v>376</v>
+      </c>
+      <c r="C196" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
+      <c r="A197" t="s">
+        <v>377</v>
+      </c>
+      <c r="B197" t="s">
+        <v>378</v>
+      </c>
+      <c r="C197" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
+      <c r="A198" t="s">
+        <v>379</v>
+      </c>
+      <c r="B198" t="s">
+        <v>380</v>
+      </c>
+      <c r="C198" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
+      <c r="A199" t="s">
+        <v>381</v>
+      </c>
+      <c r="B199" t="s">
+        <v>382</v>
+      </c>
+      <c r="C199" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="A200" t="s">
+        <v>383</v>
+      </c>
+      <c r="B200" t="s">
+        <v>384</v>
+      </c>
+      <c r="C200" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
+      <c r="A201" t="s">
+        <v>385</v>
+      </c>
+      <c r="B201" t="s">
+        <v>386</v>
+      </c>
+      <c r="C201" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
+      <c r="A202" t="s">
+        <v>387</v>
+      </c>
+      <c r="B202" t="s">
+        <v>388</v>
+      </c>
+      <c r="C202" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2">
+      <c r="A203" t="s">
+        <v>389</v>
+      </c>
+      <c r="B203" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2">
+      <c r="A204" t="s">
+        <v>390</v>
+      </c>
+      <c r="B204" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2">
+      <c r="A205" t="s">
+        <v>392</v>
+      </c>
+      <c r="B205" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
+      <c r="A206" t="s">
+        <v>394</v>
+      </c>
+      <c r="B206" t="s">
+        <v>395</v>
+      </c>
+      <c r="C206" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2">
+      <c r="A207" t="s">
+        <v>397</v>
+      </c>
+      <c r="B207" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2">
+      <c r="A208" t="s">
+        <v>399</v>
+      </c>
+      <c r="B208" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2">
+      <c r="A209" t="s">
+        <v>401</v>
+      </c>
+      <c r="B209" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2">
+      <c r="A210" t="s">
+        <v>403</v>
+      </c>
+      <c r="B210" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2">
+      <c r="A211" t="s">
+        <v>405</v>
+      </c>
+      <c r="B211" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2">
+      <c r="A212" t="s">
+        <v>407</v>
+      </c>
+      <c r="B212" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2">
+      <c r="A213" t="s">
+        <v>409</v>
+      </c>
+      <c r="B213" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2">
+      <c r="A214" t="s">
+        <v>411</v>
+      </c>
+      <c r="B214" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3">
+      <c r="A215" t="s">
+        <v>413</v>
+      </c>
+      <c r="B215" t="s">
+        <v>414</v>
+      </c>
+      <c r="C215" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
+      <c r="A216" t="s">
+        <v>415</v>
+      </c>
+      <c r="B216" t="s">
+        <v>416</v>
+      </c>
+      <c r="C216" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3">
+      <c r="A217" t="s">
+        <v>417</v>
+      </c>
+      <c r="B217" t="s">
+        <v>418</v>
+      </c>
+      <c r="C217" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3">
+      <c r="A218" t="s">
+        <v>419</v>
+      </c>
+      <c r="B218" t="s">
+        <v>420</v>
+      </c>
+      <c r="C218" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3">
+      <c r="A219" t="s">
+        <v>421</v>
+      </c>
+      <c r="B219" t="s">
+        <v>422</v>
+      </c>
+      <c r="C219" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3">
+      <c r="A220" t="s">
+        <v>423</v>
+      </c>
+      <c r="B220" t="s">
+        <v>424</v>
+      </c>
+      <c r="C220" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3">
+      <c r="A221" t="s">
+        <v>425</v>
+      </c>
+      <c r="B221" t="s">
+        <v>426</v>
+      </c>
+      <c r="C221" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3">
+      <c r="A222" t="s">
+        <v>427</v>
+      </c>
+      <c r="B222" t="s">
+        <v>428</v>
+      </c>
+      <c r="C222" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3">
+      <c r="A223" t="s">
+        <v>429</v>
+      </c>
+      <c r="B223" t="s">
+        <v>430</v>
+      </c>
+      <c r="C223" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3">
+      <c r="A224" t="s">
+        <v>431</v>
+      </c>
+      <c r="B224" t="s">
+        <v>432</v>
+      </c>
+      <c r="C224" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2">
+      <c r="A225" t="s">
+        <v>433</v>
+      </c>
+      <c r="B225" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3">
+      <c r="A226" t="s">
+        <v>435</v>
+      </c>
+      <c r="B226" t="s">
+        <v>436</v>
+      </c>
+      <c r="C226" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3">
+      <c r="A227" t="s">
+        <v>437</v>
+      </c>
+      <c r="B227" t="s">
+        <v>438</v>
+      </c>
+      <c r="C227" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3">
+      <c r="A228" t="s">
+        <v>439</v>
+      </c>
+      <c r="B228" t="s">
+        <v>440</v>
+      </c>
+      <c r="C228" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3">
+      <c r="A229" t="s">
+        <v>441</v>
+      </c>
+      <c r="B229" t="s">
+        <v>442</v>
+      </c>
+      <c r="C229" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3">
+      <c r="A230" t="s">
+        <v>443</v>
+      </c>
+      <c r="B230" t="s">
+        <v>444</v>
+      </c>
+      <c r="C230" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3">
+      <c r="A231" t="s">
+        <v>445</v>
+      </c>
+      <c r="B231" t="s">
+        <v>446</v>
+      </c>
+      <c r="C231" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3">
+      <c r="A232" t="s">
+        <v>447</v>
+      </c>
+      <c r="B232" t="s">
+        <v>448</v>
+      </c>
+      <c r="C232" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3">
+      <c r="A233" t="s">
+        <v>449</v>
+      </c>
+      <c r="B233" t="s">
+        <v>450</v>
+      </c>
+      <c r="C233" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2">
+      <c r="A234" t="s">
+        <v>451</v>
+      </c>
+      <c r="B234" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2">
+      <c r="A235" t="s">
+        <v>453</v>
+      </c>
+      <c r="B235" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2">
+      <c r="A236" t="s">
+        <v>455</v>
+      </c>
+      <c r="B236" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3">
+      <c r="A237" t="s">
+        <v>457</v>
+      </c>
+      <c r="B237" t="s">
+        <v>458</v>
+      </c>
+      <c r="C237" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2">
+      <c r="A238" t="s">
+        <v>459</v>
+      </c>
+      <c r="B238" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3">
+      <c r="A239" t="s">
+        <v>461</v>
+      </c>
+      <c r="B239" t="s">
+        <v>462</v>
+      </c>
+      <c r="C239" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3">
+      <c r="A240" t="s">
+        <v>463</v>
+      </c>
+      <c r="B240" t="s">
+        <v>464</v>
+      </c>
+      <c r="C240" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3">
+      <c r="A241" t="s">
+        <v>465</v>
+      </c>
+      <c r="B241" t="s">
+        <v>466</v>
+      </c>
+      <c r="C241" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3">
+      <c r="A242" t="s">
+        <v>467</v>
+      </c>
+      <c r="B242" t="s">
+        <v>468</v>
+      </c>
+      <c r="C242" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3">
+      <c r="A243" t="s">
+        <v>469</v>
+      </c>
+      <c r="B243" t="s">
+        <v>470</v>
+      </c>
+      <c r="C243" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3">
+      <c r="A244" t="s">
+        <v>471</v>
+      </c>
+      <c r="B244" t="s">
+        <v>472</v>
+      </c>
+      <c r="C244" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3">
+      <c r="A245" t="s">
+        <v>474</v>
+      </c>
+      <c r="B245" t="s">
+        <v>475</v>
+      </c>
+      <c r="C245" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3">
+      <c r="A246" t="s">
+        <v>476</v>
+      </c>
+      <c r="B246" t="s">
+        <v>477</v>
+      </c>
+      <c r="C246" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3">
+      <c r="A247" t="s">
+        <v>478</v>
+      </c>
+      <c r="B247" t="s">
+        <v>479</v>
+      </c>
+      <c r="C247" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3">
+      <c r="A248" t="s">
+        <v>480</v>
+      </c>
+      <c r="B248" t="s">
+        <v>481</v>
+      </c>
+      <c r="C248" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3">
+      <c r="A249" t="s">
+        <v>482</v>
+      </c>
+      <c r="B249" t="s">
+        <v>483</v>
+      </c>
+      <c r="C249" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3">
+      <c r="A250" t="s">
+        <v>484</v>
+      </c>
+      <c r="B250" t="s">
+        <v>485</v>
+      </c>
+      <c r="C250" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3">
+      <c r="A251" t="s">
+        <v>486</v>
+      </c>
+      <c r="B251" t="s">
+        <v>487</v>
+      </c>
+      <c r="C251" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3">
+      <c r="A252" t="s">
+        <v>488</v>
+      </c>
+      <c r="B252" t="s">
+        <v>489</v>
+      </c>
+      <c r="C252" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3">
+      <c r="A253" t="s">
+        <v>490</v>
+      </c>
+      <c r="B253" t="s">
+        <v>491</v>
+      </c>
+      <c r="C253" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3">
+      <c r="A254" t="s">
+        <v>492</v>
+      </c>
+      <c r="B254" t="s">
+        <v>493</v>
+      </c>
+      <c r="C254" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3">
+      <c r="A255" t="s">
+        <v>494</v>
+      </c>
+      <c r="B255" t="s">
+        <v>495</v>
+      </c>
+      <c r="C255" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3">
+      <c r="A256" t="s">
+        <v>496</v>
+      </c>
+      <c r="B256" t="s">
+        <v>497</v>
+      </c>
+      <c r="C256" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3">
+      <c r="A257" t="s">
+        <v>498</v>
+      </c>
+      <c r="B257" t="s">
+        <v>499</v>
+      </c>
+      <c r="C257" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3">
+      <c r="A258" t="s">
+        <v>500</v>
+      </c>
+      <c r="B258" t="s">
+        <v>501</v>
+      </c>
+      <c r="C258" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3">
+      <c r="A259" t="s">
+        <v>502</v>
+      </c>
+      <c r="B259" t="s">
+        <v>503</v>
+      </c>
+      <c r="C259" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3">
+      <c r="A260" t="s">
+        <v>504</v>
+      </c>
+      <c r="B260" t="s">
+        <v>505</v>
+      </c>
+      <c r="C260" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3">
+      <c r="A261" t="s">
+        <v>506</v>
+      </c>
+      <c r="B261" t="s">
+        <v>507</v>
+      </c>
+      <c r="C261" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3">
+      <c r="A262" t="s">
+        <v>508</v>
+      </c>
+      <c r="B262" t="s">
+        <v>509</v>
+      </c>
+      <c r="C262" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3">
+      <c r="A263" t="s">
+        <v>510</v>
+      </c>
+      <c r="B263" t="s">
+        <v>511</v>
+      </c>
+      <c r="C263" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3">
+      <c r="A264" t="s">
+        <v>512</v>
+      </c>
+      <c r="B264" t="s">
+        <v>513</v>
+      </c>
+      <c r="C264" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3">
+      <c r="A265" t="s">
+        <v>514</v>
+      </c>
+      <c r="B265" t="s">
+        <v>515</v>
+      </c>
+      <c r="C265" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3">
+      <c r="A266" t="s">
+        <v>516</v>
+      </c>
+      <c r="B266" t="s">
+        <v>517</v>
+      </c>
+      <c r="C266" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3">
+      <c r="A267" t="s">
+        <v>518</v>
+      </c>
+      <c r="B267" t="s">
+        <v>519</v>
+      </c>
+      <c r="C267" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3">
+      <c r="A268" t="s">
+        <v>520</v>
+      </c>
+      <c r="B268" t="s">
+        <v>521</v>
+      </c>
+      <c r="C268" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3">
+      <c r="A269" t="s">
+        <v>522</v>
+      </c>
+      <c r="B269" t="s">
+        <v>523</v>
+      </c>
+      <c r="C269" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3">
+      <c r="A270" t="s">
+        <v>524</v>
+      </c>
+      <c r="B270" t="s">
+        <v>525</v>
+      </c>
+      <c r="C270" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3">
+      <c r="A271" t="s">
+        <v>526</v>
+      </c>
+      <c r="B271" t="s">
+        <v>527</v>
+      </c>
+      <c r="C271" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3">
+      <c r="A272" t="s">
+        <v>528</v>
+      </c>
+      <c r="B272" t="s">
+        <v>529</v>
+      </c>
+      <c r="C272" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3">
+      <c r="A273" t="s">
+        <v>530</v>
+      </c>
+      <c r="B273" t="s">
+        <v>531</v>
+      </c>
+      <c r="C273" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3">
+      <c r="A274" t="s">
+        <v>532</v>
+      </c>
+      <c r="B274" t="s">
+        <v>533</v>
+      </c>
+      <c r="C274" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3">
+      <c r="A275" t="s">
+        <v>534</v>
+      </c>
+      <c r="B275" t="s">
+        <v>535</v>
+      </c>
+      <c r="C275" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3">
+      <c r="A276" t="s">
+        <v>536</v>
+      </c>
+      <c r="B276" t="s">
+        <v>537</v>
+      </c>
+      <c r="C276" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3">
+      <c r="A277" t="s">
+        <v>538</v>
+      </c>
+      <c r="B277" t="s">
+        <v>539</v>
+      </c>
+      <c r="C277" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3">
+      <c r="A278" t="s">
+        <v>540</v>
+      </c>
+      <c r="B278" t="s">
+        <v>541</v>
+      </c>
+      <c r="C278" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3">
+      <c r="A279" t="s">
+        <v>542</v>
+      </c>
+      <c r="B279" t="s">
+        <v>543</v>
+      </c>
+      <c r="C279" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3">
+      <c r="A280" t="s">
+        <v>544</v>
+      </c>
+      <c r="B280" t="s">
+        <v>545</v>
+      </c>
+      <c r="C280" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3">
+      <c r="A281" t="s">
+        <v>546</v>
+      </c>
+      <c r="B281" t="s">
+        <v>547</v>
+      </c>
+      <c r="C281" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3">
+      <c r="A282" t="s">
+        <v>548</v>
+      </c>
+      <c r="B282" t="s">
+        <v>549</v>
+      </c>
+      <c r="C282" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3">
+      <c r="A283" t="s">
+        <v>550</v>
+      </c>
+      <c r="B283" t="s">
+        <v>551</v>
+      </c>
+      <c r="C283" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3">
+      <c r="A284" t="s">
+        <v>552</v>
+      </c>
+      <c r="B284" t="s">
+        <v>553</v>
+      </c>
+      <c r="C284" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3">
+      <c r="A285" t="s">
+        <v>554</v>
+      </c>
+      <c r="B285" t="s">
+        <v>555</v>
+      </c>
+      <c r="C285" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3">
+      <c r="A286" t="s">
+        <v>556</v>
+      </c>
+      <c r="B286" t="s">
+        <v>557</v>
+      </c>
+      <c r="C286" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3">
+      <c r="A287" t="s">
+        <v>558</v>
+      </c>
+      <c r="B287" t="s">
+        <v>559</v>
+      </c>
+      <c r="C287" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3">
+      <c r="A288" t="s">
+        <v>560</v>
+      </c>
+      <c r="B288" t="s">
+        <v>561</v>
+      </c>
+      <c r="C288" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3">
+      <c r="A289" t="s">
+        <v>562</v>
+      </c>
+      <c r="B289" t="s">
+        <v>563</v>
+      </c>
+      <c r="C289" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3">
+      <c r="A290" t="s">
+        <v>564</v>
+      </c>
+      <c r="B290" t="s">
+        <v>565</v>
+      </c>
+      <c r="C290" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3">
+      <c r="A291" t="s">
+        <v>566</v>
+      </c>
+      <c r="B291" t="s">
+        <v>567</v>
+      </c>
+      <c r="C291" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3">
+      <c r="A292" t="s">
+        <v>568</v>
+      </c>
+      <c r="B292" t="s">
+        <v>569</v>
+      </c>
+      <c r="C292" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3">
+      <c r="A293" t="s">
+        <v>570</v>
+      </c>
+      <c r="B293" t="s">
+        <v>571</v>
+      </c>
+      <c r="C293" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3">
+      <c r="A294" t="s">
+        <v>572</v>
+      </c>
+      <c r="B294" t="s">
+        <v>573</v>
+      </c>
+      <c r="C294" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3">
+      <c r="A295" t="s">
+        <v>574</v>
+      </c>
+      <c r="B295" t="s">
+        <v>575</v>
+      </c>
+      <c r="C295" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3">
+      <c r="A296" t="s">
+        <v>576</v>
+      </c>
+      <c r="B296" t="s">
+        <v>577</v>
+      </c>
+      <c r="C296" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3">
+      <c r="A297" t="s">
+        <v>578</v>
+      </c>
+      <c r="B297" t="s">
+        <v>579</v>
+      </c>
+      <c r="C297" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3">
+      <c r="A298" t="s">
+        <v>580</v>
+      </c>
+      <c r="B298" t="s">
+        <v>581</v>
+      </c>
+      <c r="C298" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3">
+      <c r="A299" t="s">
+        <v>582</v>
+      </c>
+      <c r="B299" t="s">
+        <v>555</v>
+      </c>
+      <c r="C299" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3">
+      <c r="A300" t="s">
+        <v>583</v>
+      </c>
+      <c r="B300" t="s">
+        <v>584</v>
+      </c>
+      <c r="C300" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3">
+      <c r="A301" t="s">
+        <v>585</v>
+      </c>
+      <c r="B301" t="s">
+        <v>586</v>
+      </c>
+      <c r="C301" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3">
+      <c r="A302" t="s">
+        <v>587</v>
+      </c>
+      <c r="B302" t="s">
+        <v>588</v>
+      </c>
+      <c r="C302" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3">
+      <c r="A303" t="s">
+        <v>589</v>
+      </c>
+      <c r="B303" t="s">
+        <v>590</v>
+      </c>
+      <c r="C303" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3">
+      <c r="A304" t="s">
+        <v>591</v>
+      </c>
+      <c r="B304" t="s">
+        <v>592</v>
+      </c>
+      <c r="C304" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3">
+      <c r="A305" t="s">
+        <v>593</v>
+      </c>
+      <c r="B305" t="s">
+        <v>594</v>
+      </c>
+      <c r="C305" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3">
+      <c r="A306" t="s">
+        <v>595</v>
+      </c>
+      <c r="B306" t="s">
+        <v>596</v>
+      </c>
+      <c r="C306" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3">
+      <c r="A307" t="s">
+        <v>597</v>
+      </c>
+      <c r="B307" t="s">
+        <v>598</v>
+      </c>
+      <c r="C307" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3">
+      <c r="A308" t="s">
+        <v>599</v>
+      </c>
+      <c r="B308" t="s">
+        <v>600</v>
+      </c>
+      <c r="C308" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3">
+      <c r="A309" t="s">
+        <v>601</v>
+      </c>
+      <c r="B309" t="s">
+        <v>602</v>
+      </c>
+      <c r="C309" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3">
+      <c r="A310" t="s">
+        <v>603</v>
+      </c>
+      <c r="B310" t="s">
+        <v>604</v>
+      </c>
+      <c r="C310" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3">
+      <c r="A311" t="s">
+        <v>605</v>
+      </c>
+      <c r="B311" t="s">
+        <v>606</v>
+      </c>
+      <c r="C311" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3">
+      <c r="A312" t="s">
+        <v>607</v>
+      </c>
+      <c r="B312" t="s">
+        <v>608</v>
+      </c>
+      <c r="C312" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3">
+      <c r="A313" t="s">
+        <v>609</v>
+      </c>
+      <c r="B313" t="s">
+        <v>610</v>
+      </c>
+      <c r="C313" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3">
+      <c r="A314" t="s">
+        <v>611</v>
+      </c>
+      <c r="B314" t="s">
+        <v>612</v>
+      </c>
+      <c r="C314" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3">
+      <c r="A315" t="s">
+        <v>613</v>
+      </c>
+      <c r="B315" t="s">
+        <v>614</v>
+      </c>
+      <c r="C315" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3">
+      <c r="A316" t="s">
+        <v>615</v>
+      </c>
+      <c r="B316" t="s">
+        <v>616</v>
+      </c>
+      <c r="C316" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3">
+      <c r="A317" t="s">
+        <v>617</v>
+      </c>
+      <c r="B317" t="s">
+        <v>618</v>
+      </c>
+      <c r="C317" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3">
+      <c r="A318" t="s">
+        <v>619</v>
+      </c>
+      <c r="B318" t="s">
+        <v>620</v>
+      </c>
+      <c r="C318" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3">
+      <c r="A319" t="s">
+        <v>621</v>
+      </c>
+      <c r="B319" t="s">
+        <v>622</v>
+      </c>
+      <c r="C319" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3">
+      <c r="A320" t="s">
+        <v>623</v>
+      </c>
+      <c r="B320" t="s">
+        <v>624</v>
+      </c>
+      <c r="C320" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3">
+      <c r="A321" t="s">
+        <v>625</v>
+      </c>
+      <c r="B321" t="s">
+        <v>626</v>
+      </c>
+      <c r="C321" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3">
+      <c r="A322" t="s">
+        <v>627</v>
+      </c>
+      <c r="B322" t="s">
+        <v>628</v>
+      </c>
+      <c r="C322" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3">
+      <c r="A323" t="s">
+        <v>629</v>
+      </c>
+      <c r="B323" t="s">
+        <v>630</v>
+      </c>
+      <c r="C323" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3">
+      <c r="A324" t="s">
+        <v>631</v>
+      </c>
+      <c r="B324" t="s">
+        <v>632</v>
+      </c>
+      <c r="C324" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3">
+      <c r="A325" t="s">
+        <v>633</v>
+      </c>
+      <c r="B325" t="s">
+        <v>634</v>
+      </c>
+      <c r="C325" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3">
+      <c r="A326" t="s">
+        <v>635</v>
+      </c>
+      <c r="B326" t="s">
+        <v>636</v>
+      </c>
+      <c r="C326" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3">
+      <c r="A327" t="s">
+        <v>637</v>
+      </c>
+      <c r="B327" t="s">
+        <v>638</v>
+      </c>
+      <c r="C327" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3">
+      <c r="A328" t="s">
+        <v>639</v>
+      </c>
+      <c r="B328" t="s">
+        <v>640</v>
+      </c>
+      <c r="C328" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3">
+      <c r="A329" t="s">
+        <v>641</v>
+      </c>
+      <c r="B329" t="s">
+        <v>642</v>
+      </c>
+      <c r="C329" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3">
+      <c r="A330" t="s">
+        <v>643</v>
+      </c>
+      <c r="B330" t="s">
+        <v>644</v>
+      </c>
+      <c r="C330" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3">
+      <c r="A331" t="s">
+        <v>645</v>
+      </c>
+      <c r="B331" t="s">
+        <v>646</v>
+      </c>
+      <c r="C331" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3">
+      <c r="A332" t="s">
+        <v>647</v>
+      </c>
+      <c r="B332" t="s">
+        <v>648</v>
+      </c>
+      <c r="C332" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3">
+      <c r="A333" t="s">
+        <v>649</v>
+      </c>
+      <c r="B333" t="s">
+        <v>650</v>
+      </c>
+      <c r="C333" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3">
+      <c r="A334" t="s">
+        <v>651</v>
+      </c>
+      <c r="B334" t="s">
+        <v>652</v>
+      </c>
+      <c r="C334" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3">
+      <c r="A335" t="s">
+        <v>653</v>
+      </c>
+      <c r="B335" t="s">
+        <v>654</v>
+      </c>
+      <c r="C335" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3">
+      <c r="A336" t="s">
+        <v>655</v>
+      </c>
+      <c r="B336" t="s">
+        <v>656</v>
+      </c>
+      <c r="C336" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3">
+      <c r="A337" t="s">
+        <v>657</v>
+      </c>
+      <c r="B337" t="s">
+        <v>658</v>
+      </c>
+      <c r="C337" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2">
+      <c r="A338" t="s">
+        <v>659</v>
+      </c>
+      <c r="B338" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2">
+      <c r="A339" t="s">
+        <v>661</v>
+      </c>
+      <c r="B339" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3">
+      <c r="A340" t="s">
+        <v>663</v>
+      </c>
+      <c r="B340" t="s">
+        <v>664</v>
+      </c>
+      <c r="C340" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3">
+      <c r="A341" t="s">
+        <v>665</v>
+      </c>
+      <c r="B341" t="s">
+        <v>666</v>
+      </c>
+      <c r="C341" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3">
+      <c r="A342" t="s">
+        <v>667</v>
+      </c>
+      <c r="B342" t="s">
+        <v>668</v>
+      </c>
+      <c r="C342" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3">
+      <c r="A343" t="s">
+        <v>669</v>
+      </c>
+      <c r="B343" t="s">
+        <v>670</v>
+      </c>
+      <c r="C343" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3">
+      <c r="A344" t="s">
+        <v>671</v>
+      </c>
+      <c r="B344" t="s">
+        <v>672</v>
+      </c>
+      <c r="C344" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3">
+      <c r="A345" t="s">
+        <v>673</v>
+      </c>
+      <c r="B345" t="s">
+        <v>674</v>
+      </c>
+      <c r="C345" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3">
+      <c r="A346" t="s">
+        <v>675</v>
+      </c>
+      <c r="B346" t="s">
+        <v>676</v>
+      </c>
+      <c r="C346" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3">
+      <c r="A347" t="s">
+        <v>677</v>
+      </c>
+      <c r="B347" t="s">
+        <v>678</v>
+      </c>
+      <c r="C347" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3">
+      <c r="A348" t="s">
+        <v>679</v>
+      </c>
+      <c r="B348" t="s">
+        <v>680</v>
+      </c>
+      <c r="C348" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3">
+      <c r="A349" t="s">
+        <v>681</v>
+      </c>
+      <c r="B349" t="s">
+        <v>682</v>
+      </c>
+      <c r="C349" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3">
+      <c r="A350" t="s">
+        <v>683</v>
+      </c>
+      <c r="B350" t="s">
+        <v>684</v>
+      </c>
+      <c r="C350" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3">
+      <c r="A351" t="s">
+        <v>685</v>
+      </c>
+      <c r="B351" t="s">
+        <v>686</v>
+      </c>
+      <c r="C351" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3">
+      <c r="A352" t="s">
+        <v>687</v>
+      </c>
+      <c r="B352" t="s">
+        <v>688</v>
+      </c>
+      <c r="C352" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2">
+      <c r="A353" t="s">
+        <v>689</v>
+      </c>
+      <c r="B353" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3">
+      <c r="A354" t="s">
+        <v>691</v>
+      </c>
+      <c r="B354" t="s">
+        <v>692</v>
+      </c>
+      <c r="C354" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3">
+      <c r="A355" t="s">
+        <v>693</v>
+      </c>
+      <c r="B355" t="s">
+        <v>694</v>
+      </c>
+      <c r="C355" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3">
+      <c r="A356" t="s">
+        <v>695</v>
+      </c>
+      <c r="B356" t="s">
+        <v>696</v>
+      </c>
+      <c r="C356" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3">
+      <c r="A357" t="s">
+        <v>697</v>
+      </c>
+      <c r="B357" t="s">
+        <v>698</v>
+      </c>
+      <c r="C357" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3">
+      <c r="A358" t="s">
+        <v>699</v>
+      </c>
+      <c r="B358" t="s">
+        <v>700</v>
+      </c>
+      <c r="C358" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3">
+      <c r="A359" t="s">
+        <v>701</v>
+      </c>
+      <c r="B359" t="s">
+        <v>702</v>
+      </c>
+      <c r="C359" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3">
+      <c r="A360" t="s">
+        <v>703</v>
+      </c>
+      <c r="B360" t="s">
+        <v>704</v>
+      </c>
+      <c r="C360" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3">
+      <c r="A361" t="s">
+        <v>705</v>
+      </c>
+      <c r="B361" t="s">
+        <v>706</v>
+      </c>
+      <c r="C361" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3">
+      <c r="A362" t="s">
+        <v>707</v>
+      </c>
+      <c r="B362" t="s">
+        <v>708</v>
+      </c>
+      <c r="C362" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3">
+      <c r="A363" t="s">
+        <v>709</v>
+      </c>
+      <c r="B363" t="s">
+        <v>710</v>
+      </c>
+      <c r="C363" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3">
+      <c r="A364" t="s">
+        <v>711</v>
+      </c>
+      <c r="B364" t="s">
+        <v>712</v>
+      </c>
+      <c r="C364" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3">
+      <c r="A365" t="s">
+        <v>713</v>
+      </c>
+      <c r="B365" t="s">
+        <v>714</v>
+      </c>
+      <c r="C365" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3">
+      <c r="A366" t="s">
+        <v>715</v>
+      </c>
+      <c r="B366" t="s">
+        <v>716</v>
+      </c>
+      <c r="C366" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3">
+      <c r="A367" t="s">
+        <v>717</v>
+      </c>
+      <c r="B367" t="s">
+        <v>718</v>
+      </c>
+      <c r="C367" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3">
+      <c r="A368" t="s">
+        <v>719</v>
+      </c>
+      <c r="B368" t="s">
+        <v>720</v>
+      </c>
+      <c r="C368" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3">
+      <c r="A369" t="s">
+        <v>721</v>
+      </c>
+      <c r="B369" t="s">
+        <v>722</v>
+      </c>
+      <c r="C369" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3">
+      <c r="A370" t="s">
+        <v>723</v>
+      </c>
+      <c r="B370" t="s">
+        <v>724</v>
+      </c>
+      <c r="C370" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3">
+      <c r="A371" t="s">
+        <v>725</v>
+      </c>
+      <c r="B371" t="s">
+        <v>726</v>
+      </c>
+      <c r="C371" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3">
+      <c r="A372" t="s">
+        <v>727</v>
+      </c>
+      <c r="B372" t="s">
+        <v>728</v>
+      </c>
+      <c r="C372" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3">
+      <c r="A373" t="s">
+        <v>729</v>
+      </c>
+      <c r="B373" t="s">
+        <v>730</v>
+      </c>
+      <c r="C373" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3">
+      <c r="A374" t="s">
+        <v>731</v>
+      </c>
+      <c r="B374" t="s">
+        <v>732</v>
+      </c>
+      <c r="C374" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3">
+      <c r="A375" t="s">
+        <v>733</v>
+      </c>
+      <c r="B375" t="s">
+        <v>734</v>
+      </c>
+      <c r="C375" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3">
+      <c r="A376" t="s">
+        <v>735</v>
+      </c>
+      <c r="B376" t="s">
+        <v>736</v>
+      </c>
+      <c r="C376" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3">
+      <c r="A377" t="s">
+        <v>737</v>
+      </c>
+      <c r="B377" t="s">
+        <v>738</v>
+      </c>
+      <c r="C377" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3">
+      <c r="A378" t="s">
+        <v>739</v>
+      </c>
+      <c r="B378" t="s">
+        <v>740</v>
+      </c>
+      <c r="C378" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3">
+      <c r="A379" t="s">
+        <v>741</v>
+      </c>
+      <c r="B379" t="s">
+        <v>742</v>
+      </c>
+      <c r="C379" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3">
+      <c r="A380" t="s">
+        <v>743</v>
+      </c>
+      <c r="B380" t="s">
+        <v>744</v>
+      </c>
+      <c r="C380" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3">
+      <c r="A381" t="s">
+        <v>745</v>
+      </c>
+      <c r="B381" t="s">
+        <v>746</v>
+      </c>
+      <c r="C381" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3">
+      <c r="A382" t="s">
+        <v>747</v>
+      </c>
+      <c r="B382" t="s">
+        <v>748</v>
+      </c>
+      <c r="C382" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3">
+      <c r="A383" t="s">
+        <v>749</v>
+      </c>
+      <c r="B383" t="s">
+        <v>750</v>
+      </c>
+      <c r="C383" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3">
+      <c r="A384" t="s">
+        <v>751</v>
+      </c>
+      <c r="B384" t="s">
+        <v>752</v>
+      </c>
+      <c r="C384" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3">
+      <c r="A385" t="s">
+        <v>753</v>
+      </c>
+      <c r="B385" t="s">
+        <v>754</v>
+      </c>
+      <c r="C385" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3">
+      <c r="A386" t="s">
+        <v>755</v>
+      </c>
+      <c r="B386" t="s">
+        <v>756</v>
+      </c>
+      <c r="C386" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3">
+      <c r="A387" t="s">
+        <v>757</v>
+      </c>
+      <c r="B387" t="s">
+        <v>758</v>
+      </c>
+      <c r="C387" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3">
+      <c r="A388" t="s">
+        <v>759</v>
+      </c>
+      <c r="B388" t="s">
+        <v>760</v>
+      </c>
+      <c r="C388" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3">
+      <c r="A389" t="s">
+        <v>761</v>
+      </c>
+      <c r="B389" t="s">
+        <v>762</v>
+      </c>
+      <c r="C389" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3">
+      <c r="A390" t="s">
+        <v>763</v>
+      </c>
+      <c r="B390" t="s">
+        <v>764</v>
+      </c>
+      <c r="C390" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3">
+      <c r="A391" t="s">
+        <v>765</v>
+      </c>
+      <c r="B391" t="s">
+        <v>766</v>
+      </c>
+      <c r="C391" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3">
+      <c r="A392" t="s">
+        <v>767</v>
+      </c>
+      <c r="B392" t="s">
+        <v>768</v>
+      </c>
+      <c r="C392" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3">
+      <c r="A393" t="s">
+        <v>769</v>
+      </c>
+      <c r="B393" t="s">
+        <v>770</v>
+      </c>
+      <c r="C393" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3">
+      <c r="A394" t="s">
+        <v>771</v>
+      </c>
+      <c r="B394" t="s">
+        <v>772</v>
+      </c>
+      <c r="C394" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3">
+      <c r="A395" t="s">
+        <v>773</v>
+      </c>
+      <c r="B395" t="s">
+        <v>774</v>
+      </c>
+      <c r="C395" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3">
+      <c r="A396" t="s">
+        <v>775</v>
+      </c>
+      <c r="B396" t="s">
+        <v>776</v>
+      </c>
+      <c r="C396" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3">
+      <c r="A397" t="s">
+        <v>777</v>
+      </c>
+      <c r="B397" t="s">
+        <v>778</v>
+      </c>
+      <c r="C397" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3">
+      <c r="A398" t="s">
+        <v>779</v>
+      </c>
+      <c r="B398" t="s">
+        <v>780</v>
+      </c>
+      <c r="C398" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3">
+      <c r="A399" t="s">
+        <v>781</v>
+      </c>
+      <c r="B399" t="s">
+        <v>782</v>
+      </c>
+      <c r="C399" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3">
+      <c r="A400" t="s">
+        <v>783</v>
+      </c>
+      <c r="B400" t="s">
+        <v>784</v>
+      </c>
+      <c r="C400" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3">
+      <c r="A401" t="s">
+        <v>785</v>
+      </c>
+      <c r="B401" t="s">
+        <v>786</v>
+      </c>
+      <c r="C401" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3">
+      <c r="A402" t="s">
+        <v>787</v>
+      </c>
+      <c r="B402" t="s">
+        <v>788</v>
+      </c>
+      <c r="C402" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3">
+      <c r="A403" t="s">
+        <v>789</v>
+      </c>
+      <c r="B403" t="s">
+        <v>790</v>
+      </c>
+      <c r="C403" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3">
+      <c r="A404" t="s">
+        <v>791</v>
+      </c>
+      <c r="B404" t="s">
+        <v>792</v>
+      </c>
+      <c r="C404" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3">
+      <c r="A405" t="s">
+        <v>793</v>
+      </c>
+      <c r="B405" t="s">
+        <v>794</v>
+      </c>
+      <c r="C405" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3">
+      <c r="A406" t="s">
+        <v>795</v>
+      </c>
+      <c r="B406" t="s">
+        <v>796</v>
+      </c>
+      <c r="C406" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3">
+      <c r="A407" t="s">
+        <v>797</v>
+      </c>
+      <c r="B407" t="s">
+        <v>798</v>
+      </c>
+      <c r="C407" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3">
+      <c r="A408" t="s">
+        <v>799</v>
+      </c>
+      <c r="B408" t="s">
+        <v>800</v>
+      </c>
+      <c r="C408" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3">
+      <c r="A409" t="s">
+        <v>801</v>
+      </c>
+      <c r="B409" t="s">
+        <v>802</v>
+      </c>
+      <c r="C409" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3">
+      <c r="A410" t="s">
+        <v>803</v>
+      </c>
+      <c r="B410" t="s">
+        <v>804</v>
+      </c>
+      <c r="C410" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3">
+      <c r="A411" t="s">
+        <v>805</v>
+      </c>
+      <c r="B411" t="s">
+        <v>806</v>
+      </c>
+      <c r="C411" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3">
+      <c r="A412" t="s">
+        <v>807</v>
+      </c>
+      <c r="B412" t="s">
+        <v>808</v>
+      </c>
+      <c r="C412" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3">
+      <c r="A413" t="s">
+        <v>809</v>
+      </c>
+      <c r="B413" t="s">
+        <v>810</v>
+      </c>
+      <c r="C413" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3">
+      <c r="A414" t="s">
+        <v>811</v>
+      </c>
+      <c r="B414" t="s">
+        <v>812</v>
+      </c>
+      <c r="C414" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3">
+      <c r="A415" t="s">
+        <v>813</v>
+      </c>
+      <c r="B415" t="s">
+        <v>814</v>
+      </c>
+      <c r="C415" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3">
+      <c r="A416" t="s">
+        <v>815</v>
+      </c>
+      <c r="B416" t="s">
+        <v>816</v>
+      </c>
+      <c r="C416" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3">
+      <c r="A417" t="s">
+        <v>817</v>
+      </c>
+      <c r="B417" t="s">
+        <v>818</v>
+      </c>
+      <c r="C417" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3">
+      <c r="A418" t="s">
+        <v>819</v>
+      </c>
+      <c r="B418" t="s">
+        <v>820</v>
+      </c>
+      <c r="C418" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3">
+      <c r="A419" t="s">
+        <v>821</v>
+      </c>
+      <c r="B419" t="s">
+        <v>822</v>
+      </c>
+      <c r="C419" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3">
+      <c r="A420" t="s">
+        <v>823</v>
+      </c>
+      <c r="B420" t="s">
+        <v>824</v>
+      </c>
+      <c r="C420" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3">
+      <c r="A421" t="s">
+        <v>825</v>
+      </c>
+      <c r="B421" t="s">
+        <v>826</v>
+      </c>
+      <c r="C421" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3">
+      <c r="A422" t="s">
+        <v>827</v>
+      </c>
+      <c r="B422" t="s">
+        <v>828</v>
+      </c>
+      <c r="C422" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3">
+      <c r="A423" t="s">
+        <v>829</v>
+      </c>
+      <c r="B423" t="s">
+        <v>830</v>
+      </c>
+      <c r="C423" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3">
+      <c r="A424" t="s">
+        <v>831</v>
+      </c>
+      <c r="B424" t="s">
+        <v>832</v>
+      </c>
+      <c r="C424" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3">
+      <c r="A425" t="s">
+        <v>833</v>
+      </c>
+      <c r="B425" t="s">
+        <v>834</v>
+      </c>
+      <c r="C425" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3">
+      <c r="A426" t="s">
+        <v>835</v>
+      </c>
+      <c r="B426" t="s">
+        <v>836</v>
+      </c>
+      <c r="C426" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3">
+      <c r="A427" t="s">
+        <v>837</v>
+      </c>
+      <c r="B427" t="s">
+        <v>836</v>
+      </c>
+      <c r="C427" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3">
+      <c r="A428" t="s">
+        <v>838</v>
+      </c>
+      <c r="B428" t="s">
+        <v>839</v>
+      </c>
+      <c r="C428" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3">
+      <c r="A429" t="s">
+        <v>840</v>
+      </c>
+      <c r="B429" t="s">
+        <v>841</v>
+      </c>
+      <c r="C429" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3">
+      <c r="A430" t="s">
+        <v>842</v>
+      </c>
+      <c r="B430" t="s">
+        <v>843</v>
+      </c>
+      <c r="C430" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3">
+      <c r="A431" t="s">
+        <v>844</v>
+      </c>
+      <c r="B431" t="s">
+        <v>845</v>
+      </c>
+      <c r="C431" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3">
+      <c r="A432" t="s">
+        <v>846</v>
+      </c>
+      <c r="B432" t="s">
+        <v>847</v>
+      </c>
+      <c r="C432" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3">
+      <c r="A433" t="s">
+        <v>848</v>
+      </c>
+      <c r="B433" t="s">
+        <v>849</v>
+      </c>
+      <c r="C433" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3">
+      <c r="A434" t="s">
+        <v>850</v>
+      </c>
+      <c r="B434" t="s">
+        <v>851</v>
+      </c>
+      <c r="C434" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3">
+      <c r="A435" t="s">
+        <v>852</v>
+      </c>
+      <c r="B435" t="s">
+        <v>853</v>
+      </c>
+      <c r="C435" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3">
+      <c r="A436" t="s">
+        <v>854</v>
+      </c>
+      <c r="B436" t="s">
+        <v>855</v>
+      </c>
+      <c r="C436" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3">
+      <c r="A437" t="s">
+        <v>856</v>
+      </c>
+      <c r="B437" t="s">
+        <v>857</v>
+      </c>
+      <c r="C437" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3">
+      <c r="A438" t="s">
+        <v>858</v>
+      </c>
+      <c r="B438" t="s">
+        <v>859</v>
+      </c>
+      <c r="C438" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3">
+      <c r="A439" t="s">
+        <v>860</v>
+      </c>
+      <c r="B439" t="s">
+        <v>861</v>
+      </c>
+      <c r="C439" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3">
+      <c r="A440" t="s">
+        <v>862</v>
+      </c>
+      <c r="B440" t="s">
+        <v>863</v>
+      </c>
+      <c r="C440" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3">
+      <c r="A441" t="s">
+        <v>864</v>
+      </c>
+      <c r="B441" t="s">
+        <v>865</v>
+      </c>
+      <c r="C441" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3">
+      <c r="A442" t="s">
+        <v>866</v>
+      </c>
+      <c r="B442" t="s">
+        <v>867</v>
+      </c>
+      <c r="C442" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3">
+      <c r="A443" t="s">
+        <v>868</v>
+      </c>
+      <c r="B443" t="s">
+        <v>869</v>
+      </c>
+      <c r="C443" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3">
+      <c r="A444" t="s">
+        <v>870</v>
+      </c>
+      <c r="B444" t="s">
+        <v>871</v>
+      </c>
+      <c r="C444" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3">
+      <c r="A445" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B445" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C445" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3">
+      <c r="A446" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B446" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C446" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3">
+      <c r="A447" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B447" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C447" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3">
+      <c r="A448" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B448" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C448" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3">
+      <c r="A449" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B449" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C449" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3">
+      <c r="A450" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B450" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C450" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3">
+      <c r="A451" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B451" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C451" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3">
+      <c r="A452" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B452" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C452" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3">
+      <c r="A453" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B453" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C453" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3">
+      <c r="A454" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B454" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C454" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3">
+      <c r="A455" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B455" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C455" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3">
+      <c r="A456" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B456" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C456" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3">
+      <c r="A457" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B457" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C457" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3">
+      <c r="A458" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B458" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C458" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3">
+      <c r="A459" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B459" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C459" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3">
+      <c r="A460" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B460" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C460" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3">
+      <c r="A461" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B461" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C461" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3">
+      <c r="A462" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B462" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C462" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3">
+      <c r="A463" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B463" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C463" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3">
+      <c r="A464" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B464" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C464" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3">
+      <c r="A465" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B465" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C465" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3">
+      <c r="A466" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B466" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C466" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3">
+      <c r="A467" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B467" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C467" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3">
+      <c r="A468" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B468" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C468" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3">
+      <c r="A469" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B469" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C469" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3">
+      <c r="A470" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B470" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C470" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3">
+      <c r="A471" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B471" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C471" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3">
+      <c r="A472" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B472" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C472" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3">
+      <c r="A473" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B473" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C473" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3">
+      <c r="A474" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B474" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C474" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3">
+      <c r="A475" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B475" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C475" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3">
+      <c r="A476" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B476" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C476" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3">
+      <c r="A477" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B477" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C477" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3">
+      <c r="A478" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B478" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C478" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3">
+      <c r="A479" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B479" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C479" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3">
+      <c r="A480" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B480" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C480" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3">
+      <c r="A481" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B481" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C481" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3">
+      <c r="A482" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B482" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C482" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3">
+      <c r="A483" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B483" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C483" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3">
+      <c r="A484" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B484" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C484" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3">
+      <c r="A485" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B485" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C485" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3">
+      <c r="A486" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B486" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C486" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3">
+      <c r="A487" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B487" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C487" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3">
+      <c r="A488" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B488" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C488" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3">
+      <c r="A489" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B489" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C489" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3">
+      <c r="A490" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B490" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C490" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3">
+      <c r="A491" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B491" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C491" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3">
+      <c r="A492" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B492" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C492" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3">
+      <c r="A493" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B493" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C493" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="494" spans="1:3">
+      <c r="A494" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B494" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C494" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="495" spans="1:3">
+      <c r="A495" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B495" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C495" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="496" spans="1:3">
+      <c r="A496" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B496" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C496" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3">
+      <c r="A497" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B497" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C497" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3">
+      <c r="A498" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B498" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C498" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3">
+      <c r="A499" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B499" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C499" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="500" spans="1:3">
+      <c r="A500" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B500" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C500" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="501" spans="1:3">
+      <c r="A501" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B501" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C501" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="502" spans="1:3">
+      <c r="A502" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B502" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C502" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="503" spans="1:3">
+      <c r="A503" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B503" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C503" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="504" spans="1:3">
+      <c r="A504" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B504" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C504" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="505" spans="1:3">
+      <c r="A505" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B505" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C505" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="506" spans="1:3">
+      <c r="A506" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B506" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C506" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="507" spans="1:3">
+      <c r="A507" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B507" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C507" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="508" spans="1:3">
+      <c r="A508" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B508" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C508" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="509" spans="1:3">
+      <c r="A509" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B509" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C509" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="510" spans="1:3">
+      <c r="A510" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B510" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C510" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="511" spans="1:3">
+      <c r="A511" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B511" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C511" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="512" spans="1:3">
+      <c r="A512" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B512" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C512" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="513" spans="1:3">
+      <c r="A513" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B513" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C513" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="514" spans="1:3">
+      <c r="A514" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B514" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C514" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="515" spans="1:3">
+      <c r="A515" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B515" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C515" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="516" spans="1:3">
+      <c r="A516" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B516" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C516" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="517" spans="1:3">
+      <c r="A517" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B517" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C517" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="518" spans="1:3">
+      <c r="A518" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B518" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C518" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="519" spans="1:3">
+      <c r="A519" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B519" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C519" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="520" spans="1:3">
+      <c r="A520" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B520" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C520" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="521" spans="1:3">
+      <c r="A521" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B521" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C521" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="522" spans="1:3">
+      <c r="A522" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B522" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C522" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="523" spans="1:3">
+      <c r="A523" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B523" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C523" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="524" spans="1:3">
+      <c r="A524" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B524" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C524" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="525" spans="1:3">
+      <c r="A525" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B525" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C525" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="526" spans="1:3">
+      <c r="A526" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B526" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C526" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="527" spans="1:3">
+      <c r="A527" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B527" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C527" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="528" spans="1:3">
+      <c r="A528" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B528" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C528" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="529" spans="1:3">
+      <c r="A529" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B529" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C529" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="530" spans="1:3">
+      <c r="A530" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B530" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C530" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="531" spans="1:3">
+      <c r="A531" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B531" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C531" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="532" spans="1:3">
+      <c r="A532" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B532" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C532" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="533" spans="1:3">
+      <c r="A533" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B533" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C533" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="534" spans="1:3">
+      <c r="A534" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B534" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C534" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="535" spans="1:3">
+      <c r="A535" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B535" t="s">
+        <v>1187</v>
+      </c>
+      <c r="C535" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="536" spans="1:3">
+      <c r="A536" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B536" t="s">
+        <v>1189</v>
+      </c>
+      <c r="C536" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="537" spans="1:3">
+      <c r="A537" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B537" t="s">
+        <v>1191</v>
+      </c>
+      <c r="C537" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="538" spans="1:3">
+      <c r="A538" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B538" t="s">
+        <v>1193</v>
+      </c>
+      <c r="C538" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="539" spans="1:3">
+      <c r="A539" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B539" t="s">
+        <v>1195</v>
+      </c>
+      <c r="C539" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="540" spans="1:3">
+      <c r="A540" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B540" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C540" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="541" spans="1:3">
+      <c r="A541" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B541" t="s">
+        <v>1199</v>
+      </c>
+      <c r="C541" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="542" spans="1:3">
+      <c r="A542" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B542" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C542" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="543" spans="1:3">
+      <c r="A543" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B543" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C543" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="544" spans="1:3">
+      <c r="A544" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B544" t="s">
+        <v>1205</v>
+      </c>
+      <c r="C544" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="545" spans="1:3">
+      <c r="A545" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B545" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C545" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="546" spans="1:3">
+      <c r="A546" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B546" t="s">
+        <v>1209</v>
+      </c>
+      <c r="C546" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="547" spans="1:3">
+      <c r="A547" t="s">
+        <v>1210</v>
+      </c>
+      <c r="B547" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C547" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="548" spans="1:3">
+      <c r="A548" t="s">
+        <v>1212</v>
+      </c>
+      <c r="B548" t="s">
+        <v>1213</v>
+      </c>
+      <c r="C548" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="549" spans="1:3">
+      <c r="A549" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B549" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C549" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="550" spans="1:3">
+      <c r="A550" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B550" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C550" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="551" spans="1:3">
+      <c r="A551" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B551" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C551" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="552" spans="1:3">
+      <c r="A552" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B552" t="s">
+        <v>1221</v>
+      </c>
+      <c r="C552" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="553" spans="1:3">
+      <c r="A553" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B553" t="s">
+        <v>1223</v>
+      </c>
+      <c r="C553" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="554" spans="1:3">
+      <c r="A554" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B554" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C554" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="555" spans="1:3">
+      <c r="A555" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B555" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C555" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="556" spans="1:3">
+      <c r="A556" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B556" t="s">
+        <v>1229</v>
+      </c>
+      <c r="C556" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="557" spans="1:3">
+      <c r="A557" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B557" t="s">
+        <v>1231</v>
+      </c>
+      <c r="C557" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="558" spans="1:3">
+      <c r="A558" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B558" t="s">
+        <v>1233</v>
+      </c>
+      <c r="C558" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="559" spans="1:3">
+      <c r="A559" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B559" t="s">
+        <v>1235</v>
+      </c>
+      <c r="C559" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="560" spans="1:3">
+      <c r="A560" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B560" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C560" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="561" spans="1:3">
+      <c r="A561" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B561" t="s">
+        <v>1213</v>
+      </c>
+      <c r="C561" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="562" spans="1:3">
+      <c r="A562" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B562" t="s">
+        <v>1240</v>
+      </c>
+      <c r="C562" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="563" spans="1:3">
+      <c r="A563" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B563" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C563" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="564" spans="1:3">
+      <c r="A564" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B564" t="s">
+        <v>1244</v>
+      </c>
+      <c r="C564" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="565" spans="1:3">
+      <c r="A565" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B565" t="s">
+        <v>1246</v>
+      </c>
+      <c r="C565" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="566" spans="1:3">
+      <c r="A566" t="s">
+        <v>1247</v>
+      </c>
+      <c r="B566" t="s">
+        <v>1248</v>
+      </c>
+      <c r="C566" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="567" spans="1:3">
+      <c r="A567" t="s">
+        <v>1249</v>
+      </c>
+      <c r="B567" t="s">
+        <v>1250</v>
+      </c>
+      <c r="C567" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="568" spans="1:3">
+      <c r="A568" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B568" t="s">
+        <v>1252</v>
+      </c>
+      <c r="C568" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="569" spans="1:3">
+      <c r="A569" t="s">
+        <v>1253</v>
+      </c>
+      <c r="B569" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C569" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="570" spans="1:3">
+      <c r="A570" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B570" t="s">
+        <v>1256</v>
+      </c>
+      <c r="C570" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="571" spans="1:3">
+      <c r="A571" t="s">
+        <v>1257</v>
+      </c>
+      <c r="B571" t="s">
+        <v>1258</v>
+      </c>
+      <c r="C571" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="572" spans="1:3">
+      <c r="A572" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B572" t="s">
+        <v>1260</v>
+      </c>
+      <c r="C572" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="573" spans="1:3">
+      <c r="A573" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B573" t="s">
+        <v>1262</v>
+      </c>
+      <c r="C573" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="574" spans="1:3">
+      <c r="A574" t="s">
+        <v>1263</v>
+      </c>
+      <c r="B574" t="s">
+        <v>1264</v>
+      </c>
+      <c r="C574" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="575" spans="1:3">
+      <c r="A575" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B575" t="s">
+        <v>1266</v>
+      </c>
+      <c r="C575" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="576" spans="1:3">
+      <c r="A576" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B576" t="s">
+        <v>1268</v>
+      </c>
+      <c r="C576" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="577" spans="1:3">
+      <c r="A577" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B577" t="s">
+        <v>1270</v>
+      </c>
+      <c r="C577" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="578" spans="1:3">
+      <c r="A578" t="s">
+        <v>1271</v>
+      </c>
+      <c r="B578" t="s">
+        <v>1272</v>
+      </c>
+      <c r="C578" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/模型统计(总).xlsx
+++ b/模型统计(总).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1671" uniqueCount="1140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1680" uniqueCount="1146">
   <si>
     <t>dt431</t>
   </si>
@@ -3434,6 +3434,24 @@
   </si>
   <si>
     <t>代理记账-20190527-王总(上海,天津,山东,江苏)-3天</t>
+  </si>
+  <si>
+    <t>dt1835</t>
+  </si>
+  <si>
+    <t>餐饮加盟-20180528-艾总(广东,广西,湖南)-3天</t>
+  </si>
+  <si>
+    <t>dt1836</t>
+  </si>
+  <si>
+    <t>餐饮加盟-20180528-艾总(广东,四川,福建,湖南)-3天</t>
+  </si>
+  <si>
+    <t>dt1837</t>
+  </si>
+  <si>
+    <t>成人教育-20180528-九总(江西)-6天</t>
   </si>
 </sst>
 </file>
@@ -3442,8 +3460,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -3455,37 +3473,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3493,22 +3483,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3530,6 +3505,42 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -3538,9 +3549,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3555,15 +3566,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3577,9 +3603,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3587,13 +3612,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3608,13 +3626,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3626,37 +3662,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3668,7 +3680,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3686,25 +3698,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3716,19 +3722,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3740,31 +3788,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3776,19 +3800,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3802,11 +3820,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3822,6 +3861,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3844,23 +3892,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3875,30 +3917,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3907,10 +3925,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3919,133 +3937,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4372,15 +4390,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C579"/>
+  <dimension ref="A1:C582"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A551" workbookViewId="0">
-      <selection activeCell="B577" sqref="B577:B578"/>
+    <sheetView tabSelected="1" topLeftCell="A557" workbookViewId="0">
+      <selection activeCell="E582" sqref="E582"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
-    <col min="2" max="2" width="189.75" customWidth="1"/>
+    <col min="2" max="2" width="89.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -10554,6 +10572,39 @@
         <v>2</v>
       </c>
     </row>
+    <row r="580" spans="1:3">
+      <c r="A580" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B580" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C580" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="581" spans="1:3">
+      <c r="A581" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B581" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C581" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="582" spans="1:3">
+      <c r="A582" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B582" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C582" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/模型统计(总).xlsx
+++ b/模型统计(总).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1680" uniqueCount="1146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1689" uniqueCount="1153">
   <si>
     <t>dt431</t>
   </si>
@@ -3452,6 +3452,27 @@
   </si>
   <si>
     <t>成人教育-20180528-九总(江西)-6天</t>
+  </si>
+  <si>
+    <t>dt1848</t>
+  </si>
+  <si>
+    <t>民生证券GQ-20190529-广东-1W</t>
+  </si>
+  <si>
+    <t>广州(邱总)</t>
+  </si>
+  <si>
+    <t>dt1849</t>
+  </si>
+  <si>
+    <t>现金贷-20180529-晟总(北京,上海,广东,浙江,江苏)-1天</t>
+  </si>
+  <si>
+    <t>dt1850</t>
+  </si>
+  <si>
+    <t>咨询-20190529-洋总(全国)-1天</t>
   </si>
 </sst>
 </file>
@@ -3460,9 +3481,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -3473,9 +3494,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3483,7 +3532,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3505,15 +3554,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3526,32 +3569,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3566,28 +3602,20 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -3598,13 +3626,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3626,43 +3647,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3680,7 +3671,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3692,7 +3701,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3704,7 +3719,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3716,13 +3737,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3734,13 +3773,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3752,7 +3797,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3764,31 +3815,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3800,13 +3827,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3817,6 +3838,24 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -3831,6 +3870,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3851,30 +3899,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -3889,20 +3913,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3925,10 +3946,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3937,133 +3958,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4390,15 +4411,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C582"/>
+  <dimension ref="A1:C585"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A557" workbookViewId="0">
-      <selection activeCell="E582" sqref="E582"/>
+    <sheetView tabSelected="1" topLeftCell="A565" workbookViewId="0">
+      <selection activeCell="C585" sqref="C585"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
-    <col min="2" max="2" width="89.625" customWidth="1"/>
+    <col min="2" max="2" width="55.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -10605,6 +10626,39 @@
         <v>2</v>
       </c>
     </row>
+    <row r="583" spans="1:3">
+      <c r="A583" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B583" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C583" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="584" spans="1:3">
+      <c r="A584" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B584" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C584" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="585" spans="1:3">
+      <c r="A585" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B585" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C585" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/模型统计(总).xlsx
+++ b/模型统计(总).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1689" uniqueCount="1153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1692" uniqueCount="1155">
   <si>
     <t>dt431</t>
   </si>
@@ -3473,6 +3473,12 @@
   </si>
   <si>
     <t>咨询-20190529-洋总(全国)-1天</t>
+  </si>
+  <si>
+    <t>dt1858</t>
+  </si>
+  <si>
+    <t>大众点评婚礼G-20190529-江苏-1天-1w</t>
   </si>
 </sst>
 </file>
@@ -3480,10 +3486,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -3494,8 +3500,107 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3516,59 +3621,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -3578,54 +3630,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3647,7 +3653,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3659,13 +3725,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3677,157 +3827,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3841,11 +3847,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3859,17 +3871,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3879,6 +3887,30 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3899,42 +3931,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3946,10 +3952,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3958,133 +3964,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4411,10 +4417,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C585"/>
+  <dimension ref="A1:C586"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A565" workbookViewId="0">
-      <selection activeCell="C585" sqref="C585"/>
+      <selection activeCell="A586" sqref="$A586:$XFD586"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -10659,6 +10665,17 @@
         <v>2</v>
       </c>
     </row>
+    <row r="586" spans="1:3">
+      <c r="A586" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B586" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C586" t="s">
+        <v>395</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/模型统计(总).xlsx
+++ b/模型统计(总).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1692" uniqueCount="1155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1695" uniqueCount="1157">
   <si>
     <t>dt431</t>
   </si>
@@ -3479,6 +3479,12 @@
   </si>
   <si>
     <t>大众点评婚礼G-20190529-江苏-1天-1w</t>
+  </si>
+  <si>
+    <t>dt1873</t>
+  </si>
+  <si>
+    <t>苏州苏通股票G-除去上海，北京，广东，新疆，西藏-限量1W</t>
   </si>
 </sst>
 </file>
@@ -3487,8 +3493,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -3500,25 +3506,45 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3532,16 +3558,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3556,7 +3575,53 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3572,65 +3637,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -3638,7 +3644,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3653,7 +3659,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3665,49 +3767,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3719,55 +3779,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3785,19 +3797,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3809,25 +3809,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3847,6 +3853,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -3862,11 +3886,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3892,6 +3922,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -3905,45 +3950,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3952,10 +3958,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3964,133 +3970,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4417,10 +4423,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C586"/>
+  <dimension ref="A1:C587"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A565" workbookViewId="0">
-      <selection activeCell="A586" sqref="$A586:$XFD586"/>
+      <selection activeCell="C587" sqref="C587"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -10676,6 +10682,17 @@
         <v>395</v>
       </c>
     </row>
+    <row r="587" spans="1:3">
+      <c r="A587" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B587" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C587" t="s">
+        <v>395</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
